--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>387100</v>
+        <v>397000</v>
       </c>
       <c r="E8" s="3">
-        <v>492100</v>
+        <v>395600</v>
       </c>
       <c r="F8" s="3">
-        <v>430100</v>
+        <v>502900</v>
       </c>
       <c r="G8" s="3">
-        <v>426800</v>
+        <v>439500</v>
       </c>
       <c r="H8" s="3">
-        <v>413000</v>
+        <v>436200</v>
       </c>
       <c r="I8" s="3">
-        <v>476700</v>
+        <v>422100</v>
       </c>
       <c r="J8" s="3">
+        <v>487200</v>
+      </c>
+      <c r="K8" s="3">
         <v>448800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>427700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>419800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>481900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>440000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>415700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>413400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>172000</v>
+        <v>195500</v>
       </c>
       <c r="E9" s="3">
-        <v>223500</v>
+        <v>175800</v>
       </c>
       <c r="F9" s="3">
-        <v>185500</v>
+        <v>228400</v>
       </c>
       <c r="G9" s="3">
-        <v>206700</v>
+        <v>189600</v>
       </c>
       <c r="H9" s="3">
-        <v>188500</v>
+        <v>211200</v>
       </c>
       <c r="I9" s="3">
-        <v>222300</v>
+        <v>192600</v>
       </c>
       <c r="J9" s="3">
+        <v>227200</v>
+      </c>
+      <c r="K9" s="3">
         <v>198900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>213900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>192300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>226900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>198600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>210000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>189200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>215100</v>
+        <v>201500</v>
       </c>
       <c r="E10" s="3">
-        <v>268600</v>
+        <v>219800</v>
       </c>
       <c r="F10" s="3">
-        <v>244600</v>
+        <v>274500</v>
       </c>
       <c r="G10" s="3">
-        <v>220100</v>
+        <v>250000</v>
       </c>
       <c r="H10" s="3">
-        <v>224500</v>
+        <v>225000</v>
       </c>
       <c r="I10" s="3">
-        <v>254400</v>
+        <v>229400</v>
       </c>
       <c r="J10" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K10" s="3">
         <v>249900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>213800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>254900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>241400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>205700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>224200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -903,46 +917,49 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="3">
         <v>1700</v>
       </c>
       <c r="G12" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H12" s="3">
         <v>1700</v>
       </c>
       <c r="I12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1800</v>
       </c>
       <c r="L12" s="3">
         <v>1800</v>
       </c>
       <c r="M12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>4400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1002,11 +1022,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>53000</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>54200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>384300</v>
+        <v>426400</v>
       </c>
       <c r="E17" s="3">
-        <v>438900</v>
+        <v>392700</v>
       </c>
       <c r="F17" s="3">
-        <v>397000</v>
+        <v>448600</v>
       </c>
       <c r="G17" s="3">
-        <v>484000</v>
+        <v>405700</v>
       </c>
       <c r="H17" s="3">
-        <v>393200</v>
+        <v>494700</v>
       </c>
       <c r="I17" s="3">
-        <v>434900</v>
+        <v>401800</v>
       </c>
       <c r="J17" s="3">
+        <v>444500</v>
+      </c>
+      <c r="K17" s="3">
         <v>408800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>432400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>395100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>435900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>416600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>384200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2800</v>
       </c>
-      <c r="E18" s="3">
-        <v>53200</v>
-      </c>
       <c r="F18" s="3">
-        <v>33100</v>
+        <v>54400</v>
       </c>
       <c r="G18" s="3">
-        <v>-57200</v>
+        <v>33900</v>
       </c>
       <c r="H18" s="3">
-        <v>19800</v>
+        <v>-58500</v>
       </c>
       <c r="I18" s="3">
-        <v>41800</v>
+        <v>20300</v>
       </c>
       <c r="J18" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K18" s="3">
         <v>40000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>54900</v>
+        <v>-75600</v>
       </c>
       <c r="E20" s="3">
-        <v>17800</v>
+        <v>56100</v>
       </c>
       <c r="F20" s="3">
-        <v>-19300</v>
+        <v>18200</v>
       </c>
       <c r="G20" s="3">
-        <v>25600</v>
+        <v>-19700</v>
       </c>
       <c r="H20" s="3">
-        <v>-116400</v>
+        <v>26200</v>
       </c>
       <c r="I20" s="3">
-        <v>25400</v>
+        <v>-119000</v>
       </c>
       <c r="J20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K20" s="3">
         <v>41200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72100</v>
+        <v>-90000</v>
       </c>
       <c r="E21" s="3">
-        <v>84200</v>
+        <v>73600</v>
       </c>
       <c r="F21" s="3">
-        <v>26500</v>
+        <v>86000</v>
       </c>
       <c r="G21" s="3">
-        <v>-17900</v>
+        <v>27000</v>
       </c>
       <c r="H21" s="3">
-        <v>-84000</v>
+        <v>-18300</v>
       </c>
       <c r="I21" s="3">
-        <v>79600</v>
+        <v>-85800</v>
       </c>
       <c r="J21" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K21" s="3">
         <v>93700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>63300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>53000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1329,20 +1369,20 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1350,104 +1390,113 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>57700</v>
+        <v>-105100</v>
       </c>
       <c r="E23" s="3">
-        <v>71000</v>
+        <v>58900</v>
       </c>
       <c r="F23" s="3">
-        <v>13800</v>
+        <v>72500</v>
       </c>
       <c r="G23" s="3">
-        <v>-31600</v>
+        <v>14100</v>
       </c>
       <c r="H23" s="3">
-        <v>-96600</v>
+        <v>-32300</v>
       </c>
       <c r="I23" s="3">
-        <v>67200</v>
+        <v>-98800</v>
       </c>
       <c r="J23" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K23" s="3">
         <v>81100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17900</v>
+        <v>-31900</v>
       </c>
       <c r="E24" s="3">
-        <v>22300</v>
+        <v>18300</v>
       </c>
       <c r="F24" s="3">
-        <v>4300</v>
+        <v>22800</v>
       </c>
       <c r="G24" s="3">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="H24" s="3">
-        <v>-29100</v>
+        <v>5100</v>
       </c>
       <c r="I24" s="3">
-        <v>21400</v>
+        <v>-29800</v>
       </c>
       <c r="J24" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K24" s="3">
         <v>25800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39800</v>
+        <v>-73200</v>
       </c>
       <c r="E26" s="3">
-        <v>48700</v>
+        <v>40700</v>
       </c>
       <c r="F26" s="3">
-        <v>9600</v>
+        <v>49700</v>
       </c>
       <c r="G26" s="3">
-        <v>-36600</v>
+        <v>9800</v>
       </c>
       <c r="H26" s="3">
-        <v>-67500</v>
+        <v>-37400</v>
       </c>
       <c r="I26" s="3">
-        <v>45800</v>
+        <v>-69000</v>
       </c>
       <c r="J26" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K26" s="3">
         <v>55300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39500</v>
+        <v>-70100</v>
       </c>
       <c r="E27" s="3">
-        <v>49800</v>
+        <v>40400</v>
       </c>
       <c r="F27" s="3">
-        <v>10800</v>
+        <v>50900</v>
       </c>
       <c r="G27" s="3">
-        <v>-36400</v>
+        <v>11100</v>
       </c>
       <c r="H27" s="3">
-        <v>-64100</v>
+        <v>-37200</v>
       </c>
       <c r="I27" s="3">
-        <v>46400</v>
+        <v>-65500</v>
       </c>
       <c r="J27" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K27" s="3">
         <v>57200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-54900</v>
+        <v>75600</v>
       </c>
       <c r="E32" s="3">
-        <v>-17800</v>
+        <v>-56100</v>
       </c>
       <c r="F32" s="3">
-        <v>19300</v>
+        <v>-18200</v>
       </c>
       <c r="G32" s="3">
-        <v>-25600</v>
+        <v>19700</v>
       </c>
       <c r="H32" s="3">
-        <v>116400</v>
+        <v>-26200</v>
       </c>
       <c r="I32" s="3">
-        <v>-25400</v>
+        <v>119000</v>
       </c>
       <c r="J32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-41200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39500</v>
+        <v>-70100</v>
       </c>
       <c r="E33" s="3">
-        <v>49800</v>
+        <v>40400</v>
       </c>
       <c r="F33" s="3">
-        <v>10800</v>
+        <v>50900</v>
       </c>
       <c r="G33" s="3">
-        <v>-36400</v>
+        <v>11100</v>
       </c>
       <c r="H33" s="3">
-        <v>-64100</v>
+        <v>-37200</v>
       </c>
       <c r="I33" s="3">
-        <v>46400</v>
+        <v>-65500</v>
       </c>
       <c r="J33" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K33" s="3">
         <v>57200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39500</v>
+        <v>-70100</v>
       </c>
       <c r="E35" s="3">
-        <v>49800</v>
+        <v>40400</v>
       </c>
       <c r="F35" s="3">
-        <v>10800</v>
+        <v>50900</v>
       </c>
       <c r="G35" s="3">
-        <v>-36400</v>
+        <v>11100</v>
       </c>
       <c r="H35" s="3">
-        <v>-64100</v>
+        <v>-37200</v>
       </c>
       <c r="I35" s="3">
-        <v>46400</v>
+        <v>-65500</v>
       </c>
       <c r="J35" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K35" s="3">
         <v>57200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>261200</v>
+        <v>266600</v>
       </c>
       <c r="E41" s="3">
-        <v>238400</v>
+        <v>267000</v>
       </c>
       <c r="F41" s="3">
-        <v>291200</v>
+        <v>243600</v>
       </c>
       <c r="G41" s="3">
-        <v>310300</v>
+        <v>297600</v>
       </c>
       <c r="H41" s="3">
-        <v>313300</v>
+        <v>317100</v>
       </c>
       <c r="I41" s="3">
-        <v>319300</v>
+        <v>320200</v>
       </c>
       <c r="J41" s="3">
+        <v>326300</v>
+      </c>
+      <c r="K41" s="3">
         <v>346700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>305400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>321400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>325700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>325600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>325700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>384500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4100</v>
       </c>
-      <c r="H42" s="3">
-        <v>5100</v>
-      </c>
       <c r="I42" s="3">
-        <v>11100</v>
+        <v>5200</v>
       </c>
       <c r="J42" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K42" s="3">
         <v>15600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>184000</v>
+        <v>181800</v>
       </c>
       <c r="E43" s="3">
-        <v>246800</v>
+        <v>188100</v>
       </c>
       <c r="F43" s="3">
-        <v>214900</v>
+        <v>252300</v>
       </c>
       <c r="G43" s="3">
+        <v>219600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>230000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>197300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K43" s="3">
         <v>225100</v>
       </c>
-      <c r="H43" s="3">
-        <v>193000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>243700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>225100</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>211700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>181400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>218700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>191400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>204800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>180700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>401800</v>
+        <v>403400</v>
       </c>
       <c r="E44" s="3">
-        <v>384100</v>
+        <v>410700</v>
       </c>
       <c r="F44" s="3">
-        <v>401000</v>
+        <v>392600</v>
       </c>
       <c r="G44" s="3">
-        <v>386400</v>
+        <v>409800</v>
       </c>
       <c r="H44" s="3">
-        <v>394500</v>
+        <v>394900</v>
       </c>
       <c r="I44" s="3">
-        <v>385700</v>
+        <v>403100</v>
       </c>
       <c r="J44" s="3">
+        <v>394200</v>
+      </c>
+      <c r="K44" s="3">
         <v>395000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>385800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>402300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>398300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>415100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>388700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>385100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56100</v>
+        <v>54200</v>
       </c>
       <c r="E45" s="3">
-        <v>56800</v>
+        <v>57400</v>
       </c>
       <c r="F45" s="3">
-        <v>74800</v>
+        <v>58000</v>
       </c>
       <c r="G45" s="3">
-        <v>56000</v>
+        <v>76400</v>
       </c>
       <c r="H45" s="3">
-        <v>65100</v>
+        <v>57300</v>
       </c>
       <c r="I45" s="3">
-        <v>60200</v>
+        <v>66600</v>
       </c>
       <c r="J45" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K45" s="3">
         <v>72800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>77500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>69500</v>
       </c>
       <c r="Q45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>908200</v>
+        <v>912200</v>
       </c>
       <c r="E46" s="3">
-        <v>931100</v>
+        <v>928200</v>
       </c>
       <c r="F46" s="3">
-        <v>984800</v>
+        <v>951600</v>
       </c>
       <c r="G46" s="3">
-        <v>981900</v>
+        <v>1006400</v>
       </c>
       <c r="H46" s="3">
-        <v>971100</v>
+        <v>1003500</v>
       </c>
       <c r="I46" s="3">
-        <v>1019900</v>
+        <v>992400</v>
       </c>
       <c r="J46" s="3">
+        <v>1042400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1055200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>956500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>963500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>994400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1014800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1009500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1037200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>714200</v>
+        <v>608500</v>
       </c>
       <c r="E47" s="3">
-        <v>728500</v>
+        <v>729900</v>
       </c>
       <c r="F47" s="3">
-        <v>742600</v>
+        <v>744600</v>
       </c>
       <c r="G47" s="3">
-        <v>774700</v>
+        <v>758900</v>
       </c>
       <c r="H47" s="3">
-        <v>764100</v>
+        <v>791800</v>
       </c>
       <c r="I47" s="3">
-        <v>881300</v>
+        <v>781000</v>
       </c>
       <c r="J47" s="3">
+        <v>900700</v>
+      </c>
+      <c r="K47" s="3">
         <v>854800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>830100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>845000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>781800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>770600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>715900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>707400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>601500</v>
+        <v>609600</v>
       </c>
       <c r="E48" s="3">
-        <v>602800</v>
+        <v>614800</v>
       </c>
       <c r="F48" s="3">
-        <v>606300</v>
+        <v>616000</v>
       </c>
       <c r="G48" s="3">
-        <v>484200</v>
+        <v>619600</v>
       </c>
       <c r="H48" s="3">
-        <v>486100</v>
+        <v>494900</v>
       </c>
       <c r="I48" s="3">
-        <v>488400</v>
+        <v>496800</v>
       </c>
       <c r="J48" s="3">
+        <v>499100</v>
+      </c>
+      <c r="K48" s="3">
         <v>490900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>491200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>494000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>496700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>498500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>490400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>486800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>348500</v>
+        <v>343000</v>
       </c>
       <c r="E49" s="3">
-        <v>334700</v>
+        <v>356200</v>
       </c>
       <c r="F49" s="3">
-        <v>212800</v>
+        <v>342100</v>
       </c>
       <c r="G49" s="3">
-        <v>220400</v>
+        <v>217500</v>
       </c>
       <c r="H49" s="3">
-        <v>265800</v>
+        <v>225300</v>
       </c>
       <c r="I49" s="3">
-        <v>269800</v>
+        <v>271700</v>
       </c>
       <c r="J49" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K49" s="3">
         <v>264000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>266300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>267300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>265000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>258900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>247700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>248500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96600</v>
+        <v>106400</v>
       </c>
       <c r="E52" s="3">
-        <v>99700</v>
+        <v>98700</v>
       </c>
       <c r="F52" s="3">
-        <v>100000</v>
+        <v>101900</v>
       </c>
       <c r="G52" s="3">
-        <v>100000</v>
+        <v>102200</v>
       </c>
       <c r="H52" s="3">
-        <v>160100</v>
+        <v>102200</v>
       </c>
       <c r="I52" s="3">
-        <v>158400</v>
+        <v>163600</v>
       </c>
       <c r="J52" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K52" s="3">
         <v>157100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>154600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>160000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>162800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>160700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>152800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>136700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2669100</v>
+        <v>2579700</v>
       </c>
       <c r="E54" s="3">
-        <v>2696800</v>
+        <v>2727900</v>
       </c>
       <c r="F54" s="3">
-        <v>2646500</v>
+        <v>2756100</v>
       </c>
       <c r="G54" s="3">
-        <v>2561300</v>
+        <v>2704700</v>
       </c>
       <c r="H54" s="3">
-        <v>2647200</v>
+        <v>2617600</v>
       </c>
       <c r="I54" s="3">
-        <v>2817800</v>
+        <v>2705500</v>
       </c>
       <c r="J54" s="3">
+        <v>2879800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2822100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2698700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2729900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2703500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2616300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2616600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,201 +2879,214 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>97000</v>
+        <v>99400</v>
       </c>
       <c r="E57" s="3">
-        <v>105300</v>
+        <v>99100</v>
       </c>
       <c r="F57" s="3">
-        <v>106100</v>
+        <v>107600</v>
       </c>
       <c r="G57" s="3">
-        <v>107200</v>
+        <v>108500</v>
       </c>
       <c r="H57" s="3">
-        <v>107200</v>
+        <v>109600</v>
       </c>
       <c r="I57" s="3">
-        <v>110200</v>
+        <v>109500</v>
       </c>
       <c r="J57" s="3">
+        <v>112700</v>
+      </c>
+      <c r="K57" s="3">
         <v>111300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>113600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>124600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>115700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>116600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>36800</v>
+        <v>31700</v>
       </c>
       <c r="E58" s="3">
-        <v>70500</v>
+        <v>37600</v>
       </c>
       <c r="F58" s="3">
-        <v>90700</v>
+        <v>72000</v>
       </c>
       <c r="G58" s="3">
-        <v>74200</v>
+        <v>92700</v>
       </c>
       <c r="H58" s="3">
-        <v>74500</v>
+        <v>75900</v>
       </c>
       <c r="I58" s="3">
-        <v>66000</v>
+        <v>76200</v>
       </c>
       <c r="J58" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K58" s="3">
         <v>112800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>67700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>69300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>113300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>68900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>88600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270400</v>
+        <v>278600</v>
       </c>
       <c r="E59" s="3">
-        <v>271000</v>
+        <v>276300</v>
       </c>
       <c r="F59" s="3">
-        <v>247200</v>
+        <v>277000</v>
       </c>
       <c r="G59" s="3">
-        <v>217300</v>
+        <v>252600</v>
       </c>
       <c r="H59" s="3">
-        <v>203200</v>
+        <v>222100</v>
       </c>
       <c r="I59" s="3">
-        <v>216400</v>
+        <v>207600</v>
       </c>
       <c r="J59" s="3">
+        <v>221100</v>
+      </c>
+      <c r="K59" s="3">
         <v>214000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>180000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>169600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>181900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>172000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>179600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>180200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>404100</v>
+        <v>409800</v>
       </c>
       <c r="E60" s="3">
-        <v>446800</v>
+        <v>413000</v>
       </c>
       <c r="F60" s="3">
-        <v>444000</v>
+        <v>456600</v>
       </c>
       <c r="G60" s="3">
-        <v>398700</v>
+        <v>453700</v>
       </c>
       <c r="H60" s="3">
-        <v>384800</v>
+        <v>407500</v>
       </c>
       <c r="I60" s="3">
-        <v>392600</v>
+        <v>393300</v>
       </c>
       <c r="J60" s="3">
+        <v>401300</v>
+      </c>
+      <c r="K60" s="3">
         <v>438100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>358300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>349300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>364100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>409900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>364200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>385500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2952,11 +3095,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2964,11 +3107,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2976,63 +3119,69 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>256800</v>
+        <v>223900</v>
       </c>
       <c r="E62" s="3">
-        <v>258100</v>
+        <v>262500</v>
       </c>
       <c r="F62" s="3">
-        <v>236100</v>
+        <v>263800</v>
       </c>
       <c r="G62" s="3">
-        <v>151600</v>
+        <v>241300</v>
       </c>
       <c r="H62" s="3">
-        <v>174400</v>
+        <v>154900</v>
       </c>
       <c r="I62" s="3">
-        <v>210100</v>
+        <v>178200</v>
       </c>
       <c r="J62" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K62" s="3">
         <v>205900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>192300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>203000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>183900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>175200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>188300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>173700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>703900</v>
+        <v>671800</v>
       </c>
       <c r="E66" s="3">
-        <v>747400</v>
+        <v>719400</v>
       </c>
       <c r="F66" s="3">
-        <v>722300</v>
+        <v>763800</v>
       </c>
       <c r="G66" s="3">
-        <v>593300</v>
+        <v>738200</v>
       </c>
       <c r="H66" s="3">
-        <v>602700</v>
+        <v>606400</v>
       </c>
       <c r="I66" s="3">
-        <v>644400</v>
+        <v>616000</v>
       </c>
       <c r="J66" s="3">
+        <v>658600</v>
+      </c>
+      <c r="K66" s="3">
         <v>685500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>595000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>596700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>591600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>628600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>597700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1752500</v>
+        <v>1720800</v>
       </c>
       <c r="E72" s="3">
-        <v>1736200</v>
+        <v>1791000</v>
       </c>
       <c r="F72" s="3">
-        <v>1686500</v>
+        <v>1774400</v>
       </c>
       <c r="G72" s="3">
-        <v>1755600</v>
+        <v>1723600</v>
       </c>
       <c r="H72" s="3">
-        <v>1792100</v>
+        <v>1794300</v>
       </c>
       <c r="I72" s="3">
-        <v>1877900</v>
+        <v>1831500</v>
       </c>
       <c r="J72" s="3">
+        <v>1919200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1831500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1558700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1559800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1559900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1528300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1508400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1504600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1965200</v>
+        <v>1907900</v>
       </c>
       <c r="E76" s="3">
-        <v>1949400</v>
+        <v>2008500</v>
       </c>
       <c r="F76" s="3">
-        <v>1924200</v>
+        <v>1992300</v>
       </c>
       <c r="G76" s="3">
-        <v>1967900</v>
+        <v>1966500</v>
       </c>
       <c r="H76" s="3">
-        <v>2044500</v>
+        <v>2011200</v>
       </c>
       <c r="I76" s="3">
-        <v>2173300</v>
+        <v>2089500</v>
       </c>
       <c r="J76" s="3">
+        <v>2221200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2136600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2103700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2133200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2109100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2074900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2018500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2016300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39500</v>
+        <v>-70100</v>
       </c>
       <c r="E81" s="3">
-        <v>49800</v>
+        <v>40400</v>
       </c>
       <c r="F81" s="3">
-        <v>10800</v>
+        <v>50900</v>
       </c>
       <c r="G81" s="3">
-        <v>-36400</v>
+        <v>11100</v>
       </c>
       <c r="H81" s="3">
-        <v>-64100</v>
+        <v>-37200</v>
       </c>
       <c r="I81" s="3">
-        <v>46400</v>
+        <v>-65500</v>
       </c>
       <c r="J81" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K81" s="3">
         <v>57200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="E83" s="3">
-        <v>13100</v>
+        <v>14700</v>
       </c>
       <c r="F83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
-        <v>13700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48000</v>
+        <v>2800</v>
       </c>
       <c r="E89" s="3">
-        <v>54300</v>
+        <v>49100</v>
       </c>
       <c r="F89" s="3">
-        <v>16000</v>
+        <v>55500</v>
       </c>
       <c r="G89" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H89" s="3">
         <v>2700</v>
       </c>
-      <c r="H89" s="3">
-        <v>48600</v>
-      </c>
       <c r="I89" s="3">
-        <v>46200</v>
+        <v>49700</v>
       </c>
       <c r="J89" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K89" s="3">
         <v>26300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>63400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8700</v>
+        <v>-8000</v>
       </c>
       <c r="E91" s="3">
-        <v>-7700</v>
+        <v>-8900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7000</v>
+        <v>-7900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6600</v>
+        <v>-7200</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-6700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5100</v>
+        <v>-7800</v>
       </c>
       <c r="J91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47000</v>
+        <v>31600</v>
       </c>
       <c r="E94" s="3">
-        <v>-51800</v>
+        <v>48100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2800</v>
+        <v>-52900</v>
       </c>
       <c r="G94" s="3">
-        <v>9100</v>
+        <v>-2900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7000</v>
+        <v>9300</v>
       </c>
       <c r="I94" s="3">
-        <v>-21400</v>
+        <v>-7200</v>
       </c>
       <c r="J94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-23800</v>
       </c>
       <c r="F96" s="3">
-        <v>-21300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-21800</v>
       </c>
       <c r="H96" s="3">
-        <v>-21700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-22200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-22100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-44700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-75400</v>
+        <v>-31600</v>
       </c>
       <c r="E100" s="3">
-        <v>-35400</v>
+        <v>-77000</v>
       </c>
       <c r="F100" s="3">
-        <v>-17100</v>
+        <v>-36200</v>
       </c>
       <c r="G100" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-43400</v>
-      </c>
       <c r="I100" s="3">
-        <v>-66800</v>
+        <v>-44400</v>
       </c>
       <c r="J100" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="K100" s="3">
         <v>12500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-42200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-59100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-5100</v>
-      </c>
       <c r="G101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="H101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4300</v>
-      </c>
       <c r="I101" s="3">
-        <v>2500</v>
+        <v>-4400</v>
       </c>
       <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>18500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21300</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>-32800</v>
+        <v>21800</v>
       </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>-33500</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>-9200</v>
       </c>
       <c r="H102" s="3">
-        <v>-6100</v>
+        <v>12700</v>
       </c>
       <c r="I102" s="3">
-        <v>-39500</v>
+        <v>-6200</v>
       </c>
       <c r="J102" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="K102" s="3">
         <v>39000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-61300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>53400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>397000</v>
+        <v>269500</v>
       </c>
       <c r="E8" s="3">
-        <v>395600</v>
+        <v>403400</v>
       </c>
       <c r="F8" s="3">
-        <v>502900</v>
+        <v>402000</v>
       </c>
       <c r="G8" s="3">
-        <v>439500</v>
+        <v>511100</v>
       </c>
       <c r="H8" s="3">
-        <v>436200</v>
+        <v>446600</v>
       </c>
       <c r="I8" s="3">
-        <v>422100</v>
+        <v>443200</v>
       </c>
       <c r="J8" s="3">
+        <v>428900</v>
+      </c>
+      <c r="K8" s="3">
         <v>487200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>448800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>427700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>419800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>481900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>440000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>415700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>413400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>195500</v>
+        <v>125300</v>
       </c>
       <c r="E9" s="3">
-        <v>175800</v>
+        <v>198700</v>
       </c>
       <c r="F9" s="3">
-        <v>228400</v>
+        <v>178600</v>
       </c>
       <c r="G9" s="3">
-        <v>189600</v>
+        <v>232100</v>
       </c>
       <c r="H9" s="3">
-        <v>211200</v>
+        <v>192600</v>
       </c>
       <c r="I9" s="3">
-        <v>192600</v>
+        <v>214600</v>
       </c>
       <c r="J9" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K9" s="3">
         <v>227200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>198900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>213900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>192300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>226900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>198600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>210000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>189200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>201500</v>
+        <v>144200</v>
       </c>
       <c r="E10" s="3">
-        <v>219800</v>
+        <v>204700</v>
       </c>
       <c r="F10" s="3">
-        <v>274500</v>
+        <v>223300</v>
       </c>
       <c r="G10" s="3">
-        <v>250000</v>
+        <v>279000</v>
       </c>
       <c r="H10" s="3">
-        <v>225000</v>
+        <v>254000</v>
       </c>
       <c r="I10" s="3">
-        <v>229400</v>
+        <v>228600</v>
       </c>
       <c r="J10" s="3">
+        <v>233100</v>
+      </c>
+      <c r="K10" s="3">
         <v>260000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>213800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>227500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>254900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>241400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>205700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>224200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1800</v>
       </c>
       <c r="M12" s="3">
         <v>1800</v>
       </c>
       <c r="N12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>4400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1025,11 +1045,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>54200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>55100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>426400</v>
+        <v>311700</v>
       </c>
       <c r="E17" s="3">
-        <v>392700</v>
+        <v>433300</v>
       </c>
       <c r="F17" s="3">
-        <v>448600</v>
+        <v>399100</v>
       </c>
       <c r="G17" s="3">
-        <v>405700</v>
+        <v>455800</v>
       </c>
       <c r="H17" s="3">
-        <v>494700</v>
+        <v>412200</v>
       </c>
       <c r="I17" s="3">
-        <v>401800</v>
+        <v>502700</v>
       </c>
       <c r="J17" s="3">
+        <v>408300</v>
+      </c>
+      <c r="K17" s="3">
         <v>444500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>408800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>432400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>395100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>435900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>416600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>384200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-29400</v>
+        <v>-42200</v>
       </c>
       <c r="E18" s="3">
-        <v>2800</v>
+        <v>-29900</v>
       </c>
       <c r="F18" s="3">
-        <v>54400</v>
+        <v>2900</v>
       </c>
       <c r="G18" s="3">
-        <v>33900</v>
+        <v>55200</v>
       </c>
       <c r="H18" s="3">
-        <v>-58500</v>
+        <v>34400</v>
       </c>
       <c r="I18" s="3">
-        <v>20300</v>
+        <v>-59400</v>
       </c>
       <c r="J18" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K18" s="3">
         <v>42700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,125 +1278,132 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-75600</v>
+        <v>14800</v>
       </c>
       <c r="E20" s="3">
-        <v>56100</v>
+        <v>-76800</v>
       </c>
       <c r="F20" s="3">
-        <v>18200</v>
+        <v>57000</v>
       </c>
       <c r="G20" s="3">
-        <v>-19700</v>
+        <v>18500</v>
       </c>
       <c r="H20" s="3">
-        <v>26200</v>
+        <v>-20000</v>
       </c>
       <c r="I20" s="3">
-        <v>-119000</v>
+        <v>26600</v>
       </c>
       <c r="J20" s="3">
+        <v>-120900</v>
+      </c>
+      <c r="K20" s="3">
         <v>26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-90000</v>
+        <v>-13500</v>
       </c>
       <c r="E21" s="3">
-        <v>73600</v>
+        <v>-91500</v>
       </c>
       <c r="F21" s="3">
-        <v>86000</v>
+        <v>74800</v>
       </c>
       <c r="G21" s="3">
-        <v>27000</v>
+        <v>87400</v>
       </c>
       <c r="H21" s="3">
-        <v>-18300</v>
+        <v>27500</v>
       </c>
       <c r="I21" s="3">
-        <v>-85800</v>
+        <v>-18600</v>
       </c>
       <c r="J21" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="K21" s="3">
         <v>81400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>93700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>46900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1372,20 +1412,20 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1393,110 +1433,119 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-105100</v>
+        <v>-27500</v>
       </c>
       <c r="E23" s="3">
-        <v>58900</v>
+        <v>-106800</v>
       </c>
       <c r="F23" s="3">
-        <v>72500</v>
+        <v>59900</v>
       </c>
       <c r="G23" s="3">
-        <v>14100</v>
+        <v>73700</v>
       </c>
       <c r="H23" s="3">
-        <v>-32300</v>
+        <v>14300</v>
       </c>
       <c r="I23" s="3">
-        <v>-98800</v>
+        <v>-32800</v>
       </c>
       <c r="J23" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="K23" s="3">
         <v>68700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>81100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>48500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-31900</v>
+        <v>5800</v>
       </c>
       <c r="E24" s="3">
-        <v>18300</v>
+        <v>-32400</v>
       </c>
       <c r="F24" s="3">
-        <v>22800</v>
+        <v>18500</v>
       </c>
       <c r="G24" s="3">
+        <v>23200</v>
+      </c>
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
-        <v>5100</v>
-      </c>
       <c r="I24" s="3">
-        <v>-29800</v>
+        <v>5200</v>
       </c>
       <c r="J24" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="K24" s="3">
         <v>21800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-73200</v>
+        <v>-33400</v>
       </c>
       <c r="E26" s="3">
-        <v>40700</v>
+        <v>-74300</v>
       </c>
       <c r="F26" s="3">
-        <v>49700</v>
+        <v>41300</v>
       </c>
       <c r="G26" s="3">
-        <v>9800</v>
+        <v>50500</v>
       </c>
       <c r="H26" s="3">
-        <v>-37400</v>
+        <v>9900</v>
       </c>
       <c r="I26" s="3">
-        <v>-69000</v>
+        <v>-38100</v>
       </c>
       <c r="J26" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="K26" s="3">
         <v>46800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70100</v>
+        <v>-30200</v>
       </c>
       <c r="E27" s="3">
-        <v>40400</v>
+        <v>-71200</v>
       </c>
       <c r="F27" s="3">
-        <v>50900</v>
+        <v>41000</v>
       </c>
       <c r="G27" s="3">
-        <v>11100</v>
+        <v>51700</v>
       </c>
       <c r="H27" s="3">
-        <v>-37200</v>
+        <v>11300</v>
       </c>
       <c r="I27" s="3">
-        <v>-65500</v>
+        <v>-37800</v>
       </c>
       <c r="J27" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K27" s="3">
         <v>47400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>75600</v>
+        <v>-14800</v>
       </c>
       <c r="E32" s="3">
-        <v>-56100</v>
+        <v>76800</v>
       </c>
       <c r="F32" s="3">
-        <v>-18200</v>
+        <v>-57000</v>
       </c>
       <c r="G32" s="3">
-        <v>19700</v>
+        <v>-18500</v>
       </c>
       <c r="H32" s="3">
-        <v>-26200</v>
+        <v>20000</v>
       </c>
       <c r="I32" s="3">
-        <v>119000</v>
+        <v>-26600</v>
       </c>
       <c r="J32" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70100</v>
+        <v>-30200</v>
       </c>
       <c r="E33" s="3">
-        <v>40400</v>
+        <v>-71200</v>
       </c>
       <c r="F33" s="3">
-        <v>50900</v>
+        <v>41000</v>
       </c>
       <c r="G33" s="3">
-        <v>11100</v>
+        <v>51700</v>
       </c>
       <c r="H33" s="3">
-        <v>-37200</v>
+        <v>11300</v>
       </c>
       <c r="I33" s="3">
-        <v>-65500</v>
+        <v>-37800</v>
       </c>
       <c r="J33" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K33" s="3">
         <v>47400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70100</v>
+        <v>-30200</v>
       </c>
       <c r="E35" s="3">
-        <v>40400</v>
+        <v>-71200</v>
       </c>
       <c r="F35" s="3">
-        <v>50900</v>
+        <v>41000</v>
       </c>
       <c r="G35" s="3">
-        <v>11100</v>
+        <v>51700</v>
       </c>
       <c r="H35" s="3">
-        <v>-37200</v>
+        <v>11300</v>
       </c>
       <c r="I35" s="3">
-        <v>-65500</v>
+        <v>-37800</v>
       </c>
       <c r="J35" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K35" s="3">
         <v>47400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>266600</v>
+        <v>466900</v>
       </c>
       <c r="E41" s="3">
-        <v>267000</v>
+        <v>270900</v>
       </c>
       <c r="F41" s="3">
-        <v>243600</v>
+        <v>271300</v>
       </c>
       <c r="G41" s="3">
-        <v>297600</v>
+        <v>247600</v>
       </c>
       <c r="H41" s="3">
-        <v>317100</v>
+        <v>302400</v>
       </c>
       <c r="I41" s="3">
-        <v>320200</v>
+        <v>322300</v>
       </c>
       <c r="J41" s="3">
+        <v>325400</v>
+      </c>
+      <c r="K41" s="3">
         <v>326300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>346700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>305400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>321400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>325700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>325600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>325700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>384500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6100</v>
+        <v>5100</v>
       </c>
       <c r="E42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G42" s="3">
         <v>5100</v>
       </c>
-      <c r="F42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3000</v>
-      </c>
       <c r="H42" s="3">
-        <v>4100</v>
+        <v>3100</v>
       </c>
       <c r="I42" s="3">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="J42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K42" s="3">
         <v>11300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>181800</v>
+        <v>152900</v>
       </c>
       <c r="E43" s="3">
-        <v>188100</v>
+        <v>184800</v>
       </c>
       <c r="F43" s="3">
-        <v>252300</v>
+        <v>191100</v>
       </c>
       <c r="G43" s="3">
-        <v>219600</v>
+        <v>256400</v>
       </c>
       <c r="H43" s="3">
-        <v>230000</v>
+        <v>223200</v>
       </c>
       <c r="I43" s="3">
-        <v>197300</v>
+        <v>233700</v>
       </c>
       <c r="J43" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K43" s="3">
         <v>249000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>225100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>211700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>181400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>218700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>191400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>204800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>180700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>403400</v>
+        <v>426500</v>
       </c>
       <c r="E44" s="3">
-        <v>410700</v>
+        <v>410000</v>
       </c>
       <c r="F44" s="3">
-        <v>392600</v>
+        <v>417300</v>
       </c>
       <c r="G44" s="3">
-        <v>409800</v>
+        <v>398900</v>
       </c>
       <c r="H44" s="3">
-        <v>394900</v>
+        <v>416400</v>
       </c>
       <c r="I44" s="3">
-        <v>403100</v>
+        <v>401300</v>
       </c>
       <c r="J44" s="3">
+        <v>409600</v>
+      </c>
+      <c r="K44" s="3">
         <v>394200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>395000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>385800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>402300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>398300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>415100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>388700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>385100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54200</v>
+        <v>75600</v>
       </c>
       <c r="E45" s="3">
-        <v>57400</v>
+        <v>55100</v>
       </c>
       <c r="F45" s="3">
-        <v>58000</v>
+        <v>58300</v>
       </c>
       <c r="G45" s="3">
-        <v>76400</v>
+        <v>59000</v>
       </c>
       <c r="H45" s="3">
-        <v>57300</v>
+        <v>77700</v>
       </c>
       <c r="I45" s="3">
-        <v>66600</v>
+        <v>58200</v>
       </c>
       <c r="J45" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K45" s="3">
         <v>61500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>77500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>69500</v>
       </c>
       <c r="R45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>912200</v>
+        <v>1127000</v>
       </c>
       <c r="E46" s="3">
-        <v>928200</v>
+        <v>926900</v>
       </c>
       <c r="F46" s="3">
-        <v>951600</v>
+        <v>943200</v>
       </c>
       <c r="G46" s="3">
-        <v>1006400</v>
+        <v>966900</v>
       </c>
       <c r="H46" s="3">
-        <v>1003500</v>
+        <v>1022700</v>
       </c>
       <c r="I46" s="3">
-        <v>992400</v>
+        <v>1019700</v>
       </c>
       <c r="J46" s="3">
+        <v>1008500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1042400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1055200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>956500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>963500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>994400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1014800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1009500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1037200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>608500</v>
+        <v>615600</v>
       </c>
       <c r="E47" s="3">
-        <v>729900</v>
+        <v>618300</v>
       </c>
       <c r="F47" s="3">
-        <v>744600</v>
+        <v>741700</v>
       </c>
       <c r="G47" s="3">
-        <v>758900</v>
+        <v>756600</v>
       </c>
       <c r="H47" s="3">
-        <v>791800</v>
+        <v>771200</v>
       </c>
       <c r="I47" s="3">
-        <v>781000</v>
+        <v>804600</v>
       </c>
       <c r="J47" s="3">
+        <v>793600</v>
+      </c>
+      <c r="K47" s="3">
         <v>900700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>854800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>830100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>845000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>781800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>770600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>715900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>707400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>609600</v>
+        <v>611700</v>
       </c>
       <c r="E48" s="3">
-        <v>614800</v>
+        <v>619500</v>
       </c>
       <c r="F48" s="3">
-        <v>616000</v>
+        <v>624700</v>
       </c>
       <c r="G48" s="3">
-        <v>619600</v>
+        <v>626000</v>
       </c>
       <c r="H48" s="3">
-        <v>494900</v>
+        <v>629600</v>
       </c>
       <c r="I48" s="3">
-        <v>496800</v>
+        <v>502900</v>
       </c>
       <c r="J48" s="3">
+        <v>504800</v>
+      </c>
+      <c r="K48" s="3">
         <v>499100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>490900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>491200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>494000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>496700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>498500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>490400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>486800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>343000</v>
+        <v>346200</v>
       </c>
       <c r="E49" s="3">
-        <v>356200</v>
+        <v>348500</v>
       </c>
       <c r="F49" s="3">
-        <v>342100</v>
+        <v>362000</v>
       </c>
       <c r="G49" s="3">
-        <v>217500</v>
+        <v>347600</v>
       </c>
       <c r="H49" s="3">
-        <v>225300</v>
+        <v>221000</v>
       </c>
       <c r="I49" s="3">
-        <v>271700</v>
+        <v>228900</v>
       </c>
       <c r="J49" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K49" s="3">
         <v>275800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>264000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>266300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>267300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>265000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>258900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>247700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>248500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106400</v>
+        <v>115300</v>
       </c>
       <c r="E52" s="3">
-        <v>98700</v>
+        <v>108200</v>
       </c>
       <c r="F52" s="3">
-        <v>101900</v>
+        <v>100300</v>
       </c>
       <c r="G52" s="3">
-        <v>102200</v>
+        <v>103500</v>
       </c>
       <c r="H52" s="3">
-        <v>102200</v>
+        <v>103900</v>
       </c>
       <c r="I52" s="3">
-        <v>163600</v>
+        <v>103800</v>
       </c>
       <c r="J52" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K52" s="3">
         <v>161900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>157100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>154600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>160000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>162800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>160700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>152800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>136700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2579700</v>
+        <v>2815800</v>
       </c>
       <c r="E54" s="3">
-        <v>2727900</v>
+        <v>2621400</v>
       </c>
       <c r="F54" s="3">
-        <v>2756100</v>
+        <v>2771900</v>
       </c>
       <c r="G54" s="3">
-        <v>2704700</v>
+        <v>2800600</v>
       </c>
       <c r="H54" s="3">
-        <v>2617600</v>
+        <v>2748400</v>
       </c>
       <c r="I54" s="3">
-        <v>2705500</v>
+        <v>2659900</v>
       </c>
       <c r="J54" s="3">
+        <v>2749200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2879800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2822100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2698700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2729900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2700600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2703500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2616300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2616600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,217 +3010,230 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>99400</v>
+        <v>82300</v>
       </c>
       <c r="E57" s="3">
-        <v>99100</v>
+        <v>101000</v>
       </c>
       <c r="F57" s="3">
-        <v>107600</v>
+        <v>100700</v>
       </c>
       <c r="G57" s="3">
-        <v>108500</v>
+        <v>109400</v>
       </c>
       <c r="H57" s="3">
-        <v>109600</v>
+        <v>110200</v>
       </c>
       <c r="I57" s="3">
-        <v>109500</v>
+        <v>111300</v>
       </c>
       <c r="J57" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K57" s="3">
         <v>112700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>124600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>115700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>116600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31700</v>
+        <v>359200</v>
       </c>
       <c r="E58" s="3">
-        <v>37600</v>
+        <v>32200</v>
       </c>
       <c r="F58" s="3">
-        <v>72000</v>
+        <v>38200</v>
       </c>
       <c r="G58" s="3">
-        <v>92700</v>
+        <v>73200</v>
       </c>
       <c r="H58" s="3">
-        <v>75900</v>
+        <v>94200</v>
       </c>
       <c r="I58" s="3">
-        <v>76200</v>
+        <v>77100</v>
       </c>
       <c r="J58" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K58" s="3">
         <v>67500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>112800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>67700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>69300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>113300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>68900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>88600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>278600</v>
+        <v>244900</v>
       </c>
       <c r="E59" s="3">
-        <v>276300</v>
+        <v>283100</v>
       </c>
       <c r="F59" s="3">
-        <v>277000</v>
+        <v>280800</v>
       </c>
       <c r="G59" s="3">
-        <v>252600</v>
+        <v>281400</v>
       </c>
       <c r="H59" s="3">
-        <v>222100</v>
+        <v>256700</v>
       </c>
       <c r="I59" s="3">
-        <v>207600</v>
+        <v>225600</v>
       </c>
       <c r="J59" s="3">
+        <v>211000</v>
+      </c>
+      <c r="K59" s="3">
         <v>221100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>214000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>180000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>169600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>181900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>172000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>180200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>409800</v>
+        <v>686400</v>
       </c>
       <c r="E60" s="3">
-        <v>413000</v>
+        <v>416400</v>
       </c>
       <c r="F60" s="3">
-        <v>456600</v>
+        <v>419700</v>
       </c>
       <c r="G60" s="3">
-        <v>453700</v>
+        <v>464000</v>
       </c>
       <c r="H60" s="3">
-        <v>407500</v>
+        <v>461000</v>
       </c>
       <c r="I60" s="3">
-        <v>393300</v>
+        <v>414100</v>
       </c>
       <c r="J60" s="3">
+        <v>399700</v>
+      </c>
+      <c r="K60" s="3">
         <v>401300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>438100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>358300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>349300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>364100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>409900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>364200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>385500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3098,11 +3241,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3110,11 +3253,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3122,66 +3265,72 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>223900</v>
+        <v>208400</v>
       </c>
       <c r="E62" s="3">
-        <v>262500</v>
+        <v>227500</v>
       </c>
       <c r="F62" s="3">
-        <v>263800</v>
+        <v>266700</v>
       </c>
       <c r="G62" s="3">
-        <v>241300</v>
+        <v>268000</v>
       </c>
       <c r="H62" s="3">
-        <v>154900</v>
+        <v>245200</v>
       </c>
       <c r="I62" s="3">
-        <v>178200</v>
+        <v>157400</v>
       </c>
       <c r="J62" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K62" s="3">
         <v>214700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>205900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>192300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>203000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>183900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>175200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>188300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>173700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>671800</v>
+        <v>938200</v>
       </c>
       <c r="E66" s="3">
-        <v>719400</v>
+        <v>682700</v>
       </c>
       <c r="F66" s="3">
-        <v>763800</v>
+        <v>731000</v>
       </c>
       <c r="G66" s="3">
-        <v>738200</v>
+        <v>776200</v>
       </c>
       <c r="H66" s="3">
-        <v>606400</v>
+        <v>750100</v>
       </c>
       <c r="I66" s="3">
-        <v>616000</v>
+        <v>616200</v>
       </c>
       <c r="J66" s="3">
+        <v>625900</v>
+      </c>
+      <c r="K66" s="3">
         <v>658600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>685500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>595000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>596700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>591600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>628600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>597700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1720800</v>
+        <v>1627300</v>
       </c>
       <c r="E72" s="3">
-        <v>1791000</v>
+        <v>1748600</v>
       </c>
       <c r="F72" s="3">
-        <v>1774400</v>
+        <v>1819900</v>
       </c>
       <c r="G72" s="3">
-        <v>1723600</v>
+        <v>1803100</v>
       </c>
       <c r="H72" s="3">
-        <v>1794300</v>
+        <v>1751400</v>
       </c>
       <c r="I72" s="3">
+        <v>1823200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1861100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1919200</v>
+      </c>
+      <c r="L72" s="3">
         <v>1831500</v>
       </c>
-      <c r="J72" s="3">
-        <v>1919200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1831500</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1558700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1559800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1559900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1528300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1508400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1504600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1907900</v>
+        <v>1877600</v>
       </c>
       <c r="E76" s="3">
-        <v>2008500</v>
+        <v>1938700</v>
       </c>
       <c r="F76" s="3">
-        <v>1992300</v>
+        <v>2040900</v>
       </c>
       <c r="G76" s="3">
-        <v>1966500</v>
+        <v>2024400</v>
       </c>
       <c r="H76" s="3">
-        <v>2011200</v>
+        <v>1998200</v>
       </c>
       <c r="I76" s="3">
-        <v>2089500</v>
+        <v>2043700</v>
       </c>
       <c r="J76" s="3">
+        <v>2123200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2221200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2136600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2103700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2133200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2109100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2074900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2018500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2016300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70100</v>
+        <v>-30200</v>
       </c>
       <c r="E81" s="3">
-        <v>40400</v>
+        <v>-71200</v>
       </c>
       <c r="F81" s="3">
-        <v>50900</v>
+        <v>41000</v>
       </c>
       <c r="G81" s="3">
-        <v>11100</v>
+        <v>51700</v>
       </c>
       <c r="H81" s="3">
-        <v>-37200</v>
+        <v>11300</v>
       </c>
       <c r="I81" s="3">
-        <v>-65500</v>
+        <v>-37800</v>
       </c>
       <c r="J81" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="K81" s="3">
         <v>47400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E83" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="F83" s="3">
-        <v>13400</v>
+        <v>14900</v>
       </c>
       <c r="G83" s="3">
-        <v>12900</v>
+        <v>13600</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="I83" s="3">
-        <v>12900</v>
+        <v>14200</v>
       </c>
       <c r="J83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K83" s="3">
         <v>12700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>49900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>56400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I89" s="3">
         <v>2800</v>
       </c>
-      <c r="E89" s="3">
-        <v>49100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>55500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>49700</v>
-      </c>
       <c r="J89" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K89" s="3">
         <v>47200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>49000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>31600</v>
+        <v>-15500</v>
       </c>
       <c r="E94" s="3">
-        <v>48100</v>
+        <v>32100</v>
       </c>
       <c r="F94" s="3">
-        <v>-52900</v>
+        <v>48800</v>
       </c>
       <c r="G94" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
-        <v>9300</v>
-      </c>
       <c r="I94" s="3">
-        <v>-7200</v>
+        <v>9500</v>
       </c>
       <c r="J94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-11800</v>
       </c>
       <c r="E96" s="3">
-        <v>-23800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-24200</v>
       </c>
       <c r="G96" s="3">
-        <v>-21800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-22100</v>
       </c>
       <c r="I96" s="3">
-        <v>-22200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-22500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-22000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-44700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31600</v>
+        <v>305100</v>
       </c>
       <c r="E100" s="3">
-        <v>-77000</v>
+        <v>-32100</v>
       </c>
       <c r="F100" s="3">
-        <v>-36200</v>
+        <v>-78300</v>
       </c>
       <c r="G100" s="3">
-        <v>-17500</v>
+        <v>-36800</v>
       </c>
       <c r="H100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J100" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-68300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-59100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-24400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H101" s="3">
-        <v>1700</v>
+        <v>-5300</v>
       </c>
       <c r="I101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>18500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>196600</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>21800</v>
-      </c>
       <c r="F102" s="3">
-        <v>-33500</v>
+        <v>22100</v>
       </c>
       <c r="G102" s="3">
-        <v>-9200</v>
+        <v>-34000</v>
       </c>
       <c r="H102" s="3">
-        <v>12700</v>
+        <v>-9300</v>
       </c>
       <c r="I102" s="3">
-        <v>-6200</v>
+        <v>12900</v>
       </c>
       <c r="J102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-40300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-61300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>53400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>269500</v>
+        <v>428600</v>
       </c>
       <c r="E8" s="3">
-        <v>403400</v>
+        <v>274400</v>
       </c>
       <c r="F8" s="3">
-        <v>402000</v>
+        <v>410600</v>
       </c>
       <c r="G8" s="3">
-        <v>511100</v>
+        <v>409200</v>
       </c>
       <c r="H8" s="3">
-        <v>446600</v>
+        <v>520300</v>
       </c>
       <c r="I8" s="3">
-        <v>443200</v>
+        <v>454700</v>
       </c>
       <c r="J8" s="3">
+        <v>451200</v>
+      </c>
+      <c r="K8" s="3">
         <v>428900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>487200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>448800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>427700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>419800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>481900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>440000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>415700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>413400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>125300</v>
+        <v>181500</v>
       </c>
       <c r="E9" s="3">
-        <v>198700</v>
+        <v>127500</v>
       </c>
       <c r="F9" s="3">
-        <v>178600</v>
+        <v>202200</v>
       </c>
       <c r="G9" s="3">
-        <v>232100</v>
+        <v>181900</v>
       </c>
       <c r="H9" s="3">
-        <v>192600</v>
+        <v>236300</v>
       </c>
       <c r="I9" s="3">
-        <v>214600</v>
+        <v>196100</v>
       </c>
       <c r="J9" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K9" s="3">
         <v>195700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>227200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>198900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>213900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>192300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>226900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>198600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>210000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>189200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>144200</v>
+        <v>247100</v>
       </c>
       <c r="E10" s="3">
-        <v>204700</v>
+        <v>146800</v>
       </c>
       <c r="F10" s="3">
-        <v>223300</v>
+        <v>208400</v>
       </c>
       <c r="G10" s="3">
-        <v>279000</v>
+        <v>227400</v>
       </c>
       <c r="H10" s="3">
-        <v>254000</v>
+        <v>284000</v>
       </c>
       <c r="I10" s="3">
-        <v>228600</v>
+        <v>258600</v>
       </c>
       <c r="J10" s="3">
+        <v>232700</v>
+      </c>
+      <c r="K10" s="3">
         <v>233100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>260000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>213800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>254900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>241400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>205700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>224200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1800</v>
       </c>
       <c r="N12" s="3">
         <v>1800</v>
       </c>
       <c r="O12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,11 +1068,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>55100</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>56100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>311700</v>
+        <v>373400</v>
       </c>
       <c r="E17" s="3">
-        <v>433300</v>
+        <v>317400</v>
       </c>
       <c r="F17" s="3">
-        <v>399100</v>
+        <v>441100</v>
       </c>
       <c r="G17" s="3">
-        <v>455800</v>
+        <v>406300</v>
       </c>
       <c r="H17" s="3">
-        <v>412200</v>
+        <v>464000</v>
       </c>
       <c r="I17" s="3">
-        <v>502700</v>
+        <v>419700</v>
       </c>
       <c r="J17" s="3">
+        <v>511700</v>
+      </c>
+      <c r="K17" s="3">
         <v>408300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>444500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>408800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>432400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>395100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>435900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>416600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>384200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-42200</v>
+        <v>55200</v>
       </c>
       <c r="E18" s="3">
-        <v>-29900</v>
+        <v>-43000</v>
       </c>
       <c r="F18" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
-        <v>55200</v>
-      </c>
       <c r="H18" s="3">
-        <v>34400</v>
+        <v>56200</v>
       </c>
       <c r="I18" s="3">
-        <v>-59400</v>
+        <v>35000</v>
       </c>
       <c r="J18" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="K18" s="3">
         <v>20600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,134 +1312,141 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14800</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>-76800</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="3">
-        <v>57000</v>
+        <v>-78200</v>
       </c>
       <c r="G20" s="3">
-        <v>18500</v>
+        <v>58100</v>
       </c>
       <c r="H20" s="3">
-        <v>-20000</v>
+        <v>18900</v>
       </c>
       <c r="I20" s="3">
-        <v>26600</v>
+        <v>-20400</v>
       </c>
       <c r="J20" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-120900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13500</v>
+        <v>77600</v>
       </c>
       <c r="E21" s="3">
-        <v>-91500</v>
+        <v>-13700</v>
       </c>
       <c r="F21" s="3">
-        <v>74800</v>
+        <v>-93100</v>
       </c>
       <c r="G21" s="3">
-        <v>87400</v>
+        <v>76200</v>
       </c>
       <c r="H21" s="3">
-        <v>27500</v>
+        <v>89000</v>
       </c>
       <c r="I21" s="3">
-        <v>-18600</v>
+        <v>28000</v>
       </c>
       <c r="J21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-87200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>46900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1415,20 +1455,20 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1436,116 +1476,125 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27500</v>
+        <v>62700</v>
       </c>
       <c r="E23" s="3">
-        <v>-106800</v>
+        <v>-28000</v>
       </c>
       <c r="F23" s="3">
-        <v>59900</v>
+        <v>-108700</v>
       </c>
       <c r="G23" s="3">
-        <v>73700</v>
+        <v>61000</v>
       </c>
       <c r="H23" s="3">
-        <v>14300</v>
+        <v>75000</v>
       </c>
       <c r="I23" s="3">
-        <v>-32800</v>
+        <v>14600</v>
       </c>
       <c r="J23" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>81100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5800</v>
+        <v>16600</v>
       </c>
       <c r="E24" s="3">
-        <v>-32400</v>
+        <v>5900</v>
       </c>
       <c r="F24" s="3">
-        <v>18500</v>
+        <v>-33000</v>
       </c>
       <c r="G24" s="3">
-        <v>23200</v>
+        <v>18900</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>23600</v>
       </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="J24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-30300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-33400</v>
+        <v>46000</v>
       </c>
       <c r="E26" s="3">
-        <v>-74300</v>
+        <v>-34000</v>
       </c>
       <c r="F26" s="3">
-        <v>41300</v>
+        <v>-75700</v>
       </c>
       <c r="G26" s="3">
-        <v>50500</v>
+        <v>42100</v>
       </c>
       <c r="H26" s="3">
-        <v>9900</v>
+        <v>51400</v>
       </c>
       <c r="I26" s="3">
-        <v>-38100</v>
+        <v>10100</v>
       </c>
       <c r="J26" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-70100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30200</v>
+        <v>47800</v>
       </c>
       <c r="E27" s="3">
-        <v>-71200</v>
+        <v>-30700</v>
       </c>
       <c r="F27" s="3">
-        <v>41000</v>
+        <v>-72500</v>
       </c>
       <c r="G27" s="3">
-        <v>51700</v>
+        <v>41800</v>
       </c>
       <c r="H27" s="3">
-        <v>11300</v>
+        <v>52600</v>
       </c>
       <c r="I27" s="3">
-        <v>-37800</v>
+        <v>11500</v>
       </c>
       <c r="J27" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-66500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,14 +1849,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14800</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>76800</v>
+        <v>-15000</v>
       </c>
       <c r="F32" s="3">
-        <v>-57000</v>
+        <v>78200</v>
       </c>
       <c r="G32" s="3">
-        <v>-18500</v>
+        <v>-58100</v>
       </c>
       <c r="H32" s="3">
-        <v>20000</v>
+        <v>-18900</v>
       </c>
       <c r="I32" s="3">
-        <v>-26600</v>
+        <v>20400</v>
       </c>
       <c r="J32" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="K32" s="3">
         <v>120900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30200</v>
+        <v>47800</v>
       </c>
       <c r="E33" s="3">
-        <v>-71200</v>
+        <v>-30700</v>
       </c>
       <c r="F33" s="3">
-        <v>41000</v>
+        <v>-72500</v>
       </c>
       <c r="G33" s="3">
-        <v>51700</v>
+        <v>41800</v>
       </c>
       <c r="H33" s="3">
-        <v>11300</v>
+        <v>52600</v>
       </c>
       <c r="I33" s="3">
-        <v>-37800</v>
+        <v>11500</v>
       </c>
       <c r="J33" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-66500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30200</v>
+        <v>47800</v>
       </c>
       <c r="E35" s="3">
-        <v>-71200</v>
+        <v>-30700</v>
       </c>
       <c r="F35" s="3">
-        <v>41000</v>
+        <v>-72500</v>
       </c>
       <c r="G35" s="3">
-        <v>51700</v>
+        <v>41800</v>
       </c>
       <c r="H35" s="3">
-        <v>11300</v>
+        <v>52600</v>
       </c>
       <c r="I35" s="3">
-        <v>-37800</v>
+        <v>11500</v>
       </c>
       <c r="J35" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-66500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>466900</v>
+        <v>571800</v>
       </c>
       <c r="E41" s="3">
-        <v>270900</v>
+        <v>475300</v>
       </c>
       <c r="F41" s="3">
-        <v>271300</v>
+        <v>275800</v>
       </c>
       <c r="G41" s="3">
-        <v>247600</v>
+        <v>276200</v>
       </c>
       <c r="H41" s="3">
-        <v>302400</v>
+        <v>252000</v>
       </c>
       <c r="I41" s="3">
-        <v>322300</v>
+        <v>307900</v>
       </c>
       <c r="J41" s="3">
+        <v>328100</v>
+      </c>
+      <c r="K41" s="3">
         <v>325400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>326300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>346700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>305400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>321400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>325700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>325600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>325700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>384500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2289,423 +2379,447 @@
         <v>5100</v>
       </c>
       <c r="E42" s="3">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="F42" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H42" s="3">
         <v>5200</v>
       </c>
-      <c r="G42" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3100</v>
       </c>
-      <c r="I42" s="3">
-        <v>4200</v>
-      </c>
       <c r="J42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K42" s="3">
         <v>5300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>152900</v>
+        <v>194900</v>
       </c>
       <c r="E43" s="3">
-        <v>184800</v>
+        <v>155600</v>
       </c>
       <c r="F43" s="3">
-        <v>191100</v>
+        <v>188100</v>
       </c>
       <c r="G43" s="3">
-        <v>256400</v>
+        <v>194600</v>
       </c>
       <c r="H43" s="3">
-        <v>223200</v>
+        <v>261000</v>
       </c>
       <c r="I43" s="3">
-        <v>233700</v>
+        <v>227200</v>
       </c>
       <c r="J43" s="3">
+        <v>237900</v>
+      </c>
+      <c r="K43" s="3">
         <v>200500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>249000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>211700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>181400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>218700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>191400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>204800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>180700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>426500</v>
+        <v>418500</v>
       </c>
       <c r="E44" s="3">
-        <v>410000</v>
+        <v>434200</v>
       </c>
       <c r="F44" s="3">
         <v>417300</v>
       </c>
       <c r="G44" s="3">
-        <v>398900</v>
+        <v>424800</v>
       </c>
       <c r="H44" s="3">
-        <v>416400</v>
+        <v>406100</v>
       </c>
       <c r="I44" s="3">
-        <v>401300</v>
+        <v>423900</v>
       </c>
       <c r="J44" s="3">
+        <v>408500</v>
+      </c>
+      <c r="K44" s="3">
         <v>409600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>394200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>395000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>385800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>402300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>398300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>415100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>388700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>385100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75600</v>
+        <v>63500</v>
       </c>
       <c r="E45" s="3">
-        <v>55100</v>
+        <v>77000</v>
       </c>
       <c r="F45" s="3">
-        <v>58300</v>
+        <v>56000</v>
       </c>
       <c r="G45" s="3">
-        <v>59000</v>
+        <v>59400</v>
       </c>
       <c r="H45" s="3">
-        <v>77700</v>
+        <v>60000</v>
       </c>
       <c r="I45" s="3">
-        <v>58200</v>
+        <v>79100</v>
       </c>
       <c r="J45" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K45" s="3">
         <v>67700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>69500</v>
       </c>
       <c r="S45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1127000</v>
+        <v>1253800</v>
       </c>
       <c r="E46" s="3">
-        <v>926900</v>
+        <v>1147300</v>
       </c>
       <c r="F46" s="3">
-        <v>943200</v>
+        <v>943600</v>
       </c>
       <c r="G46" s="3">
-        <v>966900</v>
+        <v>960200</v>
       </c>
       <c r="H46" s="3">
-        <v>1022700</v>
+        <v>984300</v>
       </c>
       <c r="I46" s="3">
-        <v>1019700</v>
+        <v>1041100</v>
       </c>
       <c r="J46" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1008500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1042400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1055200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>956500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>963500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>994400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1014800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1009500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1037200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>615600</v>
+        <v>634000</v>
       </c>
       <c r="E47" s="3">
-        <v>618300</v>
+        <v>626700</v>
       </c>
       <c r="F47" s="3">
-        <v>741700</v>
+        <v>629400</v>
       </c>
       <c r="G47" s="3">
-        <v>756600</v>
+        <v>755000</v>
       </c>
       <c r="H47" s="3">
-        <v>771200</v>
+        <v>770200</v>
       </c>
       <c r="I47" s="3">
-        <v>804600</v>
+        <v>785100</v>
       </c>
       <c r="J47" s="3">
+        <v>819100</v>
+      </c>
+      <c r="K47" s="3">
         <v>793600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>900700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>854800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>830100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>845000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>781800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>770600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>715900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>707400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>611700</v>
+        <v>607500</v>
       </c>
       <c r="E48" s="3">
-        <v>619500</v>
+        <v>622700</v>
       </c>
       <c r="F48" s="3">
-        <v>624700</v>
+        <v>630600</v>
       </c>
       <c r="G48" s="3">
-        <v>626000</v>
+        <v>636000</v>
       </c>
       <c r="H48" s="3">
-        <v>629600</v>
+        <v>637300</v>
       </c>
       <c r="I48" s="3">
-        <v>502900</v>
+        <v>640900</v>
       </c>
       <c r="J48" s="3">
+        <v>511900</v>
+      </c>
+      <c r="K48" s="3">
         <v>504800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>499100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>490900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>491200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>494000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>496700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>498500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>490400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>486800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>346200</v>
+        <v>353900</v>
       </c>
       <c r="E49" s="3">
-        <v>348500</v>
+        <v>352400</v>
       </c>
       <c r="F49" s="3">
-        <v>362000</v>
+        <v>354800</v>
       </c>
       <c r="G49" s="3">
-        <v>347600</v>
+        <v>368500</v>
       </c>
       <c r="H49" s="3">
-        <v>221000</v>
+        <v>353900</v>
       </c>
       <c r="I49" s="3">
-        <v>228900</v>
+        <v>225000</v>
       </c>
       <c r="J49" s="3">
+        <v>233100</v>
+      </c>
+      <c r="K49" s="3">
         <v>276100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>275800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>264000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>266300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>267300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>265000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>258900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>247700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>248500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115300</v>
+        <v>118000</v>
       </c>
       <c r="E52" s="3">
-        <v>108200</v>
+        <v>117400</v>
       </c>
       <c r="F52" s="3">
-        <v>100300</v>
+        <v>110100</v>
       </c>
       <c r="G52" s="3">
-        <v>103500</v>
+        <v>102100</v>
       </c>
       <c r="H52" s="3">
-        <v>103900</v>
+        <v>105400</v>
       </c>
       <c r="I52" s="3">
-        <v>103800</v>
+        <v>105700</v>
       </c>
       <c r="J52" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K52" s="3">
         <v>166300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>161900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>157100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>154600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>160000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>162800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>160700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>152800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>136700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2815800</v>
+        <v>2967200</v>
       </c>
       <c r="E54" s="3">
-        <v>2621400</v>
+        <v>2866500</v>
       </c>
       <c r="F54" s="3">
-        <v>2771900</v>
+        <v>2668600</v>
       </c>
       <c r="G54" s="3">
-        <v>2800600</v>
+        <v>2821800</v>
       </c>
       <c r="H54" s="3">
-        <v>2748400</v>
+        <v>2851000</v>
       </c>
       <c r="I54" s="3">
-        <v>2659900</v>
+        <v>2797900</v>
       </c>
       <c r="J54" s="3">
+        <v>2707800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2749200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2879800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2822100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2698700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2729900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2700600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2703500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2616300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2616600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,232 +3141,245 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>82300</v>
+        <v>85200</v>
       </c>
       <c r="E57" s="3">
-        <v>101000</v>
+        <v>83800</v>
       </c>
       <c r="F57" s="3">
-        <v>100700</v>
+        <v>102800</v>
       </c>
       <c r="G57" s="3">
-        <v>109400</v>
+        <v>102500</v>
       </c>
       <c r="H57" s="3">
-        <v>110200</v>
+        <v>111400</v>
       </c>
       <c r="I57" s="3">
+        <v>112200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>113300</v>
+      </c>
+      <c r="K57" s="3">
         <v>111300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
+        <v>112700</v>
+      </c>
+      <c r="M57" s="3">
         <v>111300</v>
       </c>
-      <c r="K57" s="3">
-        <v>112700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>111300</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>113600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>124600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>115700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>116600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>359200</v>
+        <v>400300</v>
       </c>
       <c r="E58" s="3">
-        <v>32200</v>
+        <v>365700</v>
       </c>
       <c r="F58" s="3">
-        <v>38200</v>
+        <v>32800</v>
       </c>
       <c r="G58" s="3">
-        <v>73200</v>
+        <v>38900</v>
       </c>
       <c r="H58" s="3">
-        <v>94200</v>
+        <v>74500</v>
       </c>
       <c r="I58" s="3">
-        <v>77100</v>
+        <v>95900</v>
       </c>
       <c r="J58" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K58" s="3">
         <v>77400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>67500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>112800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>69300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>113300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>68900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>88600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>244900</v>
+        <v>255300</v>
       </c>
       <c r="E59" s="3">
-        <v>283100</v>
+        <v>249300</v>
       </c>
       <c r="F59" s="3">
-        <v>280800</v>
+        <v>288200</v>
       </c>
       <c r="G59" s="3">
-        <v>281400</v>
+        <v>285800</v>
       </c>
       <c r="H59" s="3">
-        <v>256700</v>
+        <v>286500</v>
       </c>
       <c r="I59" s="3">
-        <v>225600</v>
+        <v>261300</v>
       </c>
       <c r="J59" s="3">
+        <v>229700</v>
+      </c>
+      <c r="K59" s="3">
         <v>211000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>214000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>180000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>181900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>172000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>180200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>686400</v>
+        <v>740800</v>
       </c>
       <c r="E60" s="3">
-        <v>416400</v>
+        <v>698800</v>
       </c>
       <c r="F60" s="3">
-        <v>419700</v>
+        <v>423900</v>
       </c>
       <c r="G60" s="3">
-        <v>464000</v>
+        <v>427300</v>
       </c>
       <c r="H60" s="3">
-        <v>461000</v>
+        <v>472400</v>
       </c>
       <c r="I60" s="3">
-        <v>414100</v>
+        <v>469400</v>
       </c>
       <c r="J60" s="3">
+        <v>421500</v>
+      </c>
+      <c r="K60" s="3">
         <v>399700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>401300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>438100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>358300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>349300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>364100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>409900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>364200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>385500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="E61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3244,11 +3387,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3256,11 +3399,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3268,69 +3411,75 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>208400</v>
+        <v>217900</v>
       </c>
       <c r="E62" s="3">
-        <v>227500</v>
+        <v>212200</v>
       </c>
       <c r="F62" s="3">
-        <v>266700</v>
+        <v>231600</v>
       </c>
       <c r="G62" s="3">
-        <v>268000</v>
+        <v>271500</v>
       </c>
       <c r="H62" s="3">
-        <v>245200</v>
+        <v>272900</v>
       </c>
       <c r="I62" s="3">
-        <v>157400</v>
+        <v>249600</v>
       </c>
       <c r="J62" s="3">
+        <v>160200</v>
+      </c>
+      <c r="K62" s="3">
         <v>181100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>214700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>205900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>192300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>203000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>183900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>175200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>188300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>173700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>938200</v>
+        <v>1001600</v>
       </c>
       <c r="E66" s="3">
-        <v>682700</v>
+        <v>955100</v>
       </c>
       <c r="F66" s="3">
-        <v>731000</v>
+        <v>695000</v>
       </c>
       <c r="G66" s="3">
-        <v>776200</v>
+        <v>744200</v>
       </c>
       <c r="H66" s="3">
-        <v>750100</v>
+        <v>790100</v>
       </c>
       <c r="I66" s="3">
-        <v>616200</v>
+        <v>763600</v>
       </c>
       <c r="J66" s="3">
+        <v>627300</v>
+      </c>
+      <c r="K66" s="3">
         <v>625900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>658600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>685500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>595000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>596700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>591600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>628600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>597700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1627300</v>
+        <v>1704500</v>
       </c>
       <c r="E72" s="3">
-        <v>1748600</v>
+        <v>1656600</v>
       </c>
       <c r="F72" s="3">
-        <v>1819900</v>
+        <v>1780100</v>
       </c>
       <c r="G72" s="3">
-        <v>1803100</v>
+        <v>1852700</v>
       </c>
       <c r="H72" s="3">
-        <v>1751400</v>
+        <v>1835600</v>
       </c>
       <c r="I72" s="3">
-        <v>1823200</v>
+        <v>1783000</v>
       </c>
       <c r="J72" s="3">
+        <v>1856100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1861100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1919200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1831500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1558700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1559800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1559900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1528300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1508400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1504600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1877600</v>
+        <v>1965600</v>
       </c>
       <c r="E76" s="3">
-        <v>1938700</v>
+        <v>1911400</v>
       </c>
       <c r="F76" s="3">
-        <v>2040900</v>
+        <v>1973600</v>
       </c>
       <c r="G76" s="3">
-        <v>2024400</v>
+        <v>2077600</v>
       </c>
       <c r="H76" s="3">
-        <v>1998200</v>
+        <v>2060900</v>
       </c>
       <c r="I76" s="3">
-        <v>2043700</v>
+        <v>2034200</v>
       </c>
       <c r="J76" s="3">
+        <v>2080500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2123200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2221200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2136600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2103700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2133200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2109100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2074900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2018500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2016300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30200</v>
+        <v>47800</v>
       </c>
       <c r="E81" s="3">
-        <v>-71200</v>
+        <v>-30700</v>
       </c>
       <c r="F81" s="3">
-        <v>41000</v>
+        <v>-72500</v>
       </c>
       <c r="G81" s="3">
-        <v>51700</v>
+        <v>41800</v>
       </c>
       <c r="H81" s="3">
-        <v>11300</v>
+        <v>52600</v>
       </c>
       <c r="I81" s="3">
-        <v>-37800</v>
+        <v>11500</v>
       </c>
       <c r="J81" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-66500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="E83" s="3">
-        <v>15300</v>
+        <v>14200</v>
       </c>
       <c r="F83" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="G83" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="H83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K83" s="3">
         <v>13100</v>
       </c>
-      <c r="I83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-92200</v>
+        <v>65100</v>
       </c>
       <c r="E89" s="3">
+        <v>-93800</v>
+      </c>
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="F89" s="3">
-        <v>49900</v>
-      </c>
       <c r="G89" s="3">
-        <v>56400</v>
+        <v>50800</v>
       </c>
       <c r="H89" s="3">
-        <v>16600</v>
+        <v>57400</v>
       </c>
       <c r="I89" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J89" s="3">
         <v>2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>49000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-6300</v>
       </c>
       <c r="E91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-9100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15500</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>32100</v>
+        <v>-15800</v>
       </c>
       <c r="F94" s="3">
-        <v>48800</v>
+        <v>32700</v>
       </c>
       <c r="G94" s="3">
-        <v>-53800</v>
+        <v>49700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2900</v>
+        <v>-54700</v>
       </c>
       <c r="I94" s="3">
-        <v>9500</v>
+        <v>-3000</v>
       </c>
       <c r="J94" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-12000</v>
       </c>
       <c r="F96" s="3">
-        <v>-24200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-24600</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-22100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>305100</v>
+        <v>33800</v>
       </c>
       <c r="E100" s="3">
-        <v>-32100</v>
+        <v>310600</v>
       </c>
       <c r="F100" s="3">
-        <v>-78300</v>
+        <v>-32700</v>
       </c>
       <c r="G100" s="3">
-        <v>-36800</v>
+        <v>-79700</v>
       </c>
       <c r="H100" s="3">
-        <v>-17800</v>
+        <v>-37400</v>
       </c>
       <c r="I100" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-42200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-24400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-5300</v>
-      </c>
       <c r="I101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>18500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>196600</v>
+        <v>95700</v>
       </c>
       <c r="E102" s="3">
+        <v>200100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>22100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-34000</v>
+        <v>22500</v>
       </c>
       <c r="H102" s="3">
-        <v>-9300</v>
+        <v>-34600</v>
       </c>
       <c r="I102" s="3">
-        <v>12900</v>
+        <v>-9500</v>
       </c>
       <c r="J102" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-61300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>53400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>428600</v>
+        <v>408600</v>
       </c>
       <c r="E8" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="F8" s="3">
-        <v>410600</v>
+        <v>391400</v>
       </c>
       <c r="G8" s="3">
-        <v>409200</v>
+        <v>390000</v>
       </c>
       <c r="H8" s="3">
-        <v>520300</v>
+        <v>495900</v>
       </c>
       <c r="I8" s="3">
-        <v>454700</v>
+        <v>433400</v>
       </c>
       <c r="J8" s="3">
-        <v>451200</v>
+        <v>430100</v>
       </c>
       <c r="K8" s="3">
         <v>428900</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>181500</v>
+        <v>173000</v>
       </c>
       <c r="E9" s="3">
-        <v>127500</v>
+        <v>121600</v>
       </c>
       <c r="F9" s="3">
-        <v>202200</v>
+        <v>192800</v>
       </c>
       <c r="G9" s="3">
-        <v>181900</v>
+        <v>173300</v>
       </c>
       <c r="H9" s="3">
-        <v>236300</v>
+        <v>225200</v>
       </c>
       <c r="I9" s="3">
-        <v>196100</v>
+        <v>186900</v>
       </c>
       <c r="J9" s="3">
-        <v>218500</v>
+        <v>208300</v>
       </c>
       <c r="K9" s="3">
         <v>195700</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>247100</v>
+        <v>235600</v>
       </c>
       <c r="E10" s="3">
-        <v>146800</v>
+        <v>140000</v>
       </c>
       <c r="F10" s="3">
-        <v>208400</v>
+        <v>198600</v>
       </c>
       <c r="G10" s="3">
-        <v>227400</v>
+        <v>216700</v>
       </c>
       <c r="H10" s="3">
-        <v>284000</v>
+        <v>270700</v>
       </c>
       <c r="I10" s="3">
-        <v>258600</v>
+        <v>246500</v>
       </c>
       <c r="J10" s="3">
-        <v>232700</v>
+        <v>221800</v>
       </c>
       <c r="K10" s="3">
         <v>233100</v>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H12" s="3">
         <v>1700</v>
@@ -1072,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>56100</v>
+        <v>53400</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>373400</v>
+        <v>355900</v>
       </c>
       <c r="E17" s="3">
-        <v>317400</v>
+        <v>302500</v>
       </c>
       <c r="F17" s="3">
-        <v>441100</v>
+        <v>420400</v>
       </c>
       <c r="G17" s="3">
-        <v>406300</v>
+        <v>387200</v>
       </c>
       <c r="H17" s="3">
-        <v>464000</v>
+        <v>442300</v>
       </c>
       <c r="I17" s="3">
-        <v>419700</v>
+        <v>400000</v>
       </c>
       <c r="J17" s="3">
-        <v>511700</v>
+        <v>487800</v>
       </c>
       <c r="K17" s="3">
         <v>408300</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55200</v>
+        <v>52700</v>
       </c>
       <c r="E18" s="3">
-        <v>-43000</v>
+        <v>-41000</v>
       </c>
       <c r="F18" s="3">
-        <v>-30500</v>
+        <v>-29000</v>
       </c>
       <c r="G18" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H18" s="3">
-        <v>56200</v>
+        <v>53600</v>
       </c>
       <c r="I18" s="3">
-        <v>35000</v>
+        <v>33400</v>
       </c>
       <c r="J18" s="3">
-        <v>-60500</v>
+        <v>-57700</v>
       </c>
       <c r="K18" s="3">
         <v>20600</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="E20" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="F20" s="3">
-        <v>-78200</v>
+        <v>-74600</v>
       </c>
       <c r="G20" s="3">
-        <v>58100</v>
+        <v>55300</v>
       </c>
       <c r="H20" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="I20" s="3">
-        <v>-20400</v>
+        <v>-19400</v>
       </c>
       <c r="J20" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="K20" s="3">
         <v>-120900</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>77600</v>
+        <v>73900</v>
       </c>
       <c r="E21" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="F21" s="3">
-        <v>-93100</v>
+        <v>-88700</v>
       </c>
       <c r="G21" s="3">
-        <v>76200</v>
+        <v>72600</v>
       </c>
       <c r="H21" s="3">
-        <v>89000</v>
+        <v>84800</v>
       </c>
       <c r="I21" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="J21" s="3">
-        <v>-18900</v>
+        <v>-18100</v>
       </c>
       <c r="K21" s="3">
         <v>-87200</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62700</v>
+        <v>59700</v>
       </c>
       <c r="E23" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="F23" s="3">
-        <v>-108700</v>
+        <v>-103600</v>
       </c>
       <c r="G23" s="3">
-        <v>61000</v>
+        <v>58100</v>
       </c>
       <c r="H23" s="3">
-        <v>75000</v>
+        <v>71500</v>
       </c>
       <c r="I23" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="J23" s="3">
-        <v>-33400</v>
+        <v>-31900</v>
       </c>
       <c r="K23" s="3">
         <v>-100300</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="E24" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F24" s="3">
-        <v>-33000</v>
+        <v>-31500</v>
       </c>
       <c r="G24" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="H24" s="3">
-        <v>23600</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J24" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K24" s="3">
         <v>-30300</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>46000</v>
+        <v>43900</v>
       </c>
       <c r="E26" s="3">
-        <v>-34000</v>
+        <v>-32400</v>
       </c>
       <c r="F26" s="3">
-        <v>-75700</v>
+        <v>-72100</v>
       </c>
       <c r="G26" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="H26" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="I26" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="J26" s="3">
-        <v>-38700</v>
+        <v>-36900</v>
       </c>
       <c r="K26" s="3">
         <v>-70100</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="3">
-        <v>-30700</v>
+        <v>-29300</v>
       </c>
       <c r="F27" s="3">
-        <v>-72500</v>
+        <v>-69100</v>
       </c>
       <c r="G27" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H27" s="3">
-        <v>52600</v>
+        <v>50200</v>
       </c>
       <c r="I27" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="J27" s="3">
-        <v>-38400</v>
+        <v>-36600</v>
       </c>
       <c r="K27" s="3">
         <v>-66500</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="E32" s="3">
-        <v>-15000</v>
+        <v>-14300</v>
       </c>
       <c r="F32" s="3">
-        <v>78200</v>
+        <v>74600</v>
       </c>
       <c r="G32" s="3">
-        <v>-58100</v>
+        <v>-55300</v>
       </c>
       <c r="H32" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="I32" s="3">
-        <v>20400</v>
+        <v>19400</v>
       </c>
       <c r="J32" s="3">
-        <v>-27100</v>
+        <v>-25800</v>
       </c>
       <c r="K32" s="3">
         <v>120900</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="E33" s="3">
-        <v>-30700</v>
+        <v>-29300</v>
       </c>
       <c r="F33" s="3">
-        <v>-72500</v>
+        <v>-69100</v>
       </c>
       <c r="G33" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H33" s="3">
-        <v>52600</v>
+        <v>50200</v>
       </c>
       <c r="I33" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="J33" s="3">
-        <v>-38400</v>
+        <v>-36600</v>
       </c>
       <c r="K33" s="3">
         <v>-66500</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="E35" s="3">
-        <v>-30700</v>
+        <v>-29300</v>
       </c>
       <c r="F35" s="3">
-        <v>-72500</v>
+        <v>-69100</v>
       </c>
       <c r="G35" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H35" s="3">
-        <v>52600</v>
+        <v>50200</v>
       </c>
       <c r="I35" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="J35" s="3">
-        <v>-38400</v>
+        <v>-36600</v>
       </c>
       <c r="K35" s="3">
         <v>-66500</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>571800</v>
+        <v>545000</v>
       </c>
       <c r="E41" s="3">
-        <v>475300</v>
+        <v>453100</v>
       </c>
       <c r="F41" s="3">
-        <v>275800</v>
+        <v>262900</v>
       </c>
       <c r="G41" s="3">
-        <v>276200</v>
+        <v>263200</v>
       </c>
       <c r="H41" s="3">
-        <v>252000</v>
+        <v>240200</v>
       </c>
       <c r="I41" s="3">
-        <v>307900</v>
+        <v>293400</v>
       </c>
       <c r="J41" s="3">
-        <v>328100</v>
+        <v>312700</v>
       </c>
       <c r="K41" s="3">
         <v>325400</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F42" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G42" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="H42" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J42" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K42" s="3">
         <v>5300</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>194900</v>
+        <v>185800</v>
       </c>
       <c r="E43" s="3">
-        <v>155600</v>
+        <v>148300</v>
       </c>
       <c r="F43" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="G43" s="3">
-        <v>194600</v>
+        <v>185400</v>
       </c>
       <c r="H43" s="3">
-        <v>261000</v>
+        <v>248700</v>
       </c>
       <c r="I43" s="3">
-        <v>227200</v>
+        <v>216500</v>
       </c>
       <c r="J43" s="3">
-        <v>237900</v>
+        <v>226800</v>
       </c>
       <c r="K43" s="3">
         <v>200500</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>418500</v>
+        <v>398900</v>
       </c>
       <c r="E44" s="3">
-        <v>434200</v>
+        <v>413800</v>
       </c>
       <c r="F44" s="3">
-        <v>417300</v>
+        <v>397800</v>
       </c>
       <c r="G44" s="3">
-        <v>424800</v>
+        <v>404900</v>
       </c>
       <c r="H44" s="3">
-        <v>406100</v>
+        <v>387100</v>
       </c>
       <c r="I44" s="3">
-        <v>423900</v>
+        <v>404000</v>
       </c>
       <c r="J44" s="3">
-        <v>408500</v>
+        <v>389400</v>
       </c>
       <c r="K44" s="3">
         <v>409600</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63500</v>
+        <v>60500</v>
       </c>
       <c r="E45" s="3">
-        <v>77000</v>
+        <v>73400</v>
       </c>
       <c r="F45" s="3">
-        <v>56000</v>
+        <v>53400</v>
       </c>
       <c r="G45" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="H45" s="3">
-        <v>60000</v>
+        <v>57200</v>
       </c>
       <c r="I45" s="3">
-        <v>79100</v>
+        <v>75400</v>
       </c>
       <c r="J45" s="3">
-        <v>59200</v>
+        <v>56500</v>
       </c>
       <c r="K45" s="3">
         <v>67700</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1253800</v>
+        <v>1195100</v>
       </c>
       <c r="E46" s="3">
-        <v>1147300</v>
+        <v>1093600</v>
       </c>
       <c r="F46" s="3">
-        <v>943600</v>
+        <v>899400</v>
       </c>
       <c r="G46" s="3">
-        <v>960200</v>
+        <v>915200</v>
       </c>
       <c r="H46" s="3">
-        <v>984300</v>
+        <v>938200</v>
       </c>
       <c r="I46" s="3">
-        <v>1041100</v>
+        <v>992300</v>
       </c>
       <c r="J46" s="3">
-        <v>1038000</v>
+        <v>989400</v>
       </c>
       <c r="K46" s="3">
         <v>1008500</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>634000</v>
+        <v>604300</v>
       </c>
       <c r="E47" s="3">
-        <v>626700</v>
+        <v>597300</v>
       </c>
       <c r="F47" s="3">
-        <v>629400</v>
+        <v>600000</v>
       </c>
       <c r="G47" s="3">
-        <v>755000</v>
+        <v>719700</v>
       </c>
       <c r="H47" s="3">
-        <v>770200</v>
+        <v>734100</v>
       </c>
       <c r="I47" s="3">
-        <v>785100</v>
+        <v>748300</v>
       </c>
       <c r="J47" s="3">
-        <v>819100</v>
+        <v>780700</v>
       </c>
       <c r="K47" s="3">
         <v>793600</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>607500</v>
+        <v>579000</v>
       </c>
       <c r="E48" s="3">
-        <v>622700</v>
+        <v>593500</v>
       </c>
       <c r="F48" s="3">
-        <v>630600</v>
+        <v>601100</v>
       </c>
       <c r="G48" s="3">
-        <v>636000</v>
+        <v>606200</v>
       </c>
       <c r="H48" s="3">
-        <v>637300</v>
+        <v>607400</v>
       </c>
       <c r="I48" s="3">
-        <v>640900</v>
+        <v>610900</v>
       </c>
       <c r="J48" s="3">
-        <v>511900</v>
+        <v>488000</v>
       </c>
       <c r="K48" s="3">
         <v>504800</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>353900</v>
+        <v>337300</v>
       </c>
       <c r="E49" s="3">
-        <v>352400</v>
+        <v>335900</v>
       </c>
       <c r="F49" s="3">
-        <v>354800</v>
+        <v>338200</v>
       </c>
       <c r="G49" s="3">
-        <v>368500</v>
+        <v>351200</v>
       </c>
       <c r="H49" s="3">
-        <v>353900</v>
+        <v>337300</v>
       </c>
       <c r="I49" s="3">
-        <v>225000</v>
+        <v>214500</v>
       </c>
       <c r="J49" s="3">
-        <v>233100</v>
+        <v>222100</v>
       </c>
       <c r="K49" s="3">
         <v>276100</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>118000</v>
+        <v>112500</v>
       </c>
       <c r="E52" s="3">
-        <v>117400</v>
+        <v>111900</v>
       </c>
       <c r="F52" s="3">
-        <v>110100</v>
+        <v>105000</v>
       </c>
       <c r="G52" s="3">
-        <v>102100</v>
+        <v>97300</v>
       </c>
       <c r="H52" s="3">
-        <v>105400</v>
+        <v>100400</v>
       </c>
       <c r="I52" s="3">
-        <v>105700</v>
+        <v>100800</v>
       </c>
       <c r="J52" s="3">
-        <v>105700</v>
+        <v>100800</v>
       </c>
       <c r="K52" s="3">
         <v>166300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2967200</v>
+        <v>2828200</v>
       </c>
       <c r="E54" s="3">
-        <v>2866500</v>
+        <v>2732200</v>
       </c>
       <c r="F54" s="3">
-        <v>2668600</v>
+        <v>2543600</v>
       </c>
       <c r="G54" s="3">
-        <v>2821800</v>
+        <v>2689700</v>
       </c>
       <c r="H54" s="3">
-        <v>2851000</v>
+        <v>2717500</v>
       </c>
       <c r="I54" s="3">
-        <v>2797900</v>
+        <v>2666900</v>
       </c>
       <c r="J54" s="3">
-        <v>2707800</v>
+        <v>2581000</v>
       </c>
       <c r="K54" s="3">
         <v>2749200</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85200</v>
+        <v>81200</v>
       </c>
       <c r="E57" s="3">
-        <v>83800</v>
+        <v>79900</v>
       </c>
       <c r="F57" s="3">
-        <v>102800</v>
+        <v>98000</v>
       </c>
       <c r="G57" s="3">
-        <v>102500</v>
+        <v>97700</v>
       </c>
       <c r="H57" s="3">
-        <v>111400</v>
+        <v>106100</v>
       </c>
       <c r="I57" s="3">
-        <v>112200</v>
+        <v>107000</v>
       </c>
       <c r="J57" s="3">
-        <v>113300</v>
+        <v>108000</v>
       </c>
       <c r="K57" s="3">
         <v>111300</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400300</v>
+        <v>381600</v>
       </c>
       <c r="E58" s="3">
-        <v>365700</v>
+        <v>348500</v>
       </c>
       <c r="F58" s="3">
-        <v>32800</v>
+        <v>31300</v>
       </c>
       <c r="G58" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="H58" s="3">
-        <v>74500</v>
+        <v>71000</v>
       </c>
       <c r="I58" s="3">
-        <v>95900</v>
+        <v>91400</v>
       </c>
       <c r="J58" s="3">
-        <v>78500</v>
+        <v>74800</v>
       </c>
       <c r="K58" s="3">
         <v>77400</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>255300</v>
+        <v>243300</v>
       </c>
       <c r="E59" s="3">
-        <v>249300</v>
+        <v>237700</v>
       </c>
       <c r="F59" s="3">
-        <v>288200</v>
+        <v>274700</v>
       </c>
       <c r="G59" s="3">
-        <v>285800</v>
+        <v>272400</v>
       </c>
       <c r="H59" s="3">
-        <v>286500</v>
+        <v>273100</v>
       </c>
       <c r="I59" s="3">
-        <v>261300</v>
+        <v>249100</v>
       </c>
       <c r="J59" s="3">
-        <v>229700</v>
+        <v>219000</v>
       </c>
       <c r="K59" s="3">
         <v>211000</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>740800</v>
+        <v>706100</v>
       </c>
       <c r="E60" s="3">
-        <v>698800</v>
+        <v>666100</v>
       </c>
       <c r="F60" s="3">
-        <v>423900</v>
+        <v>404000</v>
       </c>
       <c r="G60" s="3">
-        <v>427300</v>
+        <v>407300</v>
       </c>
       <c r="H60" s="3">
-        <v>472400</v>
+        <v>450200</v>
       </c>
       <c r="I60" s="3">
-        <v>469400</v>
+        <v>447400</v>
       </c>
       <c r="J60" s="3">
-        <v>421500</v>
+        <v>401800</v>
       </c>
       <c r="K60" s="3">
         <v>399700</v>
@@ -3372,10 +3372,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="E61" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>217900</v>
+        <v>207700</v>
       </c>
       <c r="E62" s="3">
-        <v>212200</v>
+        <v>202200</v>
       </c>
       <c r="F62" s="3">
-        <v>231600</v>
+        <v>220700</v>
       </c>
       <c r="G62" s="3">
-        <v>271500</v>
+        <v>258800</v>
       </c>
       <c r="H62" s="3">
-        <v>272900</v>
+        <v>260100</v>
       </c>
       <c r="I62" s="3">
-        <v>249600</v>
+        <v>237900</v>
       </c>
       <c r="J62" s="3">
-        <v>160200</v>
+        <v>152700</v>
       </c>
       <c r="K62" s="3">
         <v>181100</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1001600</v>
+        <v>954700</v>
       </c>
       <c r="E66" s="3">
-        <v>955100</v>
+        <v>910400</v>
       </c>
       <c r="F66" s="3">
-        <v>695000</v>
+        <v>662400</v>
       </c>
       <c r="G66" s="3">
-        <v>744200</v>
+        <v>709300</v>
       </c>
       <c r="H66" s="3">
-        <v>790100</v>
+        <v>753100</v>
       </c>
       <c r="I66" s="3">
-        <v>763600</v>
+        <v>727900</v>
       </c>
       <c r="J66" s="3">
-        <v>627300</v>
+        <v>597900</v>
       </c>
       <c r="K66" s="3">
         <v>625900</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1704500</v>
+        <v>1624600</v>
       </c>
       <c r="E72" s="3">
-        <v>1656600</v>
+        <v>1579100</v>
       </c>
       <c r="F72" s="3">
-        <v>1780100</v>
+        <v>1696700</v>
       </c>
       <c r="G72" s="3">
-        <v>1852700</v>
+        <v>1766000</v>
       </c>
       <c r="H72" s="3">
-        <v>1835600</v>
+        <v>1749600</v>
       </c>
       <c r="I72" s="3">
-        <v>1783000</v>
+        <v>1699500</v>
       </c>
       <c r="J72" s="3">
-        <v>1856100</v>
+        <v>1769200</v>
       </c>
       <c r="K72" s="3">
         <v>1861100</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1965600</v>
+        <v>1873500</v>
       </c>
       <c r="E76" s="3">
-        <v>1911400</v>
+        <v>1821900</v>
       </c>
       <c r="F76" s="3">
-        <v>1973600</v>
+        <v>1881200</v>
       </c>
       <c r="G76" s="3">
-        <v>2077600</v>
+        <v>1980300</v>
       </c>
       <c r="H76" s="3">
-        <v>2060900</v>
+        <v>1964400</v>
       </c>
       <c r="I76" s="3">
-        <v>2034200</v>
+        <v>1939000</v>
       </c>
       <c r="J76" s="3">
-        <v>2080500</v>
+        <v>1983100</v>
       </c>
       <c r="K76" s="3">
         <v>2123200</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="E81" s="3">
-        <v>-30700</v>
+        <v>-29300</v>
       </c>
       <c r="F81" s="3">
-        <v>-72500</v>
+        <v>-69100</v>
       </c>
       <c r="G81" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H81" s="3">
-        <v>52600</v>
+        <v>50200</v>
       </c>
       <c r="I81" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="J81" s="3">
-        <v>-38400</v>
+        <v>-36600</v>
       </c>
       <c r="K81" s="3">
         <v>-66500</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="E83" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="F83" s="3">
-        <v>15600</v>
+        <v>14800</v>
       </c>
       <c r="G83" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="H83" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="I83" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="J83" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="K83" s="3">
         <v>13100</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65100</v>
+        <v>62100</v>
       </c>
       <c r="E89" s="3">
-        <v>-93800</v>
+        <v>-89400</v>
       </c>
       <c r="F89" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G89" s="3">
-        <v>50800</v>
+        <v>48400</v>
       </c>
       <c r="H89" s="3">
-        <v>57400</v>
+        <v>54700</v>
       </c>
       <c r="I89" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="J89" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K89" s="3">
         <v>50500</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="E91" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="F91" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="G91" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="H91" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I91" s="3">
-        <v>-7400</v>
+        <v>-7100</v>
       </c>
       <c r="J91" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="K91" s="3">
         <v>-7900</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>31100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>47400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>32700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>49700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-54700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J94" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="K94" s="3">
         <v>-7300</v>
@@ -5092,19 +5092,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-12000</v>
+        <v>-11400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-24600</v>
+        <v>-23500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-22500</v>
+        <v>-21500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5313,22 +5313,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>33800</v>
+        <v>32200</v>
       </c>
       <c r="E100" s="3">
-        <v>310600</v>
+        <v>296100</v>
       </c>
       <c r="F100" s="3">
-        <v>-32700</v>
+        <v>-31200</v>
       </c>
       <c r="G100" s="3">
-        <v>-79700</v>
+        <v>-75900</v>
       </c>
       <c r="H100" s="3">
-        <v>-37400</v>
+        <v>-35700</v>
       </c>
       <c r="I100" s="3">
-        <v>-18100</v>
+        <v>-17200</v>
       </c>
       <c r="J100" s="3">
         <v>-1100</v>
@@ -5375,7 +5375,7 @@
         <v>-900</v>
       </c>
       <c r="F101" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G101" s="3">
         <v>1700</v>
@@ -5384,10 +5384,10 @@
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K101" s="3">
         <v>-4400</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>95700</v>
+        <v>91200</v>
       </c>
       <c r="E102" s="3">
-        <v>200100</v>
+        <v>190700</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="H102" s="3">
-        <v>-34600</v>
+        <v>-33000</v>
       </c>
       <c r="I102" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="J102" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="K102" s="3">
         <v>-6300</v>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>408600</v>
+        <v>342800</v>
       </c>
       <c r="E8" s="3">
-        <v>261500</v>
+        <v>383600</v>
       </c>
       <c r="F8" s="3">
-        <v>391400</v>
+        <v>409900</v>
       </c>
       <c r="G8" s="3">
-        <v>390000</v>
+        <v>262400</v>
       </c>
       <c r="H8" s="3">
-        <v>495900</v>
+        <v>392700</v>
       </c>
       <c r="I8" s="3">
+        <v>391300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K8" s="3">
         <v>433400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>430100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>428900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>487200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>448800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>427700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>419800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>481900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>440000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>415700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>413400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>173000</v>
+        <v>161000</v>
       </c>
       <c r="E9" s="3">
-        <v>121600</v>
+        <v>166500</v>
       </c>
       <c r="F9" s="3">
-        <v>192800</v>
+        <v>173600</v>
       </c>
       <c r="G9" s="3">
-        <v>173300</v>
+        <v>122000</v>
       </c>
       <c r="H9" s="3">
-        <v>225200</v>
+        <v>193400</v>
       </c>
       <c r="I9" s="3">
+        <v>173900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>225900</v>
+      </c>
+      <c r="K9" s="3">
         <v>186900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>208300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>195700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>227200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>198900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>213900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>192300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>226900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>198600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>210000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>189200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>235600</v>
+        <v>181800</v>
       </c>
       <c r="E10" s="3">
-        <v>140000</v>
+        <v>217100</v>
       </c>
       <c r="F10" s="3">
-        <v>198600</v>
+        <v>236300</v>
       </c>
       <c r="G10" s="3">
-        <v>216700</v>
+        <v>140400</v>
       </c>
       <c r="H10" s="3">
-        <v>270700</v>
+        <v>199300</v>
       </c>
       <c r="I10" s="3">
+        <v>217400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K10" s="3">
         <v>246500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>221800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>233100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>260000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>249900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>213800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>227500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>254900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>241400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>205700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>224200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,25 +961,27 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>1000</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1700</v>
       </c>
       <c r="I12" s="3">
         <v>1800</v>
@@ -966,34 +993,40 @@
         <v>1800</v>
       </c>
       <c r="L12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1081,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>24700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1071,23 +1110,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>53400</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>53400</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>355900</v>
+        <v>389400</v>
       </c>
       <c r="E17" s="3">
-        <v>302500</v>
+        <v>359000</v>
       </c>
       <c r="F17" s="3">
-        <v>420400</v>
+        <v>357100</v>
       </c>
       <c r="G17" s="3">
-        <v>387200</v>
+        <v>303500</v>
       </c>
       <c r="H17" s="3">
-        <v>442300</v>
+        <v>421800</v>
       </c>
       <c r="I17" s="3">
+        <v>388500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>443700</v>
+      </c>
+      <c r="K17" s="3">
         <v>400000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>487800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>408300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>444500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>408800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>432400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>395100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>435900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>416600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>384200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>52700</v>
+        <v>-46600</v>
       </c>
       <c r="E18" s="3">
-        <v>-41000</v>
+        <v>24600</v>
       </c>
       <c r="F18" s="3">
-        <v>-29000</v>
+        <v>52800</v>
       </c>
       <c r="G18" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
-        <v>53600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K18" s="3">
         <v>33400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-57700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>20600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>42700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>40000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>45900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>40000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>29200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F20" s="3">
         <v>7300</v>
       </c>
-      <c r="E20" s="3">
-        <v>14300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-74600</v>
-      </c>
       <c r="G20" s="3">
-        <v>55300</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>55500</v>
+      </c>
+      <c r="J20" s="3">
         <v>18000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-19400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>25800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-120900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>26000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>41200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>9900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>12200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>73900</v>
+        <v>13900</v>
       </c>
       <c r="E21" s="3">
+        <v>81200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>74200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-88700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>72600</v>
-      </c>
       <c r="H21" s="3">
-        <v>84800</v>
+        <v>-89000</v>
       </c>
       <c r="I21" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K21" s="3">
         <v>26700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-87200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>81400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>93700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>46900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>60500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>63300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>12200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>53000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,167 +1513,185 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>59700</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
-        <v>-26700</v>
+        <v>66800</v>
       </c>
       <c r="F23" s="3">
-        <v>-103600</v>
+        <v>59900</v>
       </c>
       <c r="G23" s="3">
-        <v>58100</v>
+        <v>-26800</v>
       </c>
       <c r="H23" s="3">
-        <v>71500</v>
+        <v>-103900</v>
       </c>
       <c r="I23" s="3">
+        <v>58300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K23" s="3">
         <v>13900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-31900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>68700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>81100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>34600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>48500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>51000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>41300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>38200</v>
+      </c>
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-31500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>18000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J24" s="3">
         <v>22500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-30300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>21800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>25800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>17500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>18400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>18800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>43900</v>
+        <v>21500</v>
       </c>
       <c r="E26" s="3">
-        <v>-32400</v>
+        <v>28600</v>
       </c>
       <c r="F26" s="3">
-        <v>-72100</v>
+        <v>44000</v>
       </c>
       <c r="G26" s="3">
-        <v>40100</v>
+        <v>-32500</v>
       </c>
       <c r="H26" s="3">
-        <v>49000</v>
+        <v>-72400</v>
       </c>
       <c r="I26" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K26" s="3">
         <v>9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-36900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-70100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>46800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>55300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>18600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>31000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>32600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>22500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45600</v>
+        <v>18900</v>
       </c>
       <c r="E27" s="3">
-        <v>-29300</v>
+        <v>29300</v>
       </c>
       <c r="F27" s="3">
-        <v>-69100</v>
+        <v>45700</v>
       </c>
       <c r="G27" s="3">
-        <v>39800</v>
+        <v>-29400</v>
       </c>
       <c r="H27" s="3">
-        <v>50200</v>
+        <v>-69300</v>
       </c>
       <c r="I27" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K27" s="3">
         <v>10900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-36600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-66500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>47400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>57200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>22000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>31600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>35600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>25600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,17 +1973,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>74600</v>
-      </c>
       <c r="G32" s="3">
-        <v>-55300</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
+        <v>74800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-18000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>19400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-25800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>120900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-26000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-41200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-9900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-12200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45600</v>
+        <v>18900</v>
       </c>
       <c r="E33" s="3">
-        <v>-29300</v>
+        <v>29300</v>
       </c>
       <c r="F33" s="3">
-        <v>-69100</v>
+        <v>45700</v>
       </c>
       <c r="G33" s="3">
-        <v>39800</v>
+        <v>-29400</v>
       </c>
       <c r="H33" s="3">
-        <v>50200</v>
+        <v>-69300</v>
       </c>
       <c r="I33" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K33" s="3">
         <v>10900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-36600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-66500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>47400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>57200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>31600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>35600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>25600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45600</v>
+        <v>18900</v>
       </c>
       <c r="E35" s="3">
-        <v>-29300</v>
+        <v>29300</v>
       </c>
       <c r="F35" s="3">
-        <v>-69100</v>
+        <v>45700</v>
       </c>
       <c r="G35" s="3">
-        <v>39800</v>
+        <v>-29400</v>
       </c>
       <c r="H35" s="3">
-        <v>50200</v>
+        <v>-69300</v>
       </c>
       <c r="I35" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K35" s="3">
         <v>10900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-36600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-66500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>47400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>57200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>31600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>35600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>25600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>545000</v>
+        <v>597400</v>
       </c>
       <c r="E41" s="3">
-        <v>453100</v>
+        <v>586000</v>
       </c>
       <c r="F41" s="3">
-        <v>262900</v>
+        <v>546800</v>
       </c>
       <c r="G41" s="3">
-        <v>263200</v>
+        <v>454500</v>
       </c>
       <c r="H41" s="3">
-        <v>240200</v>
+        <v>263800</v>
       </c>
       <c r="I41" s="3">
+        <v>264100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K41" s="3">
         <v>293400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>312700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>325400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>326300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>346700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>305400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>321400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>325700</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>325600</v>
       </c>
       <c r="R41" s="3">
         <v>325700</v>
       </c>
       <c r="S41" s="3">
+        <v>325600</v>
+      </c>
+      <c r="T41" s="3">
+        <v>325700</v>
+      </c>
+      <c r="U41" s="3">
         <v>384500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F42" s="3">
         <v>4900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6000</v>
       </c>
       <c r="G42" s="3">
         <v>5000</v>
       </c>
       <c r="H42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>15600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>14200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>12800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>12100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>12900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>17300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>185800</v>
+        <v>158300</v>
       </c>
       <c r="E43" s="3">
-        <v>148300</v>
+        <v>173300</v>
       </c>
       <c r="F43" s="3">
-        <v>179300</v>
+        <v>186400</v>
       </c>
       <c r="G43" s="3">
-        <v>185400</v>
+        <v>148800</v>
       </c>
       <c r="H43" s="3">
-        <v>248700</v>
+        <v>179900</v>
       </c>
       <c r="I43" s="3">
+        <v>186100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>249600</v>
+      </c>
+      <c r="K43" s="3">
         <v>216500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>226800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>249000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>225100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>211700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>181400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>218700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>191400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>204800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>180700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>398900</v>
+        <v>397500</v>
       </c>
       <c r="E44" s="3">
-        <v>413800</v>
+        <v>387600</v>
       </c>
       <c r="F44" s="3">
-        <v>397800</v>
+        <v>400200</v>
       </c>
       <c r="G44" s="3">
-        <v>404900</v>
+        <v>415200</v>
       </c>
       <c r="H44" s="3">
-        <v>387100</v>
+        <v>399100</v>
       </c>
       <c r="I44" s="3">
+        <v>406300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>388400</v>
+      </c>
+      <c r="K44" s="3">
         <v>404000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>389400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>409600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>394200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>395000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>385800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>402300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>398300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>415100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>388700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>385100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60500</v>
+        <v>77100</v>
       </c>
       <c r="E45" s="3">
-        <v>73400</v>
+        <v>75100</v>
       </c>
       <c r="F45" s="3">
-        <v>53400</v>
+        <v>60700</v>
       </c>
       <c r="G45" s="3">
-        <v>56600</v>
+        <v>73600</v>
       </c>
       <c r="H45" s="3">
-        <v>57200</v>
+        <v>53600</v>
       </c>
       <c r="I45" s="3">
+        <v>56800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K45" s="3">
         <v>75400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>56500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>67700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>61500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>72800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>39500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>45600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>38700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>70600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>77500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>69500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1195100</v>
+        <v>1232600</v>
       </c>
       <c r="E46" s="3">
-        <v>1093600</v>
+        <v>1226800</v>
       </c>
       <c r="F46" s="3">
-        <v>899400</v>
+        <v>1199000</v>
       </c>
       <c r="G46" s="3">
-        <v>915200</v>
+        <v>1097100</v>
       </c>
       <c r="H46" s="3">
-        <v>938200</v>
+        <v>902400</v>
       </c>
       <c r="I46" s="3">
+        <v>918200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>941300</v>
+      </c>
+      <c r="K46" s="3">
         <v>992300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>989400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1008500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1042400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1055200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>956500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>963500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>994400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1014800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1009500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1037200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>604300</v>
+        <v>669100</v>
       </c>
       <c r="E47" s="3">
-        <v>597300</v>
+        <v>635100</v>
       </c>
       <c r="F47" s="3">
-        <v>600000</v>
+        <v>606300</v>
       </c>
       <c r="G47" s="3">
-        <v>719700</v>
+        <v>599300</v>
       </c>
       <c r="H47" s="3">
-        <v>734100</v>
+        <v>601900</v>
       </c>
       <c r="I47" s="3">
+        <v>722000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>736500</v>
+      </c>
+      <c r="K47" s="3">
         <v>748300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>780700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>793600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>900700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>854800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>830100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>845000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>781800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>770600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>715900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>707400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>579000</v>
+        <v>574300</v>
       </c>
       <c r="E48" s="3">
-        <v>593500</v>
+        <v>575100</v>
       </c>
       <c r="F48" s="3">
-        <v>601100</v>
+        <v>580900</v>
       </c>
       <c r="G48" s="3">
-        <v>606200</v>
+        <v>595500</v>
       </c>
       <c r="H48" s="3">
-        <v>607400</v>
+        <v>603100</v>
       </c>
       <c r="I48" s="3">
+        <v>608200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>609400</v>
+      </c>
+      <c r="K48" s="3">
         <v>610900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>488000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>504800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>499100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>490900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>491200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>494000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>496700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>498500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>490400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>486800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>337300</v>
+        <v>334400</v>
       </c>
       <c r="E49" s="3">
-        <v>335900</v>
+        <v>339300</v>
       </c>
       <c r="F49" s="3">
-        <v>338200</v>
+        <v>338400</v>
       </c>
       <c r="G49" s="3">
-        <v>351200</v>
+        <v>337000</v>
       </c>
       <c r="H49" s="3">
-        <v>337300</v>
+        <v>339300</v>
       </c>
       <c r="I49" s="3">
+        <v>352400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>338400</v>
+      </c>
+      <c r="K49" s="3">
         <v>214500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>222100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>276100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>275800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>264000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>266300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>267300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>265000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>258900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>247700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>248500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>112500</v>
+        <v>155800</v>
       </c>
       <c r="E52" s="3">
-        <v>111900</v>
+        <v>113700</v>
       </c>
       <c r="F52" s="3">
-        <v>105000</v>
+        <v>112800</v>
       </c>
       <c r="G52" s="3">
-        <v>97300</v>
+        <v>112200</v>
       </c>
       <c r="H52" s="3">
-        <v>100400</v>
+        <v>105300</v>
       </c>
       <c r="I52" s="3">
-        <v>100800</v>
+        <v>97700</v>
       </c>
       <c r="J52" s="3">
         <v>100800</v>
       </c>
       <c r="K52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="M52" s="3">
         <v>166300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>161900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>157100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>154600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>160000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>162800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>160700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>152800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>136700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2828200</v>
+        <v>2966200</v>
       </c>
       <c r="E54" s="3">
-        <v>2732200</v>
+        <v>2890000</v>
       </c>
       <c r="F54" s="3">
-        <v>2543600</v>
+        <v>2837500</v>
       </c>
       <c r="G54" s="3">
-        <v>2689700</v>
+        <v>2741200</v>
       </c>
       <c r="H54" s="3">
-        <v>2717500</v>
+        <v>2552000</v>
       </c>
       <c r="I54" s="3">
+        <v>2698500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2726400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2666900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2581000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2749200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2879800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2822100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2698700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2729900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2700600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2703500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2616300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2616600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>81200</v>
+        <v>86800</v>
       </c>
       <c r="E57" s="3">
         <v>79900</v>
       </c>
       <c r="F57" s="3">
-        <v>98000</v>
+        <v>81400</v>
       </c>
       <c r="G57" s="3">
-        <v>97700</v>
+        <v>80200</v>
       </c>
       <c r="H57" s="3">
-        <v>106100</v>
+        <v>98300</v>
       </c>
       <c r="I57" s="3">
+        <v>98100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K57" s="3">
         <v>107000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>108000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>111300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>112700</v>
       </c>
       <c r="M57" s="3">
         <v>111300</v>
       </c>
       <c r="N57" s="3">
+        <v>112700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>111300</v>
+      </c>
+      <c r="P57" s="3">
         <v>113600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>112100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>112800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>124600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>115700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>116600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>381600</v>
+        <v>374100</v>
       </c>
       <c r="E58" s="3">
-        <v>348500</v>
+        <v>382100</v>
       </c>
       <c r="F58" s="3">
-        <v>31300</v>
+        <v>382800</v>
       </c>
       <c r="G58" s="3">
-        <v>37100</v>
+        <v>349700</v>
       </c>
       <c r="H58" s="3">
-        <v>71000</v>
+        <v>31400</v>
       </c>
       <c r="I58" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K58" s="3">
         <v>91400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>74800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>77400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>67500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>112800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>64700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>67700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>69300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>113300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>68900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>88600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>243300</v>
+        <v>238200</v>
       </c>
       <c r="E59" s="3">
-        <v>237700</v>
+        <v>272100</v>
       </c>
       <c r="F59" s="3">
-        <v>274700</v>
+        <v>244100</v>
       </c>
       <c r="G59" s="3">
-        <v>272400</v>
+        <v>238400</v>
       </c>
       <c r="H59" s="3">
-        <v>273100</v>
+        <v>275600</v>
       </c>
       <c r="I59" s="3">
+        <v>273300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>274000</v>
+      </c>
+      <c r="K59" s="3">
         <v>249100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>219000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>211000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>221100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>214000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>180000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>169600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>181900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>172000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>179600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>180200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>706100</v>
+        <v>699100</v>
       </c>
       <c r="E60" s="3">
-        <v>666100</v>
+        <v>734100</v>
       </c>
       <c r="F60" s="3">
-        <v>404000</v>
+        <v>708400</v>
       </c>
       <c r="G60" s="3">
-        <v>407300</v>
+        <v>668300</v>
       </c>
       <c r="H60" s="3">
-        <v>450200</v>
+        <v>405300</v>
       </c>
       <c r="I60" s="3">
+        <v>408600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>451700</v>
+      </c>
+      <c r="K60" s="3">
         <v>447400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>401800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>399700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>401300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>438100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>358300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>349300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>364100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>409900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>364200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>385500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F61" s="3">
         <v>10800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>11100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>207700</v>
+        <v>244200</v>
       </c>
       <c r="E62" s="3">
-        <v>202200</v>
+        <v>215900</v>
       </c>
       <c r="F62" s="3">
-        <v>220700</v>
+        <v>208400</v>
       </c>
       <c r="G62" s="3">
-        <v>258800</v>
+        <v>202900</v>
       </c>
       <c r="H62" s="3">
-        <v>260100</v>
+        <v>221500</v>
       </c>
       <c r="I62" s="3">
+        <v>259700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>260900</v>
+      </c>
+      <c r="K62" s="3">
         <v>237900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>152700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>181100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>214700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>205900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>192300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>203000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>183900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>175200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>188300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>173700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>954700</v>
+        <v>984700</v>
       </c>
       <c r="E66" s="3">
-        <v>910400</v>
+        <v>992400</v>
       </c>
       <c r="F66" s="3">
-        <v>662400</v>
+        <v>957800</v>
       </c>
       <c r="G66" s="3">
-        <v>709300</v>
+        <v>913300</v>
       </c>
       <c r="H66" s="3">
-        <v>753100</v>
+        <v>664600</v>
       </c>
       <c r="I66" s="3">
+        <v>711700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>755600</v>
+      </c>
+      <c r="K66" s="3">
         <v>727900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>597900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>625900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>658600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>685500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>595000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>596700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>591600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>628600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>597700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1624600</v>
+        <v>1666600</v>
       </c>
       <c r="E72" s="3">
-        <v>1579100</v>
+        <v>1647800</v>
       </c>
       <c r="F72" s="3">
-        <v>1696700</v>
+        <v>1630000</v>
       </c>
       <c r="G72" s="3">
-        <v>1766000</v>
+        <v>1584200</v>
       </c>
       <c r="H72" s="3">
-        <v>1749600</v>
+        <v>1702300</v>
       </c>
       <c r="I72" s="3">
+        <v>1771700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1755300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1699500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1769200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1861100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1919200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1831500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1558700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1559800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1559900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1528300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1508400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1504600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1873500</v>
+        <v>1981500</v>
       </c>
       <c r="E76" s="3">
-        <v>1821900</v>
+        <v>1897600</v>
       </c>
       <c r="F76" s="3">
-        <v>1881200</v>
+        <v>1879700</v>
       </c>
       <c r="G76" s="3">
-        <v>1980300</v>
+        <v>1827800</v>
       </c>
       <c r="H76" s="3">
-        <v>1964400</v>
+        <v>1887400</v>
       </c>
       <c r="I76" s="3">
+        <v>1986800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1970800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1939000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1983100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2123200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2221200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2136600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2103700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2133200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2109100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2074900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2018500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2016300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45600</v>
+        <v>18900</v>
       </c>
       <c r="E81" s="3">
-        <v>-29300</v>
+        <v>29300</v>
       </c>
       <c r="F81" s="3">
-        <v>-69100</v>
+        <v>45700</v>
       </c>
       <c r="G81" s="3">
-        <v>39800</v>
+        <v>-29400</v>
       </c>
       <c r="H81" s="3">
-        <v>50200</v>
+        <v>-69300</v>
       </c>
       <c r="I81" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K81" s="3">
         <v>10900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-36600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-66500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>47400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>57200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>31600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>35600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>25600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="E83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G83" s="3">
         <v>13600</v>
       </c>
-      <c r="F83" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I83" s="3">
         <v>14500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="O83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="P83" s="3">
         <v>13200</v>
       </c>
-      <c r="I83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>12200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>11900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62100</v>
+        <v>14000</v>
       </c>
       <c r="E89" s="3">
-        <v>-89400</v>
+        <v>52600</v>
       </c>
       <c r="F89" s="3">
+        <v>62300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="H89" s="3">
         <v>2800</v>
       </c>
-      <c r="G89" s="3">
-        <v>48400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>54700</v>
-      </c>
       <c r="I89" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K89" s="3">
         <v>16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>50500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>47200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>14200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>49000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>66000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>10800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>63400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-10500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-19200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>31100</v>
-      </c>
       <c r="G94" s="3">
-        <v>47400</v>
+        <v>-15100</v>
       </c>
       <c r="H94" s="3">
-        <v>-52200</v>
+        <v>31200</v>
       </c>
       <c r="I94" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-24500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-24900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-16400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,55 +5559,61 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-23500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-21500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-22500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-22000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-22100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-44700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32200</v>
+        <v>-10600</v>
       </c>
       <c r="E100" s="3">
-        <v>296100</v>
+        <v>-10000</v>
       </c>
       <c r="F100" s="3">
-        <v>-31200</v>
+        <v>32300</v>
       </c>
       <c r="G100" s="3">
-        <v>-75900</v>
+        <v>297000</v>
       </c>
       <c r="H100" s="3">
-        <v>-35700</v>
+        <v>-31300</v>
       </c>
       <c r="I100" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-17200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-45100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-68300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>12500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-42200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-38000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-24400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>18500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>91200</v>
+        <v>10400</v>
       </c>
       <c r="E102" s="3">
-        <v>190700</v>
+        <v>34400</v>
       </c>
       <c r="F102" s="3">
+        <v>91500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>191300</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>21500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-33000</v>
-      </c>
       <c r="I102" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>12500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-40300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>39000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-19700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-21000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-61300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>53400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>342800</v>
+        <v>385400</v>
       </c>
       <c r="E8" s="3">
-        <v>383600</v>
+        <v>339800</v>
       </c>
       <c r="F8" s="3">
-        <v>409900</v>
+        <v>380300</v>
       </c>
       <c r="G8" s="3">
-        <v>262400</v>
+        <v>406300</v>
       </c>
       <c r="H8" s="3">
-        <v>392700</v>
+        <v>260100</v>
       </c>
       <c r="I8" s="3">
-        <v>391300</v>
+        <v>389300</v>
       </c>
       <c r="J8" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K8" s="3">
         <v>497500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>433400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>430100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>428900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>487200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>448800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>427700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>419800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>481900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>440000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>415700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>413400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161000</v>
+        <v>160300</v>
       </c>
       <c r="E9" s="3">
-        <v>166500</v>
+        <v>159600</v>
       </c>
       <c r="F9" s="3">
-        <v>173600</v>
+        <v>165100</v>
       </c>
       <c r="G9" s="3">
-        <v>122000</v>
+        <v>172100</v>
       </c>
       <c r="H9" s="3">
-        <v>193400</v>
+        <v>120900</v>
       </c>
       <c r="I9" s="3">
-        <v>173900</v>
+        <v>191700</v>
       </c>
       <c r="J9" s="3">
+        <v>172400</v>
+      </c>
+      <c r="K9" s="3">
         <v>225900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>208300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>195700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>227200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>198900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>213900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>192300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>226900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>198600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>210000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>189200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>181800</v>
+        <v>225100</v>
       </c>
       <c r="E10" s="3">
-        <v>217100</v>
+        <v>180200</v>
       </c>
       <c r="F10" s="3">
-        <v>236300</v>
+        <v>215200</v>
       </c>
       <c r="G10" s="3">
-        <v>140400</v>
+        <v>234300</v>
       </c>
       <c r="H10" s="3">
-        <v>199300</v>
+        <v>139200</v>
       </c>
       <c r="I10" s="3">
-        <v>217400</v>
+        <v>197600</v>
       </c>
       <c r="J10" s="3">
+        <v>215500</v>
+      </c>
+      <c r="K10" s="3">
         <v>271600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>246500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>221800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>233100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>260000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>249900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>213800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>254900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>241400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>205700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>224200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
       </c>
       <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1800</v>
       </c>
       <c r="Q12" s="3">
         <v>1800</v>
       </c>
       <c r="R12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>24700</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>34800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1116,11 +1136,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>53400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1128,8 +1148,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>389400</v>
+        <v>367700</v>
       </c>
       <c r="E17" s="3">
-        <v>359000</v>
+        <v>386000</v>
       </c>
       <c r="F17" s="3">
-        <v>357100</v>
+        <v>355900</v>
       </c>
       <c r="G17" s="3">
-        <v>303500</v>
+        <v>354000</v>
       </c>
       <c r="H17" s="3">
-        <v>421800</v>
+        <v>300800</v>
       </c>
       <c r="I17" s="3">
-        <v>388500</v>
+        <v>418100</v>
       </c>
       <c r="J17" s="3">
+        <v>385100</v>
+      </c>
+      <c r="K17" s="3">
         <v>443700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>487800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>408300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>444500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>408800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>432400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>395100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>435900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>416600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>384200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46600</v>
+        <v>17700</v>
       </c>
       <c r="E18" s="3">
-        <v>24600</v>
+        <v>-46200</v>
       </c>
       <c r="F18" s="3">
-        <v>52800</v>
+        <v>24400</v>
       </c>
       <c r="G18" s="3">
-        <v>-41100</v>
+        <v>52400</v>
       </c>
       <c r="H18" s="3">
-        <v>-29100</v>
+        <v>-40700</v>
       </c>
       <c r="I18" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-57700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>40000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46100</v>
+        <v>-7300</v>
       </c>
       <c r="E20" s="3">
-        <v>42400</v>
+        <v>45700</v>
       </c>
       <c r="F20" s="3">
-        <v>7300</v>
+        <v>42000</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="H20" s="3">
-        <v>-74800</v>
+        <v>14300</v>
       </c>
       <c r="I20" s="3">
-        <v>55500</v>
+        <v>-74100</v>
       </c>
       <c r="J20" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K20" s="3">
         <v>18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-120900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>26000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13900</v>
+        <v>24000</v>
       </c>
       <c r="E21" s="3">
-        <v>81200</v>
+        <v>13800</v>
       </c>
       <c r="F21" s="3">
-        <v>74200</v>
+        <v>80500</v>
       </c>
       <c r="G21" s="3">
-        <v>-13100</v>
+        <v>73500</v>
       </c>
       <c r="H21" s="3">
-        <v>-89000</v>
+        <v>-13000</v>
       </c>
       <c r="I21" s="3">
-        <v>72800</v>
+        <v>-88300</v>
       </c>
       <c r="J21" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K21" s="3">
         <v>85100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-87200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>53000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,22 +1559,22 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1543,20 +1583,20 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1564,134 +1604,143 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
-        <v>66800</v>
-      </c>
       <c r="F23" s="3">
-        <v>59900</v>
+        <v>66200</v>
       </c>
       <c r="G23" s="3">
-        <v>-26800</v>
+        <v>59400</v>
       </c>
       <c r="H23" s="3">
-        <v>-103900</v>
+        <v>-26600</v>
       </c>
       <c r="I23" s="3">
-        <v>58300</v>
+        <v>-103000</v>
       </c>
       <c r="J23" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K23" s="3">
         <v>71700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>48500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>41300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-22300</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
-        <v>38200</v>
+        <v>-22100</v>
       </c>
       <c r="F24" s="3">
-        <v>15900</v>
+        <v>37900</v>
       </c>
       <c r="G24" s="3">
-        <v>5700</v>
+        <v>15800</v>
       </c>
       <c r="H24" s="3">
-        <v>-31600</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
-        <v>18100</v>
+        <v>-31300</v>
       </c>
       <c r="J24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K24" s="3">
         <v>22500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-30300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21500</v>
+        <v>3800</v>
       </c>
       <c r="E26" s="3">
-        <v>28600</v>
+        <v>21400</v>
       </c>
       <c r="F26" s="3">
-        <v>44000</v>
+        <v>28400</v>
       </c>
       <c r="G26" s="3">
-        <v>-32500</v>
+        <v>43600</v>
       </c>
       <c r="H26" s="3">
-        <v>-72400</v>
+        <v>-32200</v>
       </c>
       <c r="I26" s="3">
-        <v>40200</v>
+        <v>-71800</v>
       </c>
       <c r="J26" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K26" s="3">
         <v>49200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-70100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>31000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18900</v>
+        <v>4300</v>
       </c>
       <c r="E27" s="3">
-        <v>29300</v>
+        <v>18700</v>
       </c>
       <c r="F27" s="3">
-        <v>45700</v>
+        <v>29100</v>
       </c>
       <c r="G27" s="3">
-        <v>-29400</v>
+        <v>45300</v>
       </c>
       <c r="H27" s="3">
-        <v>-69300</v>
+        <v>-29100</v>
       </c>
       <c r="I27" s="3">
-        <v>39900</v>
+        <v>-68700</v>
       </c>
       <c r="J27" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K27" s="3">
         <v>50300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-66500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,31 +1996,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1979,14 +2040,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46100</v>
+        <v>7300</v>
       </c>
       <c r="E32" s="3">
-        <v>-42400</v>
+        <v>-45700</v>
       </c>
       <c r="F32" s="3">
-        <v>-7300</v>
+        <v>-42000</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-7200</v>
       </c>
       <c r="H32" s="3">
-        <v>74800</v>
+        <v>-14300</v>
       </c>
       <c r="I32" s="3">
-        <v>-55500</v>
+        <v>74100</v>
       </c>
       <c r="J32" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>120900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-26000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18900</v>
+        <v>4300</v>
       </c>
       <c r="E33" s="3">
-        <v>29300</v>
+        <v>18700</v>
       </c>
       <c r="F33" s="3">
-        <v>45700</v>
+        <v>29100</v>
       </c>
       <c r="G33" s="3">
-        <v>-29400</v>
+        <v>45300</v>
       </c>
       <c r="H33" s="3">
-        <v>-69300</v>
+        <v>-29100</v>
       </c>
       <c r="I33" s="3">
-        <v>39900</v>
+        <v>-68700</v>
       </c>
       <c r="J33" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K33" s="3">
         <v>50300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18900</v>
+        <v>4300</v>
       </c>
       <c r="E35" s="3">
-        <v>29300</v>
+        <v>18700</v>
       </c>
       <c r="F35" s="3">
-        <v>45700</v>
+        <v>29100</v>
       </c>
       <c r="G35" s="3">
-        <v>-29400</v>
+        <v>45300</v>
       </c>
       <c r="H35" s="3">
-        <v>-69300</v>
+        <v>-29100</v>
       </c>
       <c r="I35" s="3">
-        <v>39900</v>
+        <v>-68700</v>
       </c>
       <c r="J35" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K35" s="3">
         <v>50300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>597400</v>
+        <v>370400</v>
       </c>
       <c r="E41" s="3">
-        <v>586000</v>
+        <v>592200</v>
       </c>
       <c r="F41" s="3">
-        <v>546800</v>
+        <v>580900</v>
       </c>
       <c r="G41" s="3">
-        <v>454500</v>
+        <v>542000</v>
       </c>
       <c r="H41" s="3">
-        <v>263800</v>
+        <v>450600</v>
       </c>
       <c r="I41" s="3">
-        <v>264100</v>
+        <v>261500</v>
       </c>
       <c r="J41" s="3">
+        <v>261800</v>
+      </c>
+      <c r="K41" s="3">
         <v>241000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>293400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>312700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>325400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>326300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>346700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>305400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>321400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>325700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>325600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>325700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>384500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2558,495 +2648,519 @@
         <v>2300</v>
       </c>
       <c r="E42" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G42" s="3">
         <v>4800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>4900</v>
       </c>
-      <c r="G42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5100</v>
       </c>
       <c r="J42" s="3">
         <v>5000</v>
       </c>
       <c r="K42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158300</v>
+        <v>173800</v>
       </c>
       <c r="E43" s="3">
-        <v>173300</v>
+        <v>156900</v>
       </c>
       <c r="F43" s="3">
-        <v>186400</v>
+        <v>171800</v>
       </c>
       <c r="G43" s="3">
-        <v>148800</v>
+        <v>184800</v>
       </c>
       <c r="H43" s="3">
-        <v>179900</v>
+        <v>147500</v>
       </c>
       <c r="I43" s="3">
-        <v>186100</v>
+        <v>178300</v>
       </c>
       <c r="J43" s="3">
+        <v>184400</v>
+      </c>
+      <c r="K43" s="3">
         <v>249600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>216500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>249000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>225100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>211700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>181400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>218700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>191400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>204800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>180700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>397500</v>
+        <v>406300</v>
       </c>
       <c r="E44" s="3">
-        <v>387600</v>
+        <v>394000</v>
       </c>
       <c r="F44" s="3">
-        <v>400200</v>
+        <v>384200</v>
       </c>
       <c r="G44" s="3">
-        <v>415200</v>
+        <v>396700</v>
       </c>
       <c r="H44" s="3">
-        <v>399100</v>
+        <v>411600</v>
       </c>
       <c r="I44" s="3">
-        <v>406300</v>
+        <v>395600</v>
       </c>
       <c r="J44" s="3">
+        <v>402700</v>
+      </c>
+      <c r="K44" s="3">
         <v>388400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>404000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>389400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>409600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>394200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>395000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>385800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>402300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>398300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>415100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>388700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>385100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77100</v>
+        <v>84900</v>
       </c>
       <c r="E45" s="3">
-        <v>75100</v>
+        <v>76500</v>
       </c>
       <c r="F45" s="3">
-        <v>60700</v>
+        <v>74500</v>
       </c>
       <c r="G45" s="3">
-        <v>73600</v>
+        <v>60200</v>
       </c>
       <c r="H45" s="3">
-        <v>53600</v>
+        <v>73000</v>
       </c>
       <c r="I45" s="3">
-        <v>56800</v>
+        <v>53100</v>
       </c>
       <c r="J45" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K45" s="3">
         <v>57400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>56500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>67700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>72800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>77500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>69500</v>
       </c>
       <c r="V45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1232600</v>
+        <v>1037800</v>
       </c>
       <c r="E46" s="3">
-        <v>1226800</v>
+        <v>1221900</v>
       </c>
       <c r="F46" s="3">
-        <v>1199000</v>
+        <v>1216100</v>
       </c>
       <c r="G46" s="3">
-        <v>1097100</v>
+        <v>1188600</v>
       </c>
       <c r="H46" s="3">
-        <v>902400</v>
+        <v>1087600</v>
       </c>
       <c r="I46" s="3">
-        <v>918200</v>
+        <v>894500</v>
       </c>
       <c r="J46" s="3">
+        <v>910200</v>
+      </c>
+      <c r="K46" s="3">
         <v>941300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>992300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>989400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1008500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1042400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1055200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>956500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>963500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>994400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1014800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1009500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1037200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>669100</v>
+        <v>651600</v>
       </c>
       <c r="E47" s="3">
-        <v>635100</v>
+        <v>663300</v>
       </c>
       <c r="F47" s="3">
-        <v>606300</v>
+        <v>629500</v>
       </c>
       <c r="G47" s="3">
-        <v>599300</v>
+        <v>601000</v>
       </c>
       <c r="H47" s="3">
-        <v>601900</v>
+        <v>594100</v>
       </c>
       <c r="I47" s="3">
-        <v>722000</v>
+        <v>596700</v>
       </c>
       <c r="J47" s="3">
+        <v>715800</v>
+      </c>
+      <c r="K47" s="3">
         <v>736500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>748300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>780700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>793600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>900700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>854800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>830100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>845000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>781800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>770600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>715900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>707400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>574300</v>
+        <v>566100</v>
       </c>
       <c r="E48" s="3">
-        <v>575100</v>
+        <v>569300</v>
       </c>
       <c r="F48" s="3">
-        <v>580900</v>
+        <v>570100</v>
       </c>
       <c r="G48" s="3">
-        <v>595500</v>
+        <v>575900</v>
       </c>
       <c r="H48" s="3">
-        <v>603100</v>
+        <v>590300</v>
       </c>
       <c r="I48" s="3">
-        <v>608200</v>
+        <v>597800</v>
       </c>
       <c r="J48" s="3">
+        <v>602900</v>
+      </c>
+      <c r="K48" s="3">
         <v>609400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>610900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>488000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>504800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>499100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>490900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>491200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>494000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>496700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>498500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>490400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>486800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>334400</v>
+        <v>331600</v>
       </c>
       <c r="E49" s="3">
-        <v>339300</v>
+        <v>331500</v>
       </c>
       <c r="F49" s="3">
+        <v>336300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>335500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>334100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>336300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>349300</v>
+      </c>
+      <c r="K49" s="3">
         <v>338400</v>
       </c>
-      <c r="G49" s="3">
-        <v>337000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>339300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>352400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>338400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>214500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>222100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>276100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>275800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>264000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>266300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>267300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>265000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>258900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>247700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>248500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,31 +3286,34 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>155800</v>
+        <v>157300</v>
       </c>
       <c r="E52" s="3">
-        <v>113700</v>
+        <v>154400</v>
       </c>
       <c r="F52" s="3">
-        <v>112800</v>
+        <v>112700</v>
       </c>
       <c r="G52" s="3">
-        <v>112200</v>
+        <v>111900</v>
       </c>
       <c r="H52" s="3">
-        <v>105300</v>
+        <v>111300</v>
       </c>
       <c r="I52" s="3">
-        <v>97700</v>
+        <v>104400</v>
       </c>
       <c r="J52" s="3">
-        <v>100800</v>
+        <v>96800</v>
       </c>
       <c r="K52" s="3">
         <v>100800</v>
@@ -3202,37 +3322,40 @@
         <v>100800</v>
       </c>
       <c r="M52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="N52" s="3">
         <v>166300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>161900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>157100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>154600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>160000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>162800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>160700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>152800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>136700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2966200</v>
+        <v>2744400</v>
       </c>
       <c r="E54" s="3">
-        <v>2890000</v>
+        <v>2940400</v>
       </c>
       <c r="F54" s="3">
-        <v>2837500</v>
+        <v>2864800</v>
       </c>
       <c r="G54" s="3">
-        <v>2741200</v>
+        <v>2812800</v>
       </c>
       <c r="H54" s="3">
-        <v>2552000</v>
+        <v>2717300</v>
       </c>
       <c r="I54" s="3">
-        <v>2698500</v>
+        <v>2529700</v>
       </c>
       <c r="J54" s="3">
+        <v>2675000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2726400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2666900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2581000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2749200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2879800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2822100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2698700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2729900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2703500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2616300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2616600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,277 +3533,290 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86800</v>
+        <v>90300</v>
       </c>
       <c r="E57" s="3">
-        <v>79900</v>
+        <v>86100</v>
       </c>
       <c r="F57" s="3">
-        <v>81400</v>
+        <v>79200</v>
       </c>
       <c r="G57" s="3">
-        <v>80200</v>
+        <v>80700</v>
       </c>
       <c r="H57" s="3">
-        <v>98300</v>
+        <v>79500</v>
       </c>
       <c r="I57" s="3">
-        <v>98100</v>
+        <v>97500</v>
       </c>
       <c r="J57" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K57" s="3">
         <v>106500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>107000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>108000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>113600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>112100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>112800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>124600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>115700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>116600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>374100</v>
+        <v>188400</v>
       </c>
       <c r="E58" s="3">
-        <v>382100</v>
+        <v>370800</v>
       </c>
       <c r="F58" s="3">
-        <v>382800</v>
+        <v>378700</v>
       </c>
       <c r="G58" s="3">
-        <v>349700</v>
+        <v>379500</v>
       </c>
       <c r="H58" s="3">
-        <v>31400</v>
+        <v>346600</v>
       </c>
       <c r="I58" s="3">
-        <v>37200</v>
+        <v>31100</v>
       </c>
       <c r="J58" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K58" s="3">
         <v>71200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>91400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>74800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>77400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>112800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>64700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>67700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>69300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>113300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>68900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>88600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>238200</v>
+        <v>224400</v>
       </c>
       <c r="E59" s="3">
-        <v>272100</v>
+        <v>236100</v>
       </c>
       <c r="F59" s="3">
-        <v>244100</v>
+        <v>269800</v>
       </c>
       <c r="G59" s="3">
-        <v>238400</v>
+        <v>242000</v>
       </c>
       <c r="H59" s="3">
-        <v>275600</v>
+        <v>236400</v>
       </c>
       <c r="I59" s="3">
-        <v>273300</v>
+        <v>273200</v>
       </c>
       <c r="J59" s="3">
+        <v>270900</v>
+      </c>
+      <c r="K59" s="3">
         <v>274000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>249100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>219000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>211000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>214000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>180000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>169600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>181900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>172000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>180200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>699100</v>
+        <v>503100</v>
       </c>
       <c r="E60" s="3">
-        <v>734100</v>
+        <v>693000</v>
       </c>
       <c r="F60" s="3">
-        <v>708400</v>
+        <v>727700</v>
       </c>
       <c r="G60" s="3">
-        <v>668300</v>
+        <v>702200</v>
       </c>
       <c r="H60" s="3">
-        <v>405300</v>
+        <v>662500</v>
       </c>
       <c r="I60" s="3">
-        <v>408600</v>
+        <v>401800</v>
       </c>
       <c r="J60" s="3">
+        <v>405000</v>
+      </c>
+      <c r="K60" s="3">
         <v>451700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>447400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>401800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>399700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>401300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>438100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>358300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>349300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>364100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>409900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>364200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>385500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="E61" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="F61" s="3">
-        <v>10800</v>
+        <v>12900</v>
       </c>
       <c r="G61" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="H61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3681,11 +3824,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3693,11 +3836,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3705,78 +3848,84 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>244200</v>
+        <v>230400</v>
       </c>
       <c r="E62" s="3">
-        <v>215900</v>
+        <v>242100</v>
       </c>
       <c r="F62" s="3">
-        <v>208400</v>
+        <v>214100</v>
       </c>
       <c r="G62" s="3">
-        <v>202900</v>
+        <v>206500</v>
       </c>
       <c r="H62" s="3">
-        <v>221500</v>
+        <v>201100</v>
       </c>
       <c r="I62" s="3">
-        <v>259700</v>
+        <v>219500</v>
       </c>
       <c r="J62" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K62" s="3">
         <v>260900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>237900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>152700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>181100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>214700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>205900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>192300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>203000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>183900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>175200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>188300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>173700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>984700</v>
+        <v>775100</v>
       </c>
       <c r="E66" s="3">
-        <v>992400</v>
+        <v>976100</v>
       </c>
       <c r="F66" s="3">
-        <v>957800</v>
+        <v>983800</v>
       </c>
       <c r="G66" s="3">
-        <v>913300</v>
+        <v>949500</v>
       </c>
       <c r="H66" s="3">
-        <v>664600</v>
+        <v>905400</v>
       </c>
       <c r="I66" s="3">
-        <v>711700</v>
+        <v>658800</v>
       </c>
       <c r="J66" s="3">
+        <v>705500</v>
+      </c>
+      <c r="K66" s="3">
         <v>755600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>727900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>597900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>625900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>658600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>685500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>595000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>596700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>591600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>628600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>597700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1666600</v>
+        <v>1645000</v>
       </c>
       <c r="E72" s="3">
-        <v>1647800</v>
+        <v>1652100</v>
       </c>
       <c r="F72" s="3">
-        <v>1630000</v>
+        <v>1633400</v>
       </c>
       <c r="G72" s="3">
-        <v>1584200</v>
+        <v>1615800</v>
       </c>
       <c r="H72" s="3">
-        <v>1702300</v>
+        <v>1570400</v>
       </c>
       <c r="I72" s="3">
-        <v>1771700</v>
+        <v>1687500</v>
       </c>
       <c r="J72" s="3">
+        <v>1756300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1755300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1699500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1769200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1861100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1919200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1831500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1558700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1559800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1559900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1528300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1508400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1504600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1981500</v>
+        <v>1969300</v>
       </c>
       <c r="E76" s="3">
-        <v>1897600</v>
+        <v>1964200</v>
       </c>
       <c r="F76" s="3">
-        <v>1879700</v>
+        <v>1881000</v>
       </c>
       <c r="G76" s="3">
-        <v>1827800</v>
+        <v>1863300</v>
       </c>
       <c r="H76" s="3">
-        <v>1887400</v>
+        <v>1811900</v>
       </c>
       <c r="I76" s="3">
-        <v>1986800</v>
+        <v>1870900</v>
       </c>
       <c r="J76" s="3">
+        <v>1969500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1970800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1939000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1983100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2123200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2221200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2136600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2103700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2133200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2109100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2074900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2018500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2016300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18900</v>
+        <v>4300</v>
       </c>
       <c r="E81" s="3">
-        <v>29300</v>
+        <v>18700</v>
       </c>
       <c r="F81" s="3">
-        <v>45700</v>
+        <v>29100</v>
       </c>
       <c r="G81" s="3">
-        <v>-29400</v>
+        <v>45300</v>
       </c>
       <c r="H81" s="3">
-        <v>-69300</v>
+        <v>-29100</v>
       </c>
       <c r="I81" s="3">
-        <v>39900</v>
+        <v>-68700</v>
       </c>
       <c r="J81" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K81" s="3">
         <v>50300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14400</v>
+        <v>13700</v>
       </c>
       <c r="E83" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="F83" s="3">
         <v>14100</v>
       </c>
       <c r="G83" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="H83" s="3">
-        <v>14900</v>
+        <v>13500</v>
       </c>
       <c r="I83" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="J83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14000</v>
+        <v>-4900</v>
       </c>
       <c r="E89" s="3">
-        <v>52600</v>
+        <v>13900</v>
       </c>
       <c r="F89" s="3">
-        <v>62300</v>
+        <v>52100</v>
       </c>
       <c r="G89" s="3">
-        <v>-89700</v>
+        <v>61700</v>
       </c>
       <c r="H89" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="I89" s="3">
         <v>2800</v>
       </c>
-      <c r="I89" s="3">
-        <v>48500</v>
-      </c>
       <c r="J89" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K89" s="3">
         <v>54900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>66000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="E91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-7200</v>
-      </c>
       <c r="F94" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-15100</v>
-      </c>
       <c r="H94" s="3">
-        <v>31200</v>
+        <v>-15000</v>
       </c>
       <c r="I94" s="3">
-        <v>47500</v>
+        <v>31000</v>
       </c>
       <c r="J94" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-52300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-11400</v>
       </c>
       <c r="E96" s="3">
-        <v>-11500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-11400</v>
       </c>
       <c r="G96" s="3">
-        <v>-11500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-11400</v>
       </c>
       <c r="I96" s="3">
-        <v>-23500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-23300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-21500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-22500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-22000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-22100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-44700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10600</v>
+        <v>-205400</v>
       </c>
       <c r="E100" s="3">
-        <v>-10000</v>
+        <v>-10500</v>
       </c>
       <c r="F100" s="3">
-        <v>32300</v>
+        <v>-9900</v>
       </c>
       <c r="G100" s="3">
-        <v>297000</v>
+        <v>32000</v>
       </c>
       <c r="H100" s="3">
-        <v>-31300</v>
+        <v>294400</v>
       </c>
       <c r="I100" s="3">
-        <v>-76200</v>
+        <v>-31000</v>
       </c>
       <c r="J100" s="3">
+        <v>-75500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-35800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-45100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-42200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-24400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-900</v>
-      </c>
       <c r="H101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>18500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10400</v>
+        <v>-220900</v>
       </c>
       <c r="E102" s="3">
-        <v>34400</v>
+        <v>10300</v>
       </c>
       <c r="F102" s="3">
-        <v>91500</v>
+        <v>34100</v>
       </c>
       <c r="G102" s="3">
-        <v>191300</v>
+        <v>90700</v>
       </c>
       <c r="H102" s="3">
+        <v>189700</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>21600</v>
-      </c>
       <c r="J102" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-61300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>53400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>385400</v>
+        <v>397500</v>
       </c>
       <c r="E8" s="3">
-        <v>339800</v>
+        <v>372700</v>
       </c>
       <c r="F8" s="3">
-        <v>380300</v>
+        <v>328600</v>
       </c>
       <c r="G8" s="3">
-        <v>406300</v>
+        <v>367800</v>
       </c>
       <c r="H8" s="3">
-        <v>260100</v>
+        <v>393000</v>
       </c>
       <c r="I8" s="3">
-        <v>389300</v>
+        <v>251500</v>
       </c>
       <c r="J8" s="3">
+        <v>376400</v>
+      </c>
+      <c r="K8" s="3">
         <v>387900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>497500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>433400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>430100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>428900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>487200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>448800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>427700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>419800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>481900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>440000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>415700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>413400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>160300</v>
+        <v>178100</v>
       </c>
       <c r="E9" s="3">
+        <v>155000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>154300</v>
+      </c>
+      <c r="G9" s="3">
         <v>159600</v>
       </c>
-      <c r="F9" s="3">
-        <v>165100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>172100</v>
-      </c>
       <c r="H9" s="3">
-        <v>120900</v>
+        <v>166400</v>
       </c>
       <c r="I9" s="3">
-        <v>191700</v>
+        <v>116900</v>
       </c>
       <c r="J9" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K9" s="3">
         <v>172400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>225900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>186900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>208300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>195700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>227200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>198900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>213900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>192300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>226900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>198600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>210000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>189200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>225100</v>
+        <v>219400</v>
       </c>
       <c r="E10" s="3">
-        <v>180200</v>
+        <v>217700</v>
       </c>
       <c r="F10" s="3">
-        <v>215200</v>
+        <v>174300</v>
       </c>
       <c r="G10" s="3">
-        <v>234300</v>
+        <v>208100</v>
       </c>
       <c r="H10" s="3">
-        <v>139200</v>
+        <v>226600</v>
       </c>
       <c r="I10" s="3">
-        <v>197600</v>
+        <v>134600</v>
       </c>
       <c r="J10" s="3">
+        <v>191000</v>
+      </c>
+      <c r="K10" s="3">
         <v>215500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>271600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>246500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>221800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>233100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>260000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>249900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>213800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>254900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>241400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>205700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>224200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
       </c>
       <c r="H12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1800</v>
       </c>
       <c r="R12" s="3">
         <v>1800</v>
       </c>
       <c r="S12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>34800</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>33700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1139,11 +1159,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>53400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>367700</v>
+        <v>379500</v>
       </c>
       <c r="E17" s="3">
-        <v>386000</v>
+        <v>355600</v>
       </c>
       <c r="F17" s="3">
-        <v>355900</v>
+        <v>373300</v>
       </c>
       <c r="G17" s="3">
-        <v>354000</v>
+        <v>344200</v>
       </c>
       <c r="H17" s="3">
-        <v>300800</v>
+        <v>342300</v>
       </c>
       <c r="I17" s="3">
-        <v>418100</v>
+        <v>290900</v>
       </c>
       <c r="J17" s="3">
+        <v>404400</v>
+      </c>
+      <c r="K17" s="3">
         <v>385100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>443700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>487800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>408300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>444500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>408800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>432400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>395100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>435900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>416600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>384200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E18" s="3">
-        <v>-46200</v>
+        <v>17100</v>
       </c>
       <c r="F18" s="3">
-        <v>24400</v>
+        <v>-44700</v>
       </c>
       <c r="G18" s="3">
-        <v>52400</v>
+        <v>23600</v>
       </c>
       <c r="H18" s="3">
-        <v>-40700</v>
+        <v>50600</v>
       </c>
       <c r="I18" s="3">
-        <v>-28900</v>
+        <v>-39400</v>
       </c>
       <c r="J18" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-57700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>45900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,143 +1447,150 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7300</v>
+        <v>20900</v>
       </c>
       <c r="E20" s="3">
-        <v>45700</v>
+        <v>-7100</v>
       </c>
       <c r="F20" s="3">
-        <v>42000</v>
+        <v>44200</v>
       </c>
       <c r="G20" s="3">
-        <v>7200</v>
+        <v>40600</v>
       </c>
       <c r="H20" s="3">
-        <v>14300</v>
+        <v>7000</v>
       </c>
       <c r="I20" s="3">
-        <v>-74100</v>
+        <v>13800</v>
       </c>
       <c r="J20" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="K20" s="3">
         <v>55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-120900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>41200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24000</v>
+        <v>51900</v>
       </c>
       <c r="E21" s="3">
-        <v>13800</v>
+        <v>23200</v>
       </c>
       <c r="F21" s="3">
-        <v>80500</v>
+        <v>13300</v>
       </c>
       <c r="G21" s="3">
-        <v>73500</v>
+        <v>77900</v>
       </c>
       <c r="H21" s="3">
-        <v>-13000</v>
+        <v>71100</v>
       </c>
       <c r="I21" s="3">
-        <v>-88300</v>
+        <v>-12600</v>
       </c>
       <c r="J21" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K21" s="3">
         <v>72200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-87200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>60500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>53000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1562,22 +1602,22 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1586,20 +1626,20 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1607,140 +1647,149 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10100</v>
+        <v>38700</v>
       </c>
       <c r="E23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>66200</v>
-      </c>
       <c r="G23" s="3">
-        <v>59400</v>
+        <v>64000</v>
       </c>
       <c r="H23" s="3">
-        <v>-26600</v>
+        <v>57500</v>
       </c>
       <c r="I23" s="3">
-        <v>-103000</v>
+        <v>-25700</v>
       </c>
       <c r="J23" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="K23" s="3">
         <v>57800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>71700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>48500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>41300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>17000</v>
       </c>
       <c r="E24" s="3">
-        <v>-22100</v>
+        <v>6100</v>
       </c>
       <c r="F24" s="3">
-        <v>37900</v>
+        <v>-21400</v>
       </c>
       <c r="G24" s="3">
-        <v>15800</v>
+        <v>36600</v>
       </c>
       <c r="H24" s="3">
-        <v>5600</v>
+        <v>15300</v>
       </c>
       <c r="I24" s="3">
-        <v>-31300</v>
+        <v>5500</v>
       </c>
       <c r="J24" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="K24" s="3">
         <v>17900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-30300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3800</v>
+        <v>21700</v>
       </c>
       <c r="E26" s="3">
-        <v>21400</v>
+        <v>3700</v>
       </c>
       <c r="F26" s="3">
-        <v>28400</v>
+        <v>20700</v>
       </c>
       <c r="G26" s="3">
-        <v>43600</v>
+        <v>27400</v>
       </c>
       <c r="H26" s="3">
-        <v>-32200</v>
+        <v>42200</v>
       </c>
       <c r="I26" s="3">
-        <v>-71800</v>
+        <v>-31200</v>
       </c>
       <c r="J26" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="K26" s="3">
         <v>39900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>49200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-36900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-70100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>55300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>31000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4300</v>
+        <v>22100</v>
       </c>
       <c r="E27" s="3">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="F27" s="3">
-        <v>29100</v>
+        <v>18100</v>
       </c>
       <c r="G27" s="3">
-        <v>45300</v>
+        <v>28100</v>
       </c>
       <c r="H27" s="3">
-        <v>-29100</v>
+        <v>43800</v>
       </c>
       <c r="I27" s="3">
-        <v>-68700</v>
+        <v>-28100</v>
       </c>
       <c r="J27" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K27" s="3">
         <v>39600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-36600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-66500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>31600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2043,14 +2104,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7300</v>
+        <v>-20900</v>
       </c>
       <c r="E32" s="3">
-        <v>-45700</v>
+        <v>7100</v>
       </c>
       <c r="F32" s="3">
-        <v>-42000</v>
+        <v>-44200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7200</v>
+        <v>-40600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14300</v>
+        <v>-7000</v>
       </c>
       <c r="I32" s="3">
-        <v>74100</v>
+        <v>-13800</v>
       </c>
       <c r="J32" s="3">
+        <v>71700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>120900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-26000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4300</v>
+        <v>22100</v>
       </c>
       <c r="E33" s="3">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="F33" s="3">
-        <v>29100</v>
+        <v>18100</v>
       </c>
       <c r="G33" s="3">
-        <v>45300</v>
+        <v>28100</v>
       </c>
       <c r="H33" s="3">
-        <v>-29100</v>
+        <v>43800</v>
       </c>
       <c r="I33" s="3">
-        <v>-68700</v>
+        <v>-28100</v>
       </c>
       <c r="J33" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K33" s="3">
         <v>39600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-36600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4300</v>
+        <v>22100</v>
       </c>
       <c r="E35" s="3">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="F35" s="3">
-        <v>29100</v>
+        <v>18100</v>
       </c>
       <c r="G35" s="3">
-        <v>45300</v>
+        <v>28100</v>
       </c>
       <c r="H35" s="3">
-        <v>-29100</v>
+        <v>43800</v>
       </c>
       <c r="I35" s="3">
-        <v>-68700</v>
+        <v>-28100</v>
       </c>
       <c r="J35" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K35" s="3">
         <v>39600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-36600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>370400</v>
+        <v>429100</v>
       </c>
       <c r="E41" s="3">
-        <v>592200</v>
+        <v>358200</v>
       </c>
       <c r="F41" s="3">
-        <v>580900</v>
+        <v>572700</v>
       </c>
       <c r="G41" s="3">
-        <v>542000</v>
+        <v>561700</v>
       </c>
       <c r="H41" s="3">
-        <v>450600</v>
+        <v>524200</v>
       </c>
       <c r="I41" s="3">
-        <v>261500</v>
+        <v>435800</v>
       </c>
       <c r="J41" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K41" s="3">
         <v>261800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>241000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>293400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>312700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>325400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>326300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>346700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>305400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>321400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>325700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>325600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>325700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>384500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>2300</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H42" s="3">
         <v>4700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>4800</v>
       </c>
-      <c r="H42" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>6000</v>
-      </c>
       <c r="J42" s="3">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="K42" s="3">
         <v>5000</v>
       </c>
       <c r="L42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="3">
         <v>3000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>173800</v>
+        <v>159800</v>
       </c>
       <c r="E43" s="3">
-        <v>156900</v>
+        <v>168100</v>
       </c>
       <c r="F43" s="3">
-        <v>171800</v>
+        <v>151800</v>
       </c>
       <c r="G43" s="3">
-        <v>184800</v>
+        <v>166200</v>
       </c>
       <c r="H43" s="3">
-        <v>147500</v>
+        <v>178700</v>
       </c>
       <c r="I43" s="3">
-        <v>178300</v>
+        <v>142700</v>
       </c>
       <c r="J43" s="3">
+        <v>172400</v>
+      </c>
+      <c r="K43" s="3">
         <v>184400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>249600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>216500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>226800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>249000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>225100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>211700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>181400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>218700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>191400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>204800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>180700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>406300</v>
+        <v>389200</v>
       </c>
       <c r="E44" s="3">
-        <v>394000</v>
+        <v>392900</v>
       </c>
       <c r="F44" s="3">
-        <v>384200</v>
+        <v>381000</v>
       </c>
       <c r="G44" s="3">
-        <v>396700</v>
+        <v>371600</v>
       </c>
       <c r="H44" s="3">
-        <v>411600</v>
+        <v>383700</v>
       </c>
       <c r="I44" s="3">
-        <v>395600</v>
+        <v>398000</v>
       </c>
       <c r="J44" s="3">
+        <v>382600</v>
+      </c>
+      <c r="K44" s="3">
         <v>402700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>388400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>404000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>389400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>409600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>394200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>395000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>385800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>402300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>398300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>415100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>388700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>385100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84900</v>
+        <v>37700</v>
       </c>
       <c r="E45" s="3">
-        <v>76500</v>
+        <v>82100</v>
       </c>
       <c r="F45" s="3">
-        <v>74500</v>
+        <v>74000</v>
       </c>
       <c r="G45" s="3">
-        <v>60200</v>
+        <v>72000</v>
       </c>
       <c r="H45" s="3">
-        <v>73000</v>
+        <v>58200</v>
       </c>
       <c r="I45" s="3">
-        <v>53100</v>
+        <v>70600</v>
       </c>
       <c r="J45" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K45" s="3">
         <v>56300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>56500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>67700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>45600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>77500</v>
-      </c>
-      <c r="V45" s="3">
-        <v>69500</v>
       </c>
       <c r="W45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1037800</v>
+        <v>1015700</v>
       </c>
       <c r="E46" s="3">
-        <v>1221900</v>
+        <v>1003600</v>
       </c>
       <c r="F46" s="3">
-        <v>1216100</v>
+        <v>1181600</v>
       </c>
       <c r="G46" s="3">
-        <v>1188600</v>
+        <v>1176100</v>
       </c>
       <c r="H46" s="3">
-        <v>1087600</v>
+        <v>1149400</v>
       </c>
       <c r="I46" s="3">
-        <v>894500</v>
+        <v>1051800</v>
       </c>
       <c r="J46" s="3">
+        <v>865100</v>
+      </c>
+      <c r="K46" s="3">
         <v>910200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>941300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>992300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>989400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1008500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1042400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1055200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>956500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>963500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>994400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1014800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1009500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1037200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>651600</v>
+        <v>630800</v>
       </c>
       <c r="E47" s="3">
-        <v>663300</v>
+        <v>630100</v>
       </c>
       <c r="F47" s="3">
-        <v>629500</v>
+        <v>641500</v>
       </c>
       <c r="G47" s="3">
-        <v>601000</v>
+        <v>608800</v>
       </c>
       <c r="H47" s="3">
-        <v>594100</v>
+        <v>581200</v>
       </c>
       <c r="I47" s="3">
-        <v>596700</v>
+        <v>574500</v>
       </c>
       <c r="J47" s="3">
+        <v>577000</v>
+      </c>
+      <c r="K47" s="3">
         <v>715800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>736500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>748300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>780700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>793600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>900700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>854800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>830100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>845000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>781800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>770600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>715900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>707400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>566100</v>
+        <v>559600</v>
       </c>
       <c r="E48" s="3">
-        <v>569300</v>
+        <v>547500</v>
       </c>
       <c r="F48" s="3">
-        <v>570100</v>
+        <v>550500</v>
       </c>
       <c r="G48" s="3">
-        <v>575900</v>
+        <v>551300</v>
       </c>
       <c r="H48" s="3">
-        <v>590300</v>
+        <v>556900</v>
       </c>
       <c r="I48" s="3">
-        <v>597800</v>
+        <v>570900</v>
       </c>
       <c r="J48" s="3">
+        <v>578100</v>
+      </c>
+      <c r="K48" s="3">
         <v>602900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>609400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>610900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>488000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>504800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>499100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>490900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>491200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>494000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>496700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>498500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>490400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>486800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>331600</v>
+        <v>318000</v>
       </c>
       <c r="E49" s="3">
-        <v>331500</v>
+        <v>320700</v>
       </c>
       <c r="F49" s="3">
-        <v>336300</v>
+        <v>320600</v>
       </c>
       <c r="G49" s="3">
-        <v>335500</v>
+        <v>325200</v>
       </c>
       <c r="H49" s="3">
-        <v>334100</v>
+        <v>324500</v>
       </c>
       <c r="I49" s="3">
-        <v>336300</v>
+        <v>323100</v>
       </c>
       <c r="J49" s="3">
+        <v>325200</v>
+      </c>
+      <c r="K49" s="3">
         <v>349300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>338400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>214500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>222100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>276100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>275800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>264000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>266300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>267300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>265000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>258900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>247700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>248500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,34 +3406,37 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>157300</v>
+        <v>153500</v>
       </c>
       <c r="E52" s="3">
-        <v>154400</v>
+        <v>152100</v>
       </c>
       <c r="F52" s="3">
-        <v>112700</v>
+        <v>149400</v>
       </c>
       <c r="G52" s="3">
-        <v>111900</v>
+        <v>109000</v>
       </c>
       <c r="H52" s="3">
-        <v>111300</v>
+        <v>108200</v>
       </c>
       <c r="I52" s="3">
-        <v>104400</v>
+        <v>107600</v>
       </c>
       <c r="J52" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K52" s="3">
         <v>96800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100800</v>
       </c>
       <c r="L52" s="3">
         <v>100800</v>
@@ -3325,37 +3445,40 @@
         <v>100800</v>
       </c>
       <c r="N52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="O52" s="3">
         <v>166300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>161900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>157100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>154600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>160000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>162800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>160700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>152800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>136700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2744400</v>
+        <v>2677700</v>
       </c>
       <c r="E54" s="3">
-        <v>2940400</v>
+        <v>2654100</v>
       </c>
       <c r="F54" s="3">
-        <v>2864800</v>
+        <v>2843500</v>
       </c>
       <c r="G54" s="3">
-        <v>2812800</v>
+        <v>2770500</v>
       </c>
       <c r="H54" s="3">
-        <v>2717300</v>
+        <v>2720200</v>
       </c>
       <c r="I54" s="3">
-        <v>2529700</v>
+        <v>2627800</v>
       </c>
       <c r="J54" s="3">
+        <v>2446400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2675000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2726400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2666900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2581000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2749200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2879800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2822100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2698700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2729900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2703500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2616300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2616600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,292 +3664,305 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>90300</v>
+        <v>79600</v>
       </c>
       <c r="E57" s="3">
-        <v>86100</v>
+        <v>87400</v>
       </c>
       <c r="F57" s="3">
-        <v>79200</v>
+        <v>83200</v>
       </c>
       <c r="G57" s="3">
-        <v>80700</v>
+        <v>76600</v>
       </c>
       <c r="H57" s="3">
-        <v>79500</v>
+        <v>78100</v>
       </c>
       <c r="I57" s="3">
-        <v>97500</v>
+        <v>76800</v>
       </c>
       <c r="J57" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K57" s="3">
         <v>97200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>107000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>108000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>112700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>113600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>112100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>112800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>124600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>115700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>116600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188400</v>
+        <v>182000</v>
       </c>
       <c r="E58" s="3">
-        <v>370800</v>
+        <v>182200</v>
       </c>
       <c r="F58" s="3">
-        <v>378700</v>
+        <v>358600</v>
       </c>
       <c r="G58" s="3">
-        <v>379500</v>
+        <v>366300</v>
       </c>
       <c r="H58" s="3">
-        <v>346600</v>
+        <v>367000</v>
       </c>
       <c r="I58" s="3">
-        <v>31100</v>
+        <v>335200</v>
       </c>
       <c r="J58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K58" s="3">
         <v>36900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>71200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>91400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>74800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>67500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>112800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>64700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>67700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>69300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>113300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>68900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>88600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224400</v>
+        <v>219500</v>
       </c>
       <c r="E59" s="3">
-        <v>236100</v>
+        <v>217000</v>
       </c>
       <c r="F59" s="3">
-        <v>269800</v>
+        <v>228300</v>
       </c>
       <c r="G59" s="3">
-        <v>242000</v>
+        <v>260900</v>
       </c>
       <c r="H59" s="3">
-        <v>236400</v>
+        <v>234000</v>
       </c>
       <c r="I59" s="3">
-        <v>273200</v>
+        <v>228600</v>
       </c>
       <c r="J59" s="3">
+        <v>264200</v>
+      </c>
+      <c r="K59" s="3">
         <v>270900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>274000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>249100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>219000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>211000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>214000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>180000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>169600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>181900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>172000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>180200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>503100</v>
+        <v>481100</v>
       </c>
       <c r="E60" s="3">
-        <v>693000</v>
+        <v>486500</v>
       </c>
       <c r="F60" s="3">
-        <v>727700</v>
+        <v>670200</v>
       </c>
       <c r="G60" s="3">
-        <v>702200</v>
+        <v>703800</v>
       </c>
       <c r="H60" s="3">
-        <v>662500</v>
+        <v>679100</v>
       </c>
       <c r="I60" s="3">
+        <v>640600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>388600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>405000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>451700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>447400</v>
+      </c>
+      <c r="N60" s="3">
         <v>401800</v>
       </c>
-      <c r="J60" s="3">
-        <v>405000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>451700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>447400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>401800</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>399700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>401300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>438100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>358300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>349300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>364100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>409900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>364200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>385500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="E61" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F61" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="G61" s="3">
-        <v>10700</v>
+        <v>12500</v>
       </c>
       <c r="H61" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="I61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3827,11 +3970,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3839,11 +3982,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3851,81 +3994,87 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>230400</v>
+        <v>232200</v>
       </c>
       <c r="E62" s="3">
-        <v>242100</v>
+        <v>222800</v>
       </c>
       <c r="F62" s="3">
-        <v>214100</v>
+        <v>234100</v>
       </c>
       <c r="G62" s="3">
-        <v>206500</v>
+        <v>207000</v>
       </c>
       <c r="H62" s="3">
-        <v>201100</v>
+        <v>199700</v>
       </c>
       <c r="I62" s="3">
-        <v>219500</v>
+        <v>194500</v>
       </c>
       <c r="J62" s="3">
+        <v>212300</v>
+      </c>
+      <c r="K62" s="3">
         <v>257400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>260900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>237900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>152700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>181100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>214700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>205900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>192300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>203000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>183900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>175200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>188300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>173700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>775100</v>
+        <v>753400</v>
       </c>
       <c r="E66" s="3">
-        <v>976100</v>
+        <v>749600</v>
       </c>
       <c r="F66" s="3">
-        <v>983800</v>
+        <v>944000</v>
       </c>
       <c r="G66" s="3">
-        <v>949500</v>
+        <v>951400</v>
       </c>
       <c r="H66" s="3">
-        <v>905400</v>
+        <v>918200</v>
       </c>
       <c r="I66" s="3">
-        <v>658800</v>
+        <v>875600</v>
       </c>
       <c r="J66" s="3">
+        <v>637100</v>
+      </c>
+      <c r="K66" s="3">
         <v>705500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>755600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>727900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>597900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>625900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>658600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>685500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>595000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>596700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>591600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>628600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>597700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1645000</v>
+        <v>1612900</v>
       </c>
       <c r="E72" s="3">
-        <v>1652100</v>
+        <v>1590800</v>
       </c>
       <c r="F72" s="3">
-        <v>1633400</v>
+        <v>1597700</v>
       </c>
       <c r="G72" s="3">
-        <v>1615800</v>
+        <v>1579700</v>
       </c>
       <c r="H72" s="3">
-        <v>1570400</v>
+        <v>1562600</v>
       </c>
       <c r="I72" s="3">
-        <v>1687500</v>
+        <v>1518700</v>
       </c>
       <c r="J72" s="3">
+        <v>1631900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1756300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1755300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1699500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1769200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1861100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1919200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1831500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1558700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1559800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1559900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1528300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1508400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1504600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1969300</v>
+        <v>1924200</v>
       </c>
       <c r="E76" s="3">
-        <v>1964200</v>
+        <v>1904500</v>
       </c>
       <c r="F76" s="3">
-        <v>1881000</v>
+        <v>1899500</v>
       </c>
       <c r="G76" s="3">
-        <v>1863300</v>
+        <v>1819100</v>
       </c>
       <c r="H76" s="3">
-        <v>1811900</v>
+        <v>1801900</v>
       </c>
       <c r="I76" s="3">
-        <v>1870900</v>
+        <v>1752300</v>
       </c>
       <c r="J76" s="3">
+        <v>1809300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1969500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1970800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1939000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1983100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2123200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2221200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2136600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2103700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2133200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2109100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2074900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2018500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2016300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4300</v>
+        <v>22100</v>
       </c>
       <c r="E81" s="3">
-        <v>18700</v>
+        <v>4200</v>
       </c>
       <c r="F81" s="3">
-        <v>29100</v>
+        <v>18100</v>
       </c>
       <c r="G81" s="3">
-        <v>45300</v>
+        <v>28100</v>
       </c>
       <c r="H81" s="3">
-        <v>-29100</v>
+        <v>43800</v>
       </c>
       <c r="I81" s="3">
-        <v>-68700</v>
+        <v>-28100</v>
       </c>
       <c r="J81" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K81" s="3">
         <v>39600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-36600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="E83" s="3">
-        <v>14300</v>
+        <v>13300</v>
       </c>
       <c r="F83" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="G83" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="H83" s="3">
         <v>13500</v>
       </c>
       <c r="I83" s="3">
-        <v>14800</v>
+        <v>13000</v>
       </c>
       <c r="J83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K83" s="3">
         <v>14400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4900</v>
+        <v>81500</v>
       </c>
       <c r="E89" s="3">
-        <v>13900</v>
+        <v>-4800</v>
       </c>
       <c r="F89" s="3">
-        <v>52100</v>
+        <v>13400</v>
       </c>
       <c r="G89" s="3">
-        <v>61700</v>
+        <v>50400</v>
       </c>
       <c r="H89" s="3">
-        <v>-89000</v>
+        <v>59700</v>
       </c>
       <c r="I89" s="3">
-        <v>2800</v>
+        <v>-86000</v>
       </c>
       <c r="J89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K89" s="3">
         <v>48100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>54900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>66000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>63400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9700</v>
+        <v>-18800</v>
       </c>
       <c r="E91" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-9400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5900</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12000</v>
+        <v>-13200</v>
       </c>
       <c r="E94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F94" s="3">
         <v>1400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-7100</v>
-      </c>
       <c r="G94" s="3">
-        <v>-2700</v>
+        <v>-6900</v>
       </c>
       <c r="H94" s="3">
-        <v>-15000</v>
+        <v>-2600</v>
       </c>
       <c r="I94" s="3">
-        <v>31000</v>
+        <v>-14500</v>
       </c>
       <c r="J94" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K94" s="3">
         <v>47100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="F96" s="3">
-        <v>-11400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="H96" s="3">
-        <v>-11400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-23300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-21500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-22500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-22100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-44700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-205400</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-10500</v>
+        <v>-198700</v>
       </c>
       <c r="F100" s="3">
-        <v>-9900</v>
+        <v>-10100</v>
       </c>
       <c r="G100" s="3">
-        <v>32000</v>
+        <v>-9600</v>
       </c>
       <c r="H100" s="3">
-        <v>294400</v>
+        <v>31000</v>
       </c>
       <c r="I100" s="3">
-        <v>-31000</v>
+        <v>284700</v>
       </c>
       <c r="J100" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-75500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-42200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-59100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-24400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
-        <v>5500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>5300</v>
       </c>
       <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>18500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-220900</v>
+        <v>66000</v>
       </c>
       <c r="E102" s="3">
-        <v>10300</v>
+        <v>-213700</v>
       </c>
       <c r="F102" s="3">
-        <v>34100</v>
+        <v>10000</v>
       </c>
       <c r="G102" s="3">
-        <v>90700</v>
+        <v>32900</v>
       </c>
       <c r="H102" s="3">
-        <v>189700</v>
+        <v>87700</v>
       </c>
       <c r="I102" s="3">
+        <v>183400</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-40300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-61300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>53400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>397500</v>
+        <v>364800</v>
       </c>
       <c r="E8" s="3">
-        <v>372700</v>
+        <v>384800</v>
       </c>
       <c r="F8" s="3">
-        <v>328600</v>
+        <v>360900</v>
       </c>
       <c r="G8" s="3">
-        <v>367800</v>
+        <v>318200</v>
       </c>
       <c r="H8" s="3">
-        <v>393000</v>
+        <v>356100</v>
       </c>
       <c r="I8" s="3">
-        <v>251500</v>
+        <v>380500</v>
       </c>
       <c r="J8" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K8" s="3">
         <v>376400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>387900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>497500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>433400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>430100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>428900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>487200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>448800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>427700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>419800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>481900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>440000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>415700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>413400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>178100</v>
+        <v>160200</v>
       </c>
       <c r="E9" s="3">
-        <v>155000</v>
+        <v>172400</v>
       </c>
       <c r="F9" s="3">
-        <v>154300</v>
+        <v>150100</v>
       </c>
       <c r="G9" s="3">
-        <v>159600</v>
+        <v>149400</v>
       </c>
       <c r="H9" s="3">
-        <v>166400</v>
+        <v>154600</v>
       </c>
       <c r="I9" s="3">
-        <v>116900</v>
+        <v>161100</v>
       </c>
       <c r="J9" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K9" s="3">
         <v>185400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>172400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>225900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>186900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>208300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>195700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>198900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>213900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>192300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>226900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>198600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>210000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>189200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>212400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>210800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>168800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>201500</v>
+      </c>
+      <c r="I10" s="3">
         <v>219400</v>
       </c>
-      <c r="E10" s="3">
-        <v>217700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>174300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>208100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>226600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>134600</v>
-      </c>
       <c r="J10" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K10" s="3">
         <v>191000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>215500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>271600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>246500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>221800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>260000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>249900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>213800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>254900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>241400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>205700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>224200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,16 +1003,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1100</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -1012,55 +1025,58 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>900</v>
+      </c>
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1800</v>
       </c>
       <c r="S12" s="3">
         <v>1800</v>
       </c>
       <c r="T12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,11 +1157,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>33700</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>32600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1162,11 +1181,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>53400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1174,8 +1193,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>379500</v>
+        <v>355600</v>
       </c>
       <c r="E17" s="3">
-        <v>355600</v>
+        <v>367400</v>
       </c>
       <c r="F17" s="3">
-        <v>373300</v>
+        <v>344300</v>
       </c>
       <c r="G17" s="3">
-        <v>344200</v>
+        <v>361500</v>
       </c>
       <c r="H17" s="3">
-        <v>342300</v>
+        <v>333200</v>
       </c>
       <c r="I17" s="3">
-        <v>290900</v>
+        <v>331400</v>
       </c>
       <c r="J17" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K17" s="3">
         <v>404400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>385100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>443700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>487800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>408300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>444500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>408800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>432400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>395100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>435900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>416600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>384200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18000</v>
+        <v>9200</v>
       </c>
       <c r="E18" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="F18" s="3">
-        <v>-44700</v>
+        <v>16500</v>
       </c>
       <c r="G18" s="3">
-        <v>23600</v>
+        <v>-43300</v>
       </c>
       <c r="H18" s="3">
-        <v>50600</v>
+        <v>22900</v>
       </c>
       <c r="I18" s="3">
-        <v>-39400</v>
+        <v>49000</v>
       </c>
       <c r="J18" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-27900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-57700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>45900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>40000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20900</v>
+        <v>-8800</v>
       </c>
       <c r="E20" s="3">
-        <v>-7100</v>
+        <v>20200</v>
       </c>
       <c r="F20" s="3">
-        <v>44200</v>
+        <v>-6900</v>
       </c>
       <c r="G20" s="3">
-        <v>40600</v>
+        <v>42800</v>
       </c>
       <c r="H20" s="3">
-        <v>7000</v>
+        <v>39400</v>
       </c>
       <c r="I20" s="3">
-        <v>13800</v>
+        <v>6800</v>
       </c>
       <c r="J20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-71700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-120900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>41200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>51900</v>
+        <v>13700</v>
       </c>
       <c r="E21" s="3">
-        <v>23200</v>
+        <v>50200</v>
       </c>
       <c r="F21" s="3">
-        <v>13300</v>
+        <v>22500</v>
       </c>
       <c r="G21" s="3">
-        <v>77900</v>
+        <v>12900</v>
       </c>
       <c r="H21" s="3">
-        <v>71100</v>
+        <v>75400</v>
       </c>
       <c r="I21" s="3">
-        <v>-12600</v>
+        <v>68900</v>
       </c>
       <c r="J21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-85400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-87200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>93700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>60500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>63300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>12200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>53000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1632,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1605,22 +1644,22 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1629,20 +1668,20 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1650,146 +1689,155 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38700</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>9800</v>
+        <v>37400</v>
       </c>
       <c r="F23" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>64000</v>
-      </c>
       <c r="H23" s="3">
-        <v>57500</v>
+        <v>62000</v>
       </c>
       <c r="I23" s="3">
-        <v>-25700</v>
+        <v>55600</v>
       </c>
       <c r="J23" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-99600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>71700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>68700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>81100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>48500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>41300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17000</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>6100</v>
+        <v>16400</v>
       </c>
       <c r="F24" s="3">
-        <v>-21400</v>
+        <v>5900</v>
       </c>
       <c r="G24" s="3">
-        <v>36600</v>
+        <v>-20700</v>
       </c>
       <c r="H24" s="3">
-        <v>15300</v>
+        <v>35500</v>
       </c>
       <c r="I24" s="3">
-        <v>5500</v>
+        <v>14800</v>
       </c>
       <c r="J24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-30300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-30300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>21700</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>3700</v>
+        <v>21000</v>
       </c>
       <c r="F26" s="3">
-        <v>20700</v>
+        <v>3600</v>
       </c>
       <c r="G26" s="3">
-        <v>27400</v>
+        <v>20000</v>
       </c>
       <c r="H26" s="3">
-        <v>42200</v>
+        <v>26600</v>
       </c>
       <c r="I26" s="3">
-        <v>-31200</v>
+        <v>40900</v>
       </c>
       <c r="J26" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-69400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-70100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>55300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22100</v>
+        <v>4400</v>
       </c>
       <c r="E27" s="3">
-        <v>4200</v>
+        <v>21400</v>
       </c>
       <c r="F27" s="3">
-        <v>18100</v>
+        <v>4000</v>
       </c>
       <c r="G27" s="3">
-        <v>28100</v>
+        <v>17500</v>
       </c>
       <c r="H27" s="3">
-        <v>43800</v>
+        <v>27200</v>
       </c>
       <c r="I27" s="3">
-        <v>-28100</v>
+        <v>42500</v>
       </c>
       <c r="J27" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-66400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-66500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>25600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,8 +2149,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2107,14 +2167,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20900</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="3">
-        <v>7100</v>
+        <v>-20200</v>
       </c>
       <c r="F32" s="3">
-        <v>-44200</v>
+        <v>6900</v>
       </c>
       <c r="G32" s="3">
-        <v>-40600</v>
+        <v>-42800</v>
       </c>
       <c r="H32" s="3">
-        <v>-7000</v>
+        <v>-39400</v>
       </c>
       <c r="I32" s="3">
-        <v>-13800</v>
+        <v>-6800</v>
       </c>
       <c r="J32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K32" s="3">
         <v>71700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>120900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-41200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22100</v>
+        <v>4400</v>
       </c>
       <c r="E33" s="3">
-        <v>4200</v>
+        <v>21400</v>
       </c>
       <c r="F33" s="3">
-        <v>18100</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="3">
-        <v>28100</v>
+        <v>17500</v>
       </c>
       <c r="H33" s="3">
-        <v>43800</v>
+        <v>27200</v>
       </c>
       <c r="I33" s="3">
-        <v>-28100</v>
+        <v>42500</v>
       </c>
       <c r="J33" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-66400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-36600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-66500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>35600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>25600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22100</v>
+        <v>4400</v>
       </c>
       <c r="E35" s="3">
-        <v>4200</v>
+        <v>21400</v>
       </c>
       <c r="F35" s="3">
-        <v>18100</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="3">
-        <v>28100</v>
+        <v>17500</v>
       </c>
       <c r="H35" s="3">
-        <v>43800</v>
+        <v>27200</v>
       </c>
       <c r="I35" s="3">
-        <v>-28100</v>
+        <v>42500</v>
       </c>
       <c r="J35" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-66400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-36600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-66500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>35600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>25600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>429100</v>
+        <v>383800</v>
       </c>
       <c r="E41" s="3">
-        <v>358200</v>
+        <v>415500</v>
       </c>
       <c r="F41" s="3">
-        <v>572700</v>
+        <v>346800</v>
       </c>
       <c r="G41" s="3">
-        <v>561700</v>
+        <v>554500</v>
       </c>
       <c r="H41" s="3">
-        <v>524200</v>
+        <v>543900</v>
       </c>
       <c r="I41" s="3">
-        <v>435800</v>
+        <v>507500</v>
       </c>
       <c r="J41" s="3">
+        <v>421900</v>
+      </c>
+      <c r="K41" s="3">
         <v>252900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>261800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>241000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>293400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>312700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>325400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>326300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>346700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>305400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>321400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>325700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>325600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>325700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>384500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>2200</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>2200</v>
       </c>
       <c r="G42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J42" s="3">
         <v>4600</v>
       </c>
-      <c r="H42" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>5000</v>
       </c>
       <c r="L42" s="3">
         <v>5000</v>
       </c>
       <c r="M42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N42" s="3">
         <v>3000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>17300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>159800</v>
+        <v>156000</v>
       </c>
       <c r="E43" s="3">
-        <v>168100</v>
+        <v>154700</v>
       </c>
       <c r="F43" s="3">
-        <v>151800</v>
+        <v>162700</v>
       </c>
       <c r="G43" s="3">
-        <v>166200</v>
+        <v>146900</v>
       </c>
       <c r="H43" s="3">
-        <v>178700</v>
+        <v>160900</v>
       </c>
       <c r="I43" s="3">
-        <v>142700</v>
+        <v>173000</v>
       </c>
       <c r="J43" s="3">
+        <v>138100</v>
+      </c>
+      <c r="K43" s="3">
         <v>172400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>184400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>249600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>216500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>226800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>249000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>225100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>211700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>181400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>218700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>191400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>204800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>180700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>389200</v>
+        <v>380200</v>
       </c>
       <c r="E44" s="3">
-        <v>392900</v>
+        <v>376800</v>
       </c>
       <c r="F44" s="3">
-        <v>381000</v>
+        <v>380500</v>
       </c>
       <c r="G44" s="3">
-        <v>371600</v>
+        <v>368900</v>
       </c>
       <c r="H44" s="3">
-        <v>383700</v>
+        <v>359800</v>
       </c>
       <c r="I44" s="3">
-        <v>398000</v>
+        <v>371500</v>
       </c>
       <c r="J44" s="3">
+        <v>385400</v>
+      </c>
+      <c r="K44" s="3">
         <v>382600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>402700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>388400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>404000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>389400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>409600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>394200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>395000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>385800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>402300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>398300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>415100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>388700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>385100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="E45" s="3">
-        <v>82100</v>
+        <v>36500</v>
       </c>
       <c r="F45" s="3">
-        <v>74000</v>
+        <v>79500</v>
       </c>
       <c r="G45" s="3">
-        <v>72000</v>
+        <v>71600</v>
       </c>
       <c r="H45" s="3">
-        <v>58200</v>
+        <v>69700</v>
       </c>
       <c r="I45" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>51400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>56300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>57400</v>
+      </c>
+      <c r="N45" s="3">
+        <v>75400</v>
+      </c>
+      <c r="O45" s="3">
+        <v>56500</v>
+      </c>
+      <c r="P45" s="3">
+        <v>67700</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>61500</v>
+      </c>
+      <c r="R45" s="3">
+        <v>72800</v>
+      </c>
+      <c r="S45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="T45" s="3">
+        <v>45600</v>
+      </c>
+      <c r="U45" s="3">
+        <v>38700</v>
+      </c>
+      <c r="V45" s="3">
         <v>70600</v>
       </c>
-      <c r="J45" s="3">
-        <v>51400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>56300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>57400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>75400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>56500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>67700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>61500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>72800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>39500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>45600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>38700</v>
-      </c>
-      <c r="U45" s="3">
-        <v>70600</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>77500</v>
-      </c>
-      <c r="W45" s="3">
-        <v>69500</v>
       </c>
       <c r="X45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1015700</v>
+        <v>957800</v>
       </c>
       <c r="E46" s="3">
-        <v>1003600</v>
+        <v>983500</v>
       </c>
       <c r="F46" s="3">
-        <v>1181600</v>
+        <v>971700</v>
       </c>
       <c r="G46" s="3">
-        <v>1176100</v>
+        <v>1144100</v>
       </c>
       <c r="H46" s="3">
-        <v>1149400</v>
+        <v>1138700</v>
       </c>
       <c r="I46" s="3">
-        <v>1051800</v>
+        <v>1112900</v>
       </c>
       <c r="J46" s="3">
+        <v>1018400</v>
+      </c>
+      <c r="K46" s="3">
         <v>865100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>910200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>941300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>992300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>989400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1008500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1042400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1055200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>956500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>963500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>994400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1014800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1009500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1037200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>630800</v>
+        <v>593900</v>
       </c>
       <c r="E47" s="3">
-        <v>630100</v>
+        <v>610800</v>
       </c>
       <c r="F47" s="3">
-        <v>641500</v>
+        <v>610100</v>
       </c>
       <c r="G47" s="3">
-        <v>608800</v>
+        <v>621100</v>
       </c>
       <c r="H47" s="3">
-        <v>581200</v>
+        <v>589500</v>
       </c>
       <c r="I47" s="3">
-        <v>574500</v>
+        <v>562700</v>
       </c>
       <c r="J47" s="3">
+        <v>556300</v>
+      </c>
+      <c r="K47" s="3">
         <v>577000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>715800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>736500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>748300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>780700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>793600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>900700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>854800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>830100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>845000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>781800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>770600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>715900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>707400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>559600</v>
+        <v>536100</v>
       </c>
       <c r="E48" s="3">
-        <v>547500</v>
+        <v>541800</v>
       </c>
       <c r="F48" s="3">
-        <v>550500</v>
+        <v>530100</v>
       </c>
       <c r="G48" s="3">
-        <v>551300</v>
+        <v>533000</v>
       </c>
       <c r="H48" s="3">
-        <v>556900</v>
+        <v>533800</v>
       </c>
       <c r="I48" s="3">
-        <v>570900</v>
+        <v>539200</v>
       </c>
       <c r="J48" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K48" s="3">
         <v>578100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>602900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>609400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>610900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>488000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>504800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>499100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>490900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>491200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>494000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>496700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>498500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>490400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>486800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>318000</v>
+        <v>314700</v>
       </c>
       <c r="E49" s="3">
-        <v>320700</v>
+        <v>307900</v>
       </c>
       <c r="F49" s="3">
-        <v>320600</v>
+        <v>310500</v>
       </c>
       <c r="G49" s="3">
+        <v>310400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>314900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>314100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>312800</v>
+      </c>
+      <c r="K49" s="3">
         <v>325200</v>
       </c>
-      <c r="H49" s="3">
-        <v>324500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>323100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>325200</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>349300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>338400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>214500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>222100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>276100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>275800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>264000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>266300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>267300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>265000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>258900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>247700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>248500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,37 +3525,40 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153500</v>
+        <v>147600</v>
       </c>
       <c r="E52" s="3">
-        <v>152100</v>
+        <v>148600</v>
       </c>
       <c r="F52" s="3">
-        <v>149400</v>
+        <v>147300</v>
       </c>
       <c r="G52" s="3">
-        <v>109000</v>
+        <v>144600</v>
       </c>
       <c r="H52" s="3">
-        <v>108200</v>
+        <v>105600</v>
       </c>
       <c r="I52" s="3">
-        <v>107600</v>
+        <v>104700</v>
       </c>
       <c r="J52" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K52" s="3">
         <v>100900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>96800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100800</v>
       </c>
       <c r="M52" s="3">
         <v>100800</v>
@@ -3448,37 +3567,40 @@
         <v>100800</v>
       </c>
       <c r="O52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="P52" s="3">
         <v>166300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>161900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>157100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>154600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>160000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>162800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>160700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>152800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>136700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2677700</v>
+        <v>2550100</v>
       </c>
       <c r="E54" s="3">
-        <v>2654100</v>
+        <v>2592600</v>
       </c>
       <c r="F54" s="3">
-        <v>2843500</v>
+        <v>2569700</v>
       </c>
       <c r="G54" s="3">
-        <v>2770500</v>
+        <v>2753200</v>
       </c>
       <c r="H54" s="3">
-        <v>2720200</v>
+        <v>2682400</v>
       </c>
       <c r="I54" s="3">
-        <v>2627800</v>
+        <v>2633700</v>
       </c>
       <c r="J54" s="3">
+        <v>2544300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2446400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2675000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2726400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2666900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2581000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2749200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2879800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2822100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2698700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2729900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2700600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2703500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2616300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2616600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,307 +3794,320 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>79600</v>
+        <v>75500</v>
       </c>
       <c r="E57" s="3">
-        <v>87400</v>
+        <v>77000</v>
       </c>
       <c r="F57" s="3">
-        <v>83200</v>
+        <v>84600</v>
       </c>
       <c r="G57" s="3">
-        <v>76600</v>
+        <v>80600</v>
       </c>
       <c r="H57" s="3">
-        <v>78100</v>
+        <v>74200</v>
       </c>
       <c r="I57" s="3">
-        <v>76800</v>
+        <v>75600</v>
       </c>
       <c r="J57" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K57" s="3">
         <v>94300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>97200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>106500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>107000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>108000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>112700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>111300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>113600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>112100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>112800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>124600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>115700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>116600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>182000</v>
+        <v>133800</v>
       </c>
       <c r="E58" s="3">
-        <v>182200</v>
+        <v>176300</v>
       </c>
       <c r="F58" s="3">
-        <v>358600</v>
+        <v>176400</v>
       </c>
       <c r="G58" s="3">
-        <v>366300</v>
+        <v>347200</v>
       </c>
       <c r="H58" s="3">
-        <v>367000</v>
+        <v>354600</v>
       </c>
       <c r="I58" s="3">
-        <v>335200</v>
+        <v>355300</v>
       </c>
       <c r="J58" s="3">
+        <v>324600</v>
+      </c>
+      <c r="K58" s="3">
         <v>30100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>71200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>91400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>74800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>77400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>67500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>112800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>64700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>67700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>69300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>113300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>68900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>88600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219500</v>
+        <v>220300</v>
       </c>
       <c r="E59" s="3">
-        <v>217000</v>
+        <v>212500</v>
       </c>
       <c r="F59" s="3">
-        <v>228300</v>
+        <v>210100</v>
       </c>
       <c r="G59" s="3">
-        <v>260900</v>
+        <v>221100</v>
       </c>
       <c r="H59" s="3">
-        <v>234000</v>
+        <v>252600</v>
       </c>
       <c r="I59" s="3">
-        <v>228600</v>
+        <v>226600</v>
       </c>
       <c r="J59" s="3">
+        <v>221300</v>
+      </c>
+      <c r="K59" s="3">
         <v>264200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>270900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>274000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>249100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>219000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>211000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>221100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>214000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>180000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>169600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>181900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>172000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>179600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>180200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>481100</v>
+        <v>429600</v>
       </c>
       <c r="E60" s="3">
-        <v>486500</v>
+        <v>465800</v>
       </c>
       <c r="F60" s="3">
-        <v>670200</v>
+        <v>471100</v>
       </c>
       <c r="G60" s="3">
-        <v>703800</v>
+        <v>648900</v>
       </c>
       <c r="H60" s="3">
-        <v>679100</v>
+        <v>681400</v>
       </c>
       <c r="I60" s="3">
-        <v>640600</v>
+        <v>657500</v>
       </c>
       <c r="J60" s="3">
+        <v>620300</v>
+      </c>
+      <c r="K60" s="3">
         <v>388600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>405000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>451700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>447400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>401800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>399700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>401300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>438100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>358300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>349300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>364100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>409900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>364200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>385500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="E61" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="F61" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G61" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="H61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J61" s="3">
         <v>10300</v>
       </c>
-      <c r="I61" s="3">
-        <v>10600</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3973,11 +4115,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3985,11 +4127,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3997,84 +4139,90 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>232200</v>
+        <v>215400</v>
       </c>
       <c r="E62" s="3">
-        <v>222800</v>
+        <v>224800</v>
       </c>
       <c r="F62" s="3">
-        <v>234100</v>
+        <v>215700</v>
       </c>
       <c r="G62" s="3">
-        <v>207000</v>
+        <v>226700</v>
       </c>
       <c r="H62" s="3">
-        <v>199700</v>
+        <v>200400</v>
       </c>
       <c r="I62" s="3">
-        <v>194500</v>
+        <v>193400</v>
       </c>
       <c r="J62" s="3">
+        <v>188300</v>
+      </c>
+      <c r="K62" s="3">
         <v>212300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>257400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>260900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>237900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>152700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>181100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>214700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>205900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>192300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>203000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>183900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>175200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>188300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>173700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>753400</v>
+        <v>684300</v>
       </c>
       <c r="E66" s="3">
-        <v>749600</v>
+        <v>729500</v>
       </c>
       <c r="F66" s="3">
-        <v>944000</v>
+        <v>725700</v>
       </c>
       <c r="G66" s="3">
-        <v>951400</v>
+        <v>914000</v>
       </c>
       <c r="H66" s="3">
-        <v>918200</v>
+        <v>921200</v>
       </c>
       <c r="I66" s="3">
-        <v>875600</v>
+        <v>889100</v>
       </c>
       <c r="J66" s="3">
+        <v>847800</v>
+      </c>
+      <c r="K66" s="3">
         <v>637100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>705500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>755600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>727900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>597900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>625900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>658600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>685500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>595000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>596700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>591600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>628600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>597700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1612900</v>
+        <v>1555400</v>
       </c>
       <c r="E72" s="3">
-        <v>1590800</v>
+        <v>1561700</v>
       </c>
       <c r="F72" s="3">
-        <v>1597700</v>
+        <v>1540200</v>
       </c>
       <c r="G72" s="3">
-        <v>1579700</v>
+        <v>1546900</v>
       </c>
       <c r="H72" s="3">
-        <v>1562600</v>
+        <v>1529400</v>
       </c>
       <c r="I72" s="3">
-        <v>1518700</v>
+        <v>1512900</v>
       </c>
       <c r="J72" s="3">
+        <v>1470500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1631900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1756300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1755300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1699500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1769200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1861100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1919200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1831500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1558700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1559800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1559900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1528300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1508400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1504600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1924200</v>
+        <v>1865900</v>
       </c>
       <c r="E76" s="3">
-        <v>1904500</v>
+        <v>1863100</v>
       </c>
       <c r="F76" s="3">
-        <v>1899500</v>
+        <v>1844000</v>
       </c>
       <c r="G76" s="3">
-        <v>1819100</v>
+        <v>1839200</v>
       </c>
       <c r="H76" s="3">
-        <v>1801900</v>
+        <v>1761300</v>
       </c>
       <c r="I76" s="3">
-        <v>1752300</v>
+        <v>1744700</v>
       </c>
       <c r="J76" s="3">
+        <v>1696600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1809300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1969500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1970800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1939000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1983100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2123200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2221200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2136600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2103700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2133200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2109100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2074900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2018500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2016300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22100</v>
+        <v>4400</v>
       </c>
       <c r="E81" s="3">
-        <v>4200</v>
+        <v>21400</v>
       </c>
       <c r="F81" s="3">
-        <v>18100</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="3">
-        <v>28100</v>
+        <v>17500</v>
       </c>
       <c r="H81" s="3">
-        <v>43800</v>
+        <v>27200</v>
       </c>
       <c r="I81" s="3">
-        <v>-28100</v>
+        <v>42500</v>
       </c>
       <c r="J81" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-66400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-36600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-66500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>35600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>25600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="E83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="N83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="O83" s="3">
         <v>13800</v>
       </c>
-      <c r="G83" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>14300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>14400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>13300</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>12700</v>
       </c>
-      <c r="N83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81500</v>
+        <v>29000</v>
       </c>
       <c r="E89" s="3">
-        <v>-4800</v>
+        <v>78900</v>
       </c>
       <c r="F89" s="3">
-        <v>13400</v>
+        <v>-4600</v>
       </c>
       <c r="G89" s="3">
-        <v>50400</v>
+        <v>13000</v>
       </c>
       <c r="H89" s="3">
-        <v>59700</v>
+        <v>48800</v>
       </c>
       <c r="I89" s="3">
-        <v>-86000</v>
+        <v>57800</v>
       </c>
       <c r="J89" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>54900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>47200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>49000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>66000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>63400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18800</v>
+        <v>-11400</v>
       </c>
       <c r="E91" s="3">
-        <v>-9400</v>
+        <v>-18200</v>
       </c>
       <c r="F91" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-9100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5800</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
-        <v>-6300</v>
+        <v>-5600</v>
       </c>
       <c r="J91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-11600</v>
+        <v>-12800</v>
       </c>
       <c r="F94" s="3">
-        <v>1400</v>
+        <v>-11300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6900</v>
+        <v>1300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2600</v>
+        <v>-6700</v>
       </c>
       <c r="I94" s="3">
-        <v>-14500</v>
+        <v>-2500</v>
       </c>
       <c r="J94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K94" s="3">
         <v>29900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>47100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10700</v>
       </c>
       <c r="E96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="G96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="I96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-23300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-21500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-22500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-22000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-22100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-44700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>-198700</v>
-      </c>
       <c r="F100" s="3">
-        <v>-10100</v>
+        <v>-192400</v>
       </c>
       <c r="G100" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="H100" s="3">
-        <v>31000</v>
+        <v>-9300</v>
       </c>
       <c r="I100" s="3">
-        <v>284700</v>
+        <v>30000</v>
       </c>
       <c r="J100" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-30000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-75500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-42200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-59100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-24400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>6300</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="G101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-400</v>
-      </c>
       <c r="I101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>18500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>66000</v>
+        <v>-36100</v>
       </c>
       <c r="E102" s="3">
-        <v>-213700</v>
+        <v>63900</v>
       </c>
       <c r="F102" s="3">
-        <v>10000</v>
+        <v>-206900</v>
       </c>
       <c r="G102" s="3">
-        <v>32900</v>
+        <v>9700</v>
       </c>
       <c r="H102" s="3">
-        <v>87700</v>
+        <v>31900</v>
       </c>
       <c r="I102" s="3">
-        <v>183400</v>
+        <v>85000</v>
       </c>
       <c r="J102" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-21000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-61300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>53400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>364800</v>
+        <v>333200</v>
       </c>
       <c r="E8" s="3">
-        <v>384800</v>
+        <v>351400</v>
       </c>
       <c r="F8" s="3">
-        <v>360900</v>
+        <v>329600</v>
       </c>
       <c r="G8" s="3">
-        <v>318200</v>
+        <v>290600</v>
       </c>
       <c r="H8" s="3">
-        <v>356100</v>
+        <v>325200</v>
       </c>
       <c r="I8" s="3">
-        <v>380500</v>
+        <v>347500</v>
       </c>
       <c r="J8" s="3">
-        <v>243500</v>
+        <v>222400</v>
       </c>
       <c r="K8" s="3">
         <v>376400</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>160200</v>
+        <v>146300</v>
       </c>
       <c r="E9" s="3">
-        <v>172400</v>
+        <v>157400</v>
       </c>
       <c r="F9" s="3">
-        <v>150100</v>
+        <v>137100</v>
       </c>
       <c r="G9" s="3">
-        <v>149400</v>
+        <v>136500</v>
       </c>
       <c r="H9" s="3">
-        <v>154600</v>
+        <v>141200</v>
       </c>
       <c r="I9" s="3">
-        <v>161100</v>
+        <v>147100</v>
       </c>
       <c r="J9" s="3">
-        <v>113200</v>
+        <v>103400</v>
       </c>
       <c r="K9" s="3">
         <v>185400</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>204600</v>
+        <v>186900</v>
       </c>
       <c r="E10" s="3">
-        <v>212400</v>
+        <v>194000</v>
       </c>
       <c r="F10" s="3">
-        <v>210800</v>
+        <v>192500</v>
       </c>
       <c r="G10" s="3">
-        <v>168800</v>
+        <v>154100</v>
       </c>
       <c r="H10" s="3">
-        <v>201500</v>
+        <v>184000</v>
       </c>
       <c r="I10" s="3">
-        <v>219400</v>
+        <v>200300</v>
       </c>
       <c r="J10" s="3">
-        <v>130300</v>
+        <v>119000</v>
       </c>
       <c r="K10" s="3">
         <v>191000</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>32600</v>
+        <v>29800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>355600</v>
+        <v>324700</v>
       </c>
       <c r="E17" s="3">
-        <v>367400</v>
+        <v>335600</v>
       </c>
       <c r="F17" s="3">
-        <v>344300</v>
+        <v>314500</v>
       </c>
       <c r="G17" s="3">
-        <v>361500</v>
+        <v>330100</v>
       </c>
       <c r="H17" s="3">
-        <v>333200</v>
+        <v>304300</v>
       </c>
       <c r="I17" s="3">
-        <v>331400</v>
+        <v>302700</v>
       </c>
       <c r="J17" s="3">
-        <v>281700</v>
+        <v>257200</v>
       </c>
       <c r="K17" s="3">
         <v>404400</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="E18" s="3">
-        <v>17400</v>
+        <v>15900</v>
       </c>
       <c r="F18" s="3">
-        <v>16500</v>
+        <v>15100</v>
       </c>
       <c r="G18" s="3">
-        <v>-43300</v>
+        <v>-39500</v>
       </c>
       <c r="H18" s="3">
-        <v>22900</v>
+        <v>20900</v>
       </c>
       <c r="I18" s="3">
-        <v>49000</v>
+        <v>44800</v>
       </c>
       <c r="J18" s="3">
-        <v>-38100</v>
+        <v>-34800</v>
       </c>
       <c r="K18" s="3">
         <v>-27900</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8800</v>
+        <v>-8000</v>
       </c>
       <c r="E20" s="3">
-        <v>20200</v>
+        <v>18400</v>
       </c>
       <c r="F20" s="3">
-        <v>-6900</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>42800</v>
+        <v>39000</v>
       </c>
       <c r="H20" s="3">
-        <v>39400</v>
+        <v>35900</v>
       </c>
       <c r="I20" s="3">
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="J20" s="3">
-        <v>13400</v>
+        <v>12200</v>
       </c>
       <c r="K20" s="3">
         <v>-71700</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13700</v>
+        <v>12500</v>
       </c>
       <c r="E21" s="3">
-        <v>50200</v>
+        <v>45900</v>
       </c>
       <c r="F21" s="3">
-        <v>22500</v>
+        <v>20500</v>
       </c>
       <c r="G21" s="3">
-        <v>12900</v>
+        <v>11800</v>
       </c>
       <c r="H21" s="3">
-        <v>75400</v>
+        <v>68900</v>
       </c>
       <c r="I21" s="3">
-        <v>68900</v>
+        <v>62900</v>
       </c>
       <c r="J21" s="3">
-        <v>-12200</v>
+        <v>-11100</v>
       </c>
       <c r="K21" s="3">
         <v>-85400</v>
@@ -1703,22 +1703,22 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>37400</v>
+        <v>34200</v>
       </c>
       <c r="F23" s="3">
-        <v>9500</v>
+        <v>8600</v>
       </c>
       <c r="G23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H23" s="3">
-        <v>62000</v>
+        <v>56600</v>
       </c>
       <c r="I23" s="3">
-        <v>55600</v>
+        <v>50800</v>
       </c>
       <c r="J23" s="3">
-        <v>-24900</v>
+        <v>-22700</v>
       </c>
       <c r="K23" s="3">
         <v>-99600</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>16400</v>
+        <v>15000</v>
       </c>
       <c r="F24" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="G24" s="3">
-        <v>-20700</v>
+        <v>-18900</v>
       </c>
       <c r="H24" s="3">
-        <v>35500</v>
+        <v>32400</v>
       </c>
       <c r="I24" s="3">
-        <v>14800</v>
+        <v>13500</v>
       </c>
       <c r="J24" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="K24" s="3">
         <v>-30300</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="3">
-        <v>21000</v>
+        <v>19200</v>
       </c>
       <c r="F26" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G26" s="3">
-        <v>20000</v>
+        <v>18300</v>
       </c>
       <c r="H26" s="3">
-        <v>26600</v>
+        <v>24300</v>
       </c>
       <c r="I26" s="3">
-        <v>40900</v>
+        <v>37300</v>
       </c>
       <c r="J26" s="3">
-        <v>-30200</v>
+        <v>-27600</v>
       </c>
       <c r="K26" s="3">
         <v>-69400</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="3">
-        <v>21400</v>
+        <v>19600</v>
       </c>
       <c r="F27" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G27" s="3">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="H27" s="3">
-        <v>27200</v>
+        <v>24900</v>
       </c>
       <c r="I27" s="3">
-        <v>42500</v>
+        <v>38800</v>
       </c>
       <c r="J27" s="3">
-        <v>-27300</v>
+        <v>-24900</v>
       </c>
       <c r="K27" s="3">
         <v>-66400</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="E32" s="3">
-        <v>-20200</v>
+        <v>-18400</v>
       </c>
       <c r="F32" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>-42800</v>
+        <v>-39000</v>
       </c>
       <c r="H32" s="3">
-        <v>-39400</v>
+        <v>-35900</v>
       </c>
       <c r="I32" s="3">
-        <v>-6800</v>
+        <v>-6200</v>
       </c>
       <c r="J32" s="3">
-        <v>-13400</v>
+        <v>-12200</v>
       </c>
       <c r="K32" s="3">
         <v>71700</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="3">
-        <v>21400</v>
+        <v>19600</v>
       </c>
       <c r="F33" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G33" s="3">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="H33" s="3">
-        <v>27200</v>
+        <v>24900</v>
       </c>
       <c r="I33" s="3">
-        <v>42500</v>
+        <v>38800</v>
       </c>
       <c r="J33" s="3">
-        <v>-27300</v>
+        <v>-24900</v>
       </c>
       <c r="K33" s="3">
         <v>-66400</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="3">
-        <v>21400</v>
+        <v>19600</v>
       </c>
       <c r="F35" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G35" s="3">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="H35" s="3">
-        <v>27200</v>
+        <v>24900</v>
       </c>
       <c r="I35" s="3">
-        <v>42500</v>
+        <v>38800</v>
       </c>
       <c r="J35" s="3">
-        <v>-27300</v>
+        <v>-24900</v>
       </c>
       <c r="K35" s="3">
         <v>-66400</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>383800</v>
+        <v>350500</v>
       </c>
       <c r="E41" s="3">
-        <v>415500</v>
+        <v>379500</v>
       </c>
       <c r="F41" s="3">
-        <v>346800</v>
+        <v>316800</v>
       </c>
       <c r="G41" s="3">
-        <v>554500</v>
+        <v>506400</v>
       </c>
       <c r="H41" s="3">
-        <v>543900</v>
+        <v>496700</v>
       </c>
       <c r="I41" s="3">
-        <v>507500</v>
+        <v>463500</v>
       </c>
       <c r="J41" s="3">
-        <v>421900</v>
+        <v>385300</v>
       </c>
       <c r="K41" s="3">
         <v>252900</v>
@@ -2830,19 +2830,19 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H42" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="I42" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="J42" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="3">
         <v>5800</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>156000</v>
+        <v>142500</v>
       </c>
       <c r="E43" s="3">
-        <v>154700</v>
+        <v>141300</v>
       </c>
       <c r="F43" s="3">
-        <v>162700</v>
+        <v>148600</v>
       </c>
       <c r="G43" s="3">
+        <v>134200</v>
+      </c>
+      <c r="H43" s="3">
         <v>146900</v>
       </c>
-      <c r="H43" s="3">
-        <v>160900</v>
-      </c>
       <c r="I43" s="3">
-        <v>173000</v>
+        <v>158000</v>
       </c>
       <c r="J43" s="3">
-        <v>138100</v>
+        <v>126200</v>
       </c>
       <c r="K43" s="3">
         <v>172400</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>380200</v>
+        <v>347200</v>
       </c>
       <c r="E44" s="3">
-        <v>376800</v>
+        <v>344100</v>
       </c>
       <c r="F44" s="3">
-        <v>380500</v>
+        <v>347400</v>
       </c>
       <c r="G44" s="3">
-        <v>368900</v>
+        <v>336900</v>
       </c>
       <c r="H44" s="3">
-        <v>359800</v>
+        <v>328600</v>
       </c>
       <c r="I44" s="3">
-        <v>371500</v>
+        <v>339300</v>
       </c>
       <c r="J44" s="3">
-        <v>385400</v>
+        <v>351900</v>
       </c>
       <c r="K44" s="3">
         <v>382600</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37800</v>
+        <v>34500</v>
       </c>
       <c r="E45" s="3">
-        <v>36500</v>
+        <v>33300</v>
       </c>
       <c r="F45" s="3">
-        <v>79500</v>
+        <v>72600</v>
       </c>
       <c r="G45" s="3">
-        <v>71600</v>
+        <v>65400</v>
       </c>
       <c r="H45" s="3">
-        <v>69700</v>
+        <v>63700</v>
       </c>
       <c r="I45" s="3">
-        <v>56400</v>
+        <v>51500</v>
       </c>
       <c r="J45" s="3">
-        <v>68300</v>
+        <v>62400</v>
       </c>
       <c r="K45" s="3">
         <v>51400</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>957800</v>
+        <v>874700</v>
       </c>
       <c r="E46" s="3">
-        <v>983500</v>
+        <v>898100</v>
       </c>
       <c r="F46" s="3">
-        <v>971700</v>
+        <v>887400</v>
       </c>
       <c r="G46" s="3">
-        <v>1144100</v>
+        <v>1044800</v>
       </c>
       <c r="H46" s="3">
-        <v>1138700</v>
+        <v>1039900</v>
       </c>
       <c r="I46" s="3">
-        <v>1112900</v>
+        <v>1016400</v>
       </c>
       <c r="J46" s="3">
-        <v>1018400</v>
+        <v>930000</v>
       </c>
       <c r="K46" s="3">
         <v>865100</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>593900</v>
+        <v>542400</v>
       </c>
       <c r="E47" s="3">
-        <v>610800</v>
+        <v>557800</v>
       </c>
       <c r="F47" s="3">
-        <v>610100</v>
+        <v>557200</v>
       </c>
       <c r="G47" s="3">
-        <v>621100</v>
+        <v>567200</v>
       </c>
       <c r="H47" s="3">
-        <v>589500</v>
+        <v>538300</v>
       </c>
       <c r="I47" s="3">
-        <v>562700</v>
+        <v>513900</v>
       </c>
       <c r="J47" s="3">
-        <v>556300</v>
+        <v>508000</v>
       </c>
       <c r="K47" s="3">
         <v>577000</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>536100</v>
+        <v>489600</v>
       </c>
       <c r="E48" s="3">
-        <v>541800</v>
+        <v>494800</v>
       </c>
       <c r="F48" s="3">
-        <v>530100</v>
+        <v>484100</v>
       </c>
       <c r="G48" s="3">
-        <v>533000</v>
+        <v>486800</v>
       </c>
       <c r="H48" s="3">
-        <v>533800</v>
+        <v>487500</v>
       </c>
       <c r="I48" s="3">
-        <v>539200</v>
+        <v>492400</v>
       </c>
       <c r="J48" s="3">
-        <v>552700</v>
+        <v>504800</v>
       </c>
       <c r="K48" s="3">
         <v>578100</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>314700</v>
+        <v>287400</v>
       </c>
       <c r="E49" s="3">
-        <v>307900</v>
+        <v>281200</v>
       </c>
       <c r="F49" s="3">
-        <v>310500</v>
+        <v>283600</v>
       </c>
       <c r="G49" s="3">
-        <v>310400</v>
+        <v>283500</v>
       </c>
       <c r="H49" s="3">
-        <v>314900</v>
+        <v>287600</v>
       </c>
       <c r="I49" s="3">
-        <v>314100</v>
+        <v>286900</v>
       </c>
       <c r="J49" s="3">
-        <v>312800</v>
+        <v>285700</v>
       </c>
       <c r="K49" s="3">
         <v>325200</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147600</v>
+        <v>134800</v>
       </c>
       <c r="E52" s="3">
-        <v>148600</v>
+        <v>135700</v>
       </c>
       <c r="F52" s="3">
-        <v>147300</v>
+        <v>134500</v>
       </c>
       <c r="G52" s="3">
-        <v>144600</v>
+        <v>132100</v>
       </c>
       <c r="H52" s="3">
-        <v>105600</v>
+        <v>96400</v>
       </c>
       <c r="I52" s="3">
-        <v>104700</v>
+        <v>95600</v>
       </c>
       <c r="J52" s="3">
-        <v>104200</v>
+        <v>95100</v>
       </c>
       <c r="K52" s="3">
         <v>100900</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2550100</v>
+        <v>2328900</v>
       </c>
       <c r="E54" s="3">
-        <v>2592600</v>
+        <v>2367700</v>
       </c>
       <c r="F54" s="3">
-        <v>2569700</v>
+        <v>2346800</v>
       </c>
       <c r="G54" s="3">
-        <v>2753200</v>
+        <v>2514300</v>
       </c>
       <c r="H54" s="3">
-        <v>2682400</v>
+        <v>2449700</v>
       </c>
       <c r="I54" s="3">
-        <v>2633700</v>
+        <v>2405200</v>
       </c>
       <c r="J54" s="3">
-        <v>2544300</v>
+        <v>2323600</v>
       </c>
       <c r="K54" s="3">
         <v>2446400</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>75500</v>
+        <v>69000</v>
       </c>
       <c r="E57" s="3">
-        <v>77000</v>
+        <v>70400</v>
       </c>
       <c r="F57" s="3">
-        <v>84600</v>
+        <v>77200</v>
       </c>
       <c r="G57" s="3">
-        <v>80600</v>
+        <v>73600</v>
       </c>
       <c r="H57" s="3">
-        <v>74200</v>
+        <v>67700</v>
       </c>
       <c r="I57" s="3">
-        <v>75600</v>
+        <v>69000</v>
       </c>
       <c r="J57" s="3">
-        <v>74400</v>
+        <v>68000</v>
       </c>
       <c r="K57" s="3">
         <v>94300</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>133800</v>
+        <v>122200</v>
       </c>
       <c r="E58" s="3">
-        <v>176300</v>
+        <v>161000</v>
       </c>
       <c r="F58" s="3">
-        <v>176400</v>
+        <v>161100</v>
       </c>
       <c r="G58" s="3">
-        <v>347200</v>
+        <v>317100</v>
       </c>
       <c r="H58" s="3">
-        <v>354600</v>
+        <v>323900</v>
       </c>
       <c r="I58" s="3">
-        <v>355300</v>
+        <v>324500</v>
       </c>
       <c r="J58" s="3">
-        <v>324600</v>
+        <v>296400</v>
       </c>
       <c r="K58" s="3">
         <v>30100</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>220300</v>
+        <v>201200</v>
       </c>
       <c r="E59" s="3">
-        <v>212500</v>
+        <v>194100</v>
       </c>
       <c r="F59" s="3">
-        <v>210100</v>
+        <v>191900</v>
       </c>
       <c r="G59" s="3">
-        <v>221100</v>
+        <v>201900</v>
       </c>
       <c r="H59" s="3">
-        <v>252600</v>
+        <v>230700</v>
       </c>
       <c r="I59" s="3">
-        <v>226600</v>
+        <v>206900</v>
       </c>
       <c r="J59" s="3">
-        <v>221300</v>
+        <v>202100</v>
       </c>
       <c r="K59" s="3">
         <v>264200</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>429600</v>
+        <v>392300</v>
       </c>
       <c r="E60" s="3">
-        <v>465800</v>
+        <v>425400</v>
       </c>
       <c r="F60" s="3">
-        <v>471100</v>
+        <v>430200</v>
       </c>
       <c r="G60" s="3">
-        <v>648900</v>
+        <v>592600</v>
       </c>
       <c r="H60" s="3">
-        <v>681400</v>
+        <v>622300</v>
       </c>
       <c r="I60" s="3">
-        <v>657500</v>
+        <v>600500</v>
       </c>
       <c r="J60" s="3">
-        <v>620300</v>
+        <v>566500</v>
       </c>
       <c r="K60" s="3">
         <v>388600</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="E61" s="3">
-        <v>12900</v>
+        <v>11800</v>
       </c>
       <c r="F61" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="G61" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="H61" s="3">
-        <v>12100</v>
+        <v>11100</v>
       </c>
       <c r="I61" s="3">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="J61" s="3">
-        <v>10300</v>
+        <v>9400</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>215400</v>
+        <v>196700</v>
       </c>
       <c r="E62" s="3">
-        <v>224800</v>
+        <v>205300</v>
       </c>
       <c r="F62" s="3">
-        <v>215700</v>
+        <v>197000</v>
       </c>
       <c r="G62" s="3">
-        <v>226700</v>
+        <v>207000</v>
       </c>
       <c r="H62" s="3">
-        <v>200400</v>
+        <v>183000</v>
       </c>
       <c r="I62" s="3">
-        <v>193400</v>
+        <v>176600</v>
       </c>
       <c r="J62" s="3">
-        <v>188300</v>
+        <v>172000</v>
       </c>
       <c r="K62" s="3">
         <v>212300</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>684300</v>
+        <v>624900</v>
       </c>
       <c r="E66" s="3">
-        <v>729500</v>
+        <v>666200</v>
       </c>
       <c r="F66" s="3">
-        <v>725700</v>
+        <v>662800</v>
       </c>
       <c r="G66" s="3">
-        <v>914000</v>
+        <v>834700</v>
       </c>
       <c r="H66" s="3">
-        <v>921200</v>
+        <v>841200</v>
       </c>
       <c r="I66" s="3">
-        <v>889100</v>
+        <v>811900</v>
       </c>
       <c r="J66" s="3">
-        <v>847800</v>
+        <v>774200</v>
       </c>
       <c r="K66" s="3">
         <v>637100</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1555400</v>
+        <v>1420400</v>
       </c>
       <c r="E72" s="3">
-        <v>1561700</v>
+        <v>1426200</v>
       </c>
       <c r="F72" s="3">
-        <v>1540200</v>
+        <v>1406600</v>
       </c>
       <c r="G72" s="3">
-        <v>1546900</v>
+        <v>1412700</v>
       </c>
       <c r="H72" s="3">
-        <v>1529400</v>
+        <v>1396800</v>
       </c>
       <c r="I72" s="3">
-        <v>1512900</v>
+        <v>1381700</v>
       </c>
       <c r="J72" s="3">
-        <v>1470500</v>
+        <v>1342900</v>
       </c>
       <c r="K72" s="3">
         <v>1631900</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1865900</v>
+        <v>1704000</v>
       </c>
       <c r="E76" s="3">
-        <v>1863100</v>
+        <v>1701500</v>
       </c>
       <c r="F76" s="3">
-        <v>1844000</v>
+        <v>1684000</v>
       </c>
       <c r="G76" s="3">
-        <v>1839200</v>
+        <v>1679600</v>
       </c>
       <c r="H76" s="3">
-        <v>1761300</v>
+        <v>1608500</v>
       </c>
       <c r="I76" s="3">
-        <v>1744700</v>
+        <v>1593300</v>
       </c>
       <c r="J76" s="3">
-        <v>1696600</v>
+        <v>1549400</v>
       </c>
       <c r="K76" s="3">
         <v>1809300</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="3">
-        <v>21400</v>
+        <v>19600</v>
       </c>
       <c r="F81" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G81" s="3">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="H81" s="3">
-        <v>27200</v>
+        <v>24900</v>
       </c>
       <c r="I81" s="3">
-        <v>42500</v>
+        <v>38800</v>
       </c>
       <c r="J81" s="3">
-        <v>-27300</v>
+        <v>-24900</v>
       </c>
       <c r="K81" s="3">
         <v>-66400</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13300</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>12600</v>
+        <v>11500</v>
       </c>
       <c r="F83" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="G83" s="3">
-        <v>13400</v>
+        <v>12200</v>
       </c>
       <c r="H83" s="3">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="I83" s="3">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="J83" s="3">
-        <v>12600</v>
+        <v>11500</v>
       </c>
       <c r="K83" s="3">
         <v>14300</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29000</v>
+        <v>26500</v>
       </c>
       <c r="E89" s="3">
-        <v>78900</v>
+        <v>72000</v>
       </c>
       <c r="F89" s="3">
-        <v>-4600</v>
+        <v>-4200</v>
       </c>
       <c r="G89" s="3">
-        <v>13000</v>
+        <v>11900</v>
       </c>
       <c r="H89" s="3">
-        <v>48800</v>
+        <v>44600</v>
       </c>
       <c r="I89" s="3">
-        <v>57800</v>
+        <v>52800</v>
       </c>
       <c r="J89" s="3">
-        <v>-83300</v>
+        <v>-76100</v>
       </c>
       <c r="K89" s="3">
         <v>2700</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-10400</v>
       </c>
       <c r="E91" s="3">
-        <v>-18200</v>
+        <v>-16600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9100</v>
+        <v>-8300</v>
       </c>
       <c r="G91" s="3">
-        <v>-9100</v>
+        <v>-8300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2900</v>
+        <v>-2600</v>
       </c>
       <c r="I91" s="3">
-        <v>-5600</v>
+        <v>-5100</v>
       </c>
       <c r="J91" s="3">
-        <v>-6100</v>
+        <v>-5500</v>
       </c>
       <c r="K91" s="3">
         <v>-7600</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13300</v>
+        <v>-12200</v>
       </c>
       <c r="E94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-12800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-14000</v>
       </c>
       <c r="K94" s="3">
         <v>29900</v>
@@ -6257,25 +6257,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-10700</v>
+        <v>-9700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-10600</v>
+        <v>-9700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-10600</v>
+        <v>-9700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-10600</v>
+        <v>-9700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58100</v>
+        <v>-53000</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>-192400</v>
+        <v>-175700</v>
       </c>
       <c r="G100" s="3">
-        <v>-9800</v>
+        <v>-9000</v>
       </c>
       <c r="H100" s="3">
-        <v>-9300</v>
+        <v>-8500</v>
       </c>
       <c r="I100" s="3">
-        <v>30000</v>
+        <v>27400</v>
       </c>
       <c r="J100" s="3">
-        <v>275700</v>
+        <v>251800</v>
       </c>
       <c r="K100" s="3">
         <v>-30000</v>
@@ -6612,25 +6612,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6300</v>
+        <v>5700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K101" s="3">
         <v>-2500</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36100</v>
+        <v>-32900</v>
       </c>
       <c r="E102" s="3">
-        <v>63900</v>
+        <v>58400</v>
       </c>
       <c r="F102" s="3">
-        <v>-206900</v>
+        <v>-188900</v>
       </c>
       <c r="G102" s="3">
-        <v>9700</v>
+        <v>8800</v>
       </c>
       <c r="H102" s="3">
-        <v>31900</v>
+        <v>29100</v>
       </c>
       <c r="I102" s="3">
-        <v>85000</v>
+        <v>77600</v>
       </c>
       <c r="J102" s="3">
-        <v>177600</v>
+        <v>162200</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>333200</v>
+        <v>359400</v>
       </c>
       <c r="E8" s="3">
-        <v>351400</v>
+        <v>312800</v>
       </c>
       <c r="F8" s="3">
-        <v>329600</v>
+        <v>313500</v>
       </c>
       <c r="G8" s="3">
-        <v>290600</v>
+        <v>330700</v>
       </c>
       <c r="H8" s="3">
-        <v>325200</v>
+        <v>311200</v>
       </c>
       <c r="I8" s="3">
+        <v>273400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>306000</v>
+      </c>
+      <c r="K8" s="3">
         <v>347500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>222400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>376400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>387900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>497500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>433400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>430100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>428900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>487200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>448800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>427700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>419800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>481900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>440000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>415700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>413400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>146300</v>
+        <v>149100</v>
       </c>
       <c r="E9" s="3">
-        <v>157400</v>
+        <v>146800</v>
       </c>
       <c r="F9" s="3">
-        <v>137100</v>
+        <v>137700</v>
       </c>
       <c r="G9" s="3">
-        <v>136500</v>
+        <v>148100</v>
       </c>
       <c r="H9" s="3">
-        <v>141200</v>
+        <v>129000</v>
       </c>
       <c r="I9" s="3">
+        <v>128400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>132800</v>
+      </c>
+      <c r="K9" s="3">
         <v>147100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>103400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>185400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>172400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>225900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>186900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>208300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>195700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>227200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>198900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>213900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>192300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>226900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>198600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>210000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>189200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>186900</v>
+        <v>210200</v>
       </c>
       <c r="E10" s="3">
-        <v>194000</v>
+        <v>166000</v>
       </c>
       <c r="F10" s="3">
-        <v>192500</v>
+        <v>175800</v>
       </c>
       <c r="G10" s="3">
-        <v>154100</v>
+        <v>182500</v>
       </c>
       <c r="H10" s="3">
-        <v>184000</v>
+        <v>182200</v>
       </c>
       <c r="I10" s="3">
+        <v>145000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>173200</v>
+      </c>
+      <c r="K10" s="3">
         <v>200300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>119000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>191000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>215500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>271600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>246500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>221800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>233100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>260000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>249900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>213800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>227500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>254900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>241400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>205700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>224200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,22 +1030,24 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>1200</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>900</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
@@ -1030,14 +1058,14 @@
       <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="3">
+        <v>900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>900</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1700</v>
       </c>
       <c r="N12" s="3">
         <v>1800</v>
@@ -1049,34 +1077,40 @@
         <v>1800</v>
       </c>
       <c r="Q12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,28 +1180,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>1500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>29800</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>28000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1184,23 +1224,23 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>53400</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>53400</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>324700</v>
+        <v>341300</v>
       </c>
       <c r="E17" s="3">
-        <v>335600</v>
+        <v>313100</v>
       </c>
       <c r="F17" s="3">
-        <v>314500</v>
+        <v>305600</v>
       </c>
       <c r="G17" s="3">
-        <v>330100</v>
+        <v>315700</v>
       </c>
       <c r="H17" s="3">
-        <v>304300</v>
+        <v>293200</v>
       </c>
       <c r="I17" s="3">
+        <v>310600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>286400</v>
+      </c>
+      <c r="K17" s="3">
         <v>302700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>257200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>404400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>385100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>443700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>487800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>408300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>444500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>408800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>432400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>395100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>435900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>416600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>384200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8400</v>
+        <v>18100</v>
       </c>
       <c r="E18" s="3">
-        <v>15900</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>15100</v>
+        <v>7900</v>
       </c>
       <c r="G18" s="3">
-        <v>-39500</v>
+        <v>14900</v>
       </c>
       <c r="H18" s="3">
-        <v>20900</v>
+        <v>18000</v>
       </c>
       <c r="I18" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K18" s="3">
         <v>44800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-34800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-27900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>53800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>33400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-57700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>20600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>42700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>40000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>45900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>40000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>29200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,164 +1547,178 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8000</v>
+        <v>8100</v>
       </c>
       <c r="E20" s="3">
-        <v>18400</v>
+        <v>13000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-7600</v>
       </c>
       <c r="G20" s="3">
-        <v>39000</v>
+        <v>17400</v>
       </c>
       <c r="H20" s="3">
-        <v>35900</v>
+        <v>3400</v>
       </c>
       <c r="I20" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K20" s="3">
         <v>6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-71700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>55000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-19400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>25800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-120900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>41200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>9900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>11000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>12200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12500</v>
+        <v>46500</v>
       </c>
       <c r="E21" s="3">
-        <v>45900</v>
+        <v>24600</v>
       </c>
       <c r="F21" s="3">
-        <v>20500</v>
+        <v>11800</v>
       </c>
       <c r="G21" s="3">
-        <v>11800</v>
+        <v>36600</v>
       </c>
       <c r="H21" s="3">
-        <v>68900</v>
+        <v>39000</v>
       </c>
       <c r="I21" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K21" s="3">
         <v>62900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-11100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-85400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>72200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>85100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>26700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-18100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>81400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>93700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>8200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>46900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>60500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>63300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>12200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>53000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1647,197 +1727,215 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>34200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>8600</v>
-      </c>
       <c r="G23" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
-        <v>56600</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K23" s="3">
         <v>50800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-99600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>57800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>71700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>13900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-31900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>68700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>81100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>34600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>48500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>51000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>41300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-800</v>
+        <v>8200</v>
       </c>
       <c r="E24" s="3">
-        <v>15000</v>
+        <v>7200</v>
       </c>
       <c r="F24" s="3">
-        <v>5400</v>
+        <v>-700</v>
       </c>
       <c r="G24" s="3">
-        <v>-18900</v>
+        <v>14100</v>
       </c>
       <c r="H24" s="3">
-        <v>32400</v>
+        <v>9300</v>
       </c>
       <c r="I24" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K24" s="3">
         <v>13500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-30300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>17900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>22500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>25800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>16000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>17500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>18400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>18800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1100</v>
+        <v>18100</v>
       </c>
       <c r="E26" s="3">
-        <v>19200</v>
+        <v>5300</v>
       </c>
       <c r="F26" s="3">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="H26" s="3">
-        <v>24300</v>
+        <v>12000</v>
       </c>
       <c r="I26" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K26" s="3">
         <v>37300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-27600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-69400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>39900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>49200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-36900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-70100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>46800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>55300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>18600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>31000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>32600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>22500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>17600</v>
       </c>
       <c r="E27" s="3">
-        <v>19600</v>
+        <v>8200</v>
       </c>
       <c r="F27" s="3">
         <v>3700</v>
       </c>
       <c r="G27" s="3">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="H27" s="3">
-        <v>24900</v>
+        <v>12300</v>
       </c>
       <c r="I27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K27" s="3">
         <v>38800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-24900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-66400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>39600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>50300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>10900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-36600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>47400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>57200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>22000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>31600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>35600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>3900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>25600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2152,11 +2274,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2170,17 +2292,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8000</v>
+        <v>-8100</v>
       </c>
       <c r="E32" s="3">
-        <v>-18400</v>
+        <v>-13000</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>7600</v>
       </c>
       <c r="G32" s="3">
-        <v>-39000</v>
+        <v>-17400</v>
       </c>
       <c r="H32" s="3">
-        <v>-35900</v>
+        <v>-3400</v>
       </c>
       <c r="I32" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>71700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-55000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>19400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-25800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>120900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-41200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-9900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-11000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4000</v>
+        <v>17600</v>
       </c>
       <c r="E33" s="3">
-        <v>19600</v>
+        <v>8200</v>
       </c>
       <c r="F33" s="3">
         <v>3700</v>
       </c>
       <c r="G33" s="3">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="H33" s="3">
-        <v>24900</v>
+        <v>12300</v>
       </c>
       <c r="I33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K33" s="3">
         <v>38800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-24900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-66400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>39600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>50300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>10900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-36600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>47400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>57200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>19100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>31600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>35600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>3900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>25600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4000</v>
+        <v>17600</v>
       </c>
       <c r="E35" s="3">
-        <v>19600</v>
+        <v>8200</v>
       </c>
       <c r="F35" s="3">
         <v>3700</v>
       </c>
       <c r="G35" s="3">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="H35" s="3">
-        <v>24900</v>
+        <v>12300</v>
       </c>
       <c r="I35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K35" s="3">
         <v>38800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-24900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-66400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>39600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>50300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>10900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-36600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>47400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>57200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>19100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>31600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>35600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>3900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>25600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2919,703 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>350500</v>
+        <v>262000</v>
       </c>
       <c r="E41" s="3">
-        <v>379500</v>
+        <v>284900</v>
       </c>
       <c r="F41" s="3">
-        <v>316800</v>
+        <v>329800</v>
       </c>
       <c r="G41" s="3">
-        <v>506400</v>
+        <v>357000</v>
       </c>
       <c r="H41" s="3">
-        <v>496700</v>
+        <v>298100</v>
       </c>
       <c r="I41" s="3">
+        <v>476500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>467400</v>
+      </c>
+      <c r="K41" s="3">
         <v>463500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>385300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>252900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>261800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>241000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>293400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>312700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>325400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>326300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>346700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>305400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>321400</v>
-      </c>
-      <c r="U41" s="3">
-        <v>325700</v>
-      </c>
-      <c r="V41" s="3">
-        <v>325600</v>
       </c>
       <c r="W41" s="3">
         <v>325700</v>
       </c>
       <c r="X41" s="3">
+        <v>325600</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>325700</v>
+      </c>
+      <c r="Z41" s="3">
         <v>384500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2000</v>
-      </c>
       <c r="H42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4100</v>
       </c>
-      <c r="J42" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>4100</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>11300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>15600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>14200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>12800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>13000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>12100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>12900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>17300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>142500</v>
+        <v>161100</v>
       </c>
       <c r="E43" s="3">
-        <v>141300</v>
+        <v>292000</v>
       </c>
       <c r="F43" s="3">
-        <v>148600</v>
+        <v>134100</v>
       </c>
       <c r="G43" s="3">
-        <v>134200</v>
+        <v>132900</v>
       </c>
       <c r="H43" s="3">
-        <v>146900</v>
+        <v>139800</v>
       </c>
       <c r="I43" s="3">
+        <v>126300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K43" s="3">
         <v>158000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>126200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>172400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>184400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>249600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>216500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>226800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>249000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>225100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>211700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>181400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>218700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>191400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>204800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>180700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>347200</v>
+        <v>354100</v>
       </c>
       <c r="E44" s="3">
-        <v>344100</v>
+        <v>668500</v>
       </c>
       <c r="F44" s="3">
-        <v>347400</v>
+        <v>326700</v>
       </c>
       <c r="G44" s="3">
-        <v>336900</v>
+        <v>323800</v>
       </c>
       <c r="H44" s="3">
-        <v>328600</v>
+        <v>326900</v>
       </c>
       <c r="I44" s="3">
+        <v>317000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K44" s="3">
         <v>339300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>351900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>382600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>402700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>388400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>404000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>389400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>409600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>394200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>395000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>385800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>402300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>398300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>415100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>388700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>385100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34500</v>
+        <v>26100</v>
       </c>
       <c r="E45" s="3">
-        <v>33300</v>
+        <v>26200</v>
       </c>
       <c r="F45" s="3">
-        <v>72600</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3">
-        <v>65400</v>
+        <v>31300</v>
       </c>
       <c r="H45" s="3">
-        <v>63700</v>
+        <v>68300</v>
       </c>
       <c r="I45" s="3">
+        <v>61500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K45" s="3">
         <v>51500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>62400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>51400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>56300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>57400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>75400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>56500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>67700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>61500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>72800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>39500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>45600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>38700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>70600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>77500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>69500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>874700</v>
+        <v>818400</v>
       </c>
       <c r="E46" s="3">
-        <v>898100</v>
+        <v>797800</v>
       </c>
       <c r="F46" s="3">
-        <v>887400</v>
+        <v>823100</v>
       </c>
       <c r="G46" s="3">
-        <v>1044800</v>
+        <v>845100</v>
       </c>
       <c r="H46" s="3">
-        <v>1039900</v>
+        <v>835000</v>
       </c>
       <c r="I46" s="3">
+        <v>983100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>978500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1016400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>930000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>865100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>910200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>941300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>992300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>989400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1008500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1042400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1055200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>956500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>963500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>994400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1014800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1009500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1037200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>542400</v>
+        <v>524200</v>
       </c>
       <c r="E47" s="3">
-        <v>557800</v>
+        <v>1035400</v>
       </c>
       <c r="F47" s="3">
-        <v>557200</v>
+        <v>510400</v>
       </c>
       <c r="G47" s="3">
-        <v>567200</v>
+        <v>524900</v>
       </c>
       <c r="H47" s="3">
-        <v>538300</v>
+        <v>524300</v>
       </c>
       <c r="I47" s="3">
+        <v>533700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>506500</v>
+      </c>
+      <c r="K47" s="3">
         <v>513900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>508000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>577000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>715800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>736500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>748300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>780700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>793600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>900700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>854800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>830100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>845000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>781800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>770600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>715900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>707400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>489600</v>
+        <v>481700</v>
       </c>
       <c r="E48" s="3">
-        <v>494800</v>
+        <v>957500</v>
       </c>
       <c r="F48" s="3">
-        <v>484100</v>
+        <v>460700</v>
       </c>
       <c r="G48" s="3">
+        <v>465600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>455500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>458000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>458700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>492400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>504800</v>
+      </c>
+      <c r="M48" s="3">
+        <v>578100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>602900</v>
+      </c>
+      <c r="O48" s="3">
+        <v>609400</v>
+      </c>
+      <c r="P48" s="3">
+        <v>610900</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>488000</v>
+      </c>
+      <c r="R48" s="3">
+        <v>504800</v>
+      </c>
+      <c r="S48" s="3">
+        <v>499100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>490900</v>
+      </c>
+      <c r="U48" s="3">
+        <v>491200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>494000</v>
+      </c>
+      <c r="W48" s="3">
+        <v>496700</v>
+      </c>
+      <c r="X48" s="3">
+        <v>498500</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>490400</v>
+      </c>
+      <c r="Z48" s="3">
         <v>486800</v>
       </c>
-      <c r="H48" s="3">
-        <v>487500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>492400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>504800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>578100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>602900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>609400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>610900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>488000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>504800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>499100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>490900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>491200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>494000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>496700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>498500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>490400</v>
-      </c>
-      <c r="X48" s="3">
-        <v>486800</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>287400</v>
+        <v>295400</v>
       </c>
       <c r="E49" s="3">
-        <v>281200</v>
+        <v>564100</v>
       </c>
       <c r="F49" s="3">
-        <v>283600</v>
+        <v>270400</v>
       </c>
       <c r="G49" s="3">
-        <v>283500</v>
+        <v>264600</v>
       </c>
       <c r="H49" s="3">
-        <v>287600</v>
+        <v>266800</v>
       </c>
       <c r="I49" s="3">
+        <v>266700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K49" s="3">
         <v>286900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>285700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>325200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>349300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>338400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>214500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>222100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>276100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>275800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>264000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>266300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>267300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>265000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>258900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>247700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>248500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134800</v>
+        <v>118300</v>
       </c>
       <c r="E52" s="3">
-        <v>135700</v>
+        <v>254800</v>
       </c>
       <c r="F52" s="3">
-        <v>134500</v>
+        <v>126800</v>
       </c>
       <c r="G52" s="3">
-        <v>132100</v>
+        <v>127700</v>
       </c>
       <c r="H52" s="3">
-        <v>96400</v>
+        <v>126600</v>
       </c>
       <c r="I52" s="3">
+        <v>124300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K52" s="3">
         <v>95600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>95100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>100900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>96800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100800</v>
       </c>
       <c r="O52" s="3">
         <v>100800</v>
       </c>
       <c r="P52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="R52" s="3">
         <v>166300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>161900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>157100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>154600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>160000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>162800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>160700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>152800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>136700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2328900</v>
+        <v>2238100</v>
       </c>
       <c r="E54" s="3">
-        <v>2367700</v>
+        <v>2193000</v>
       </c>
       <c r="F54" s="3">
-        <v>2346800</v>
+        <v>2191400</v>
       </c>
       <c r="G54" s="3">
-        <v>2514300</v>
+        <v>2227800</v>
       </c>
       <c r="H54" s="3">
-        <v>2449700</v>
+        <v>2208200</v>
       </c>
       <c r="I54" s="3">
+        <v>2365800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2305100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2405200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2323600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2446400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2675000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2726400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2666900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2581000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2749200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2879800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2822100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2698700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2729900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2700600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2703500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2616300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2616600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>64900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>66200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>72700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>69200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K57" s="3">
         <v>69000</v>
       </c>
-      <c r="E57" s="3">
-        <v>70400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>77200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>73600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>67700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>69000</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>68000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>94300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>97200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>106500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>107000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>108000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>111300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>112700</v>
       </c>
       <c r="R57" s="3">
         <v>111300</v>
       </c>
       <c r="S57" s="3">
+        <v>112700</v>
+      </c>
+      <c r="T57" s="3">
+        <v>111300</v>
+      </c>
+      <c r="U57" s="3">
         <v>113600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>112100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>112800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>124600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>115700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>116600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>122200</v>
+        <v>116500</v>
       </c>
       <c r="E58" s="3">
-        <v>161000</v>
+        <v>188000</v>
       </c>
       <c r="F58" s="3">
-        <v>161100</v>
+        <v>115000</v>
       </c>
       <c r="G58" s="3">
-        <v>317100</v>
+        <v>151500</v>
       </c>
       <c r="H58" s="3">
-        <v>323900</v>
+        <v>151600</v>
       </c>
       <c r="I58" s="3">
+        <v>298400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>304700</v>
+      </c>
+      <c r="K58" s="3">
         <v>324500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>296400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>30100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>36900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>71200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>91400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>74800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>77400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>67500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>112800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>64700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>67700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>69300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>113300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>68900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>88600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201200</v>
+        <v>135200</v>
       </c>
       <c r="E59" s="3">
-        <v>194100</v>
+        <v>281300</v>
       </c>
       <c r="F59" s="3">
-        <v>191900</v>
+        <v>189300</v>
       </c>
       <c r="G59" s="3">
-        <v>201900</v>
+        <v>182600</v>
       </c>
       <c r="H59" s="3">
-        <v>230700</v>
+        <v>180600</v>
       </c>
       <c r="I59" s="3">
+        <v>190000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>217000</v>
+      </c>
+      <c r="K59" s="3">
         <v>206900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>202100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>264200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>270900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>274000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>249100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>219000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>211000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>221100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>214000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>180000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>169600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>181900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>172000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>179600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>180200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>392300</v>
+        <v>368800</v>
       </c>
       <c r="E60" s="3">
-        <v>425400</v>
+        <v>361100</v>
       </c>
       <c r="F60" s="3">
-        <v>430200</v>
+        <v>369200</v>
       </c>
       <c r="G60" s="3">
-        <v>592600</v>
+        <v>400300</v>
       </c>
       <c r="H60" s="3">
-        <v>622300</v>
+        <v>404800</v>
       </c>
       <c r="I60" s="3">
+        <v>557600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>585500</v>
+      </c>
+      <c r="K60" s="3">
         <v>600500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>566500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>388600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>405000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>451700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>447400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>401800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>399700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>401300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>438100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>358300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>349300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>364100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>409900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>364200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>385500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12000</v>
+        <v>72900</v>
       </c>
       <c r="E61" s="3">
-        <v>11800</v>
+        <v>72400</v>
       </c>
       <c r="F61" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G61" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="H61" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K61" s="3">
         <v>9100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>9400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>196700</v>
+        <v>138500</v>
       </c>
       <c r="E62" s="3">
-        <v>205300</v>
+        <v>219800</v>
       </c>
       <c r="F62" s="3">
-        <v>197000</v>
+        <v>185100</v>
       </c>
       <c r="G62" s="3">
-        <v>207000</v>
+        <v>193200</v>
       </c>
       <c r="H62" s="3">
-        <v>183000</v>
+        <v>185400</v>
       </c>
       <c r="I62" s="3">
+        <v>194800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K62" s="3">
         <v>176600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>172000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>212300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>257400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>260900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>237900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>152700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>181100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>214700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>205900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>192300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>203000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>183900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>175200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>188300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>173700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>624900</v>
+        <v>601700</v>
       </c>
       <c r="E66" s="3">
-        <v>666200</v>
+        <v>595100</v>
       </c>
       <c r="F66" s="3">
-        <v>662800</v>
+        <v>588000</v>
       </c>
       <c r="G66" s="3">
-        <v>834700</v>
+        <v>626900</v>
       </c>
       <c r="H66" s="3">
-        <v>841200</v>
+        <v>623600</v>
       </c>
       <c r="I66" s="3">
+        <v>785400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>791600</v>
+      </c>
+      <c r="K66" s="3">
         <v>811900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>774200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>637100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>705500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>755600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>727900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>597900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>625900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>658600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>685500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>595000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>596700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>591600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>628600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>597700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>600300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1420400</v>
+        <v>1147800</v>
       </c>
       <c r="E72" s="3">
-        <v>1426200</v>
+        <v>1165000</v>
       </c>
       <c r="F72" s="3">
-        <v>1406600</v>
+        <v>1336600</v>
       </c>
       <c r="G72" s="3">
-        <v>1412700</v>
+        <v>1342000</v>
       </c>
       <c r="H72" s="3">
-        <v>1396800</v>
+        <v>1323600</v>
       </c>
       <c r="I72" s="3">
+        <v>1329300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1314300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1381700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1342900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1631900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1756300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1755300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1699500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1769200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1861100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1919200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1831500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1558700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1559800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1559900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1528300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1508400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1504600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1704000</v>
+        <v>1636300</v>
       </c>
       <c r="E76" s="3">
-        <v>1701500</v>
+        <v>1597900</v>
       </c>
       <c r="F76" s="3">
-        <v>1684000</v>
+        <v>1603400</v>
       </c>
       <c r="G76" s="3">
-        <v>1679600</v>
+        <v>1601000</v>
       </c>
       <c r="H76" s="3">
-        <v>1608500</v>
+        <v>1584600</v>
       </c>
       <c r="I76" s="3">
+        <v>1580400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1513500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1593300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1549400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1809300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1969500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1970800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1939000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1983100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2123200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2221200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2136600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2103700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2133200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2109100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2074900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2018500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2016300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4000</v>
+        <v>17600</v>
       </c>
       <c r="E81" s="3">
-        <v>19600</v>
+        <v>8200</v>
       </c>
       <c r="F81" s="3">
         <v>3700</v>
       </c>
       <c r="G81" s="3">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="H81" s="3">
-        <v>24900</v>
+        <v>12300</v>
       </c>
       <c r="I81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K81" s="3">
         <v>38800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-24900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-66400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>39600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>50300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>10900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-36600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>47400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>57200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>19100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>31600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>35600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>3900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>25600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="R83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="T83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="W83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="X83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="Y83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="Z83" s="3">
         <v>11700</v>
       </c>
-      <c r="G83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>14300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>14400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>13300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>12300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>12000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>11900</v>
-      </c>
-      <c r="X83" s="3">
-        <v>11700</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26500</v>
+        <v>20800</v>
       </c>
       <c r="E89" s="3">
-        <v>72000</v>
+        <v>6600</v>
       </c>
       <c r="F89" s="3">
-        <v>-4200</v>
+        <v>25000</v>
       </c>
       <c r="G89" s="3">
-        <v>11900</v>
+        <v>57900</v>
       </c>
       <c r="H89" s="3">
-        <v>44600</v>
+        <v>5900</v>
       </c>
       <c r="I89" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K89" s="3">
         <v>52800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-76100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>48100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>54900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>50500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>47200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>26300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>14200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>49000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>66000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>10800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-3500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>63400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-10400</v>
       </c>
-      <c r="E91" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12200</v>
+        <v>-7500</v>
       </c>
       <c r="E94" s="3">
-        <v>-11700</v>
+        <v>9400</v>
       </c>
       <c r="F94" s="3">
-        <v>-10300</v>
+        <v>-11400</v>
       </c>
       <c r="G94" s="3">
-        <v>1200</v>
+        <v>-11400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6100</v>
+        <v>-9300</v>
       </c>
       <c r="I94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>29900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>47100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-52300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-21900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-24500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-11400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-24900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-16400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-9700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-23300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-21500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-22000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-22100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-44700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53000</v>
+        <v>-32900</v>
       </c>
       <c r="E100" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-175700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-9000</v>
-      </c>
       <c r="H100" s="3">
-        <v>-8500</v>
+        <v>-165300</v>
       </c>
       <c r="I100" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K100" s="3">
         <v>27400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>251800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-75500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-35800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-17200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-68300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>12500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-3000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-42200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-59100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-38000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-24400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5700</v>
+        <v>6900</v>
       </c>
       <c r="E101" s="3">
-        <v>-1800</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-6300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>18500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-32900</v>
+        <v>-12800</v>
       </c>
       <c r="E102" s="3">
-        <v>58400</v>
+        <v>-33600</v>
       </c>
       <c r="F102" s="3">
-        <v>-188900</v>
+        <v>-31000</v>
       </c>
       <c r="G102" s="3">
-        <v>8800</v>
+        <v>52500</v>
       </c>
       <c r="H102" s="3">
-        <v>29100</v>
+        <v>-175400</v>
       </c>
       <c r="I102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K102" s="3">
         <v>77600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>162200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>21400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>12500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-40300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>39000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-19700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-21000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-61300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>53400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>359400</v>
+        <v>343700</v>
       </c>
       <c r="E8" s="3">
-        <v>312800</v>
+        <v>347600</v>
       </c>
       <c r="F8" s="3">
-        <v>313500</v>
+        <v>302600</v>
       </c>
       <c r="G8" s="3">
-        <v>330700</v>
+        <v>303200</v>
       </c>
       <c r="H8" s="3">
-        <v>311200</v>
+        <v>319900</v>
       </c>
       <c r="I8" s="3">
-        <v>273400</v>
+        <v>301000</v>
       </c>
       <c r="J8" s="3">
+        <v>264500</v>
+      </c>
+      <c r="K8" s="3">
         <v>306000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>347500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>222400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>376400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>387900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>497500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>433400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>430100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>428900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>487200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>448800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>427700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>419800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>481900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>440000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>415700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>413400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>149100</v>
+        <v>148900</v>
       </c>
       <c r="E9" s="3">
-        <v>146800</v>
+        <v>144300</v>
       </c>
       <c r="F9" s="3">
-        <v>137700</v>
+        <v>142000</v>
       </c>
       <c r="G9" s="3">
-        <v>148100</v>
+        <v>133200</v>
       </c>
       <c r="H9" s="3">
-        <v>129000</v>
+        <v>143300</v>
       </c>
       <c r="I9" s="3">
-        <v>128400</v>
+        <v>124700</v>
       </c>
       <c r="J9" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K9" s="3">
         <v>132800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>147100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>103400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>185400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>172400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>225900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>186900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>208300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>195700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>198900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>213900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>192300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>226900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>198600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>210000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>189200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>210200</v>
+        <v>194900</v>
       </c>
       <c r="E10" s="3">
-        <v>166000</v>
+        <v>203300</v>
       </c>
       <c r="F10" s="3">
-        <v>175800</v>
+        <v>160600</v>
       </c>
       <c r="G10" s="3">
-        <v>182500</v>
+        <v>170100</v>
       </c>
       <c r="H10" s="3">
-        <v>182200</v>
+        <v>176600</v>
       </c>
       <c r="I10" s="3">
-        <v>145000</v>
+        <v>176300</v>
       </c>
       <c r="J10" s="3">
+        <v>140300</v>
+      </c>
+      <c r="K10" s="3">
         <v>173200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>191000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>215500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>271600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>246500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>221800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>233100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>260000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>249900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>213800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>227500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>254900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>241400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>205700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>224200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,31 +1045,32 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
-        <v>700</v>
-      </c>
       <c r="H12" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
@@ -1064,53 +1078,56 @@
       <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="3">
+        <v>900</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1800</v>
       </c>
       <c r="V12" s="3">
         <v>1800</v>
       </c>
       <c r="W12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1206,11 +1226,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>28000</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>27100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1230,11 +1250,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>53400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1242,8 +1262,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>341300</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>313100</v>
+        <v>330100</v>
       </c>
       <c r="F17" s="3">
-        <v>305600</v>
+        <v>302900</v>
       </c>
       <c r="G17" s="3">
-        <v>315700</v>
+        <v>295600</v>
       </c>
       <c r="H17" s="3">
-        <v>293200</v>
+        <v>305400</v>
       </c>
       <c r="I17" s="3">
-        <v>310600</v>
+        <v>283600</v>
       </c>
       <c r="J17" s="3">
+        <v>300400</v>
+      </c>
+      <c r="K17" s="3">
         <v>286400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>302700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>404400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>385100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>443700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>487800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>408300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>444500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>408800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>432400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>395100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>435900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>416600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>384200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>18100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>7900</v>
-      </c>
       <c r="G18" s="3">
-        <v>14900</v>
+        <v>7700</v>
       </c>
       <c r="H18" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="I18" s="3">
-        <v>-37200</v>
+        <v>17400</v>
       </c>
       <c r="J18" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K18" s="3">
         <v>19600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-57700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>45900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>40000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,170 +1582,177 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>8100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>13000</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>-7600</v>
+        <v>12500</v>
       </c>
       <c r="G20" s="3">
-        <v>17400</v>
+        <v>-7300</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>16800</v>
       </c>
       <c r="I20" s="3">
-        <v>36700</v>
+        <v>3300</v>
       </c>
       <c r="J20" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K20" s="3">
         <v>33800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>55000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-120900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>41200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>12200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>46500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>24600</v>
+        <v>45000</v>
       </c>
       <c r="F21" s="3">
-        <v>11800</v>
+        <v>23800</v>
       </c>
       <c r="G21" s="3">
-        <v>36600</v>
+        <v>11400</v>
       </c>
       <c r="H21" s="3">
-        <v>39000</v>
+        <v>35400</v>
       </c>
       <c r="I21" s="3">
-        <v>11100</v>
+        <v>37700</v>
       </c>
       <c r="J21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K21" s="3">
         <v>64800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>62900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-85400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>72200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-87200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>81400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>93700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>46900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>60500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>63300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>53000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1721,7 +1761,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1733,22 +1773,22 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1757,20 +1797,20 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1778,164 +1818,173 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26200</v>
+        <v>16300</v>
       </c>
       <c r="E23" s="3">
-        <v>12500</v>
+        <v>25400</v>
       </c>
       <c r="F23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>32200</v>
-      </c>
       <c r="H23" s="3">
-        <v>21300</v>
+        <v>31100</v>
       </c>
       <c r="I23" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-99600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>71700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>81100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>48500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>51000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>41300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8200</v>
+        <v>3400</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>14100</v>
-      </c>
       <c r="H24" s="3">
-        <v>9300</v>
+        <v>13700</v>
       </c>
       <c r="I24" s="3">
-        <v>-17800</v>
+        <v>9000</v>
       </c>
       <c r="J24" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K24" s="3">
         <v>30500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-30300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-30300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>18400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>18100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>5300</v>
+        <v>17500</v>
       </c>
       <c r="F26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
-        <v>18100</v>
-      </c>
       <c r="H26" s="3">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="I26" s="3">
-        <v>17200</v>
+        <v>11600</v>
       </c>
       <c r="J26" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K26" s="3">
         <v>22800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-69400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>49200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-36900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-70100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>31000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>32600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>17600</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>8200</v>
+        <v>17000</v>
       </c>
       <c r="F27" s="3">
-        <v>3700</v>
+        <v>7900</v>
       </c>
       <c r="G27" s="3">
-        <v>18400</v>
+        <v>3600</v>
       </c>
       <c r="H27" s="3">
-        <v>12300</v>
+        <v>17800</v>
       </c>
       <c r="I27" s="3">
-        <v>15000</v>
+        <v>11900</v>
       </c>
       <c r="J27" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K27" s="3">
         <v>23400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-66400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-66500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>31600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>35600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>25600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2341,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2298,14 +2359,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-8100</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-13000</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>7600</v>
+        <v>-12500</v>
       </c>
       <c r="G32" s="3">
-        <v>-17400</v>
+        <v>7300</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>-16800</v>
       </c>
       <c r="I32" s="3">
-        <v>-36700</v>
+        <v>-3300</v>
       </c>
       <c r="J32" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-33800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-55000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>120900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-41200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-12200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>17600</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>8200</v>
+        <v>17000</v>
       </c>
       <c r="F33" s="3">
-        <v>3700</v>
+        <v>7900</v>
       </c>
       <c r="G33" s="3">
-        <v>18400</v>
+        <v>3600</v>
       </c>
       <c r="H33" s="3">
-        <v>12300</v>
+        <v>17800</v>
       </c>
       <c r="I33" s="3">
-        <v>15000</v>
+        <v>11900</v>
       </c>
       <c r="J33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K33" s="3">
         <v>23400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>50300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-36600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-66500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>35600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>25600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>17600</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>8200</v>
+        <v>17000</v>
       </c>
       <c r="F35" s="3">
-        <v>3700</v>
+        <v>7900</v>
       </c>
       <c r="G35" s="3">
-        <v>18400</v>
+        <v>3600</v>
       </c>
       <c r="H35" s="3">
-        <v>12300</v>
+        <v>17800</v>
       </c>
       <c r="I35" s="3">
-        <v>15000</v>
+        <v>11900</v>
       </c>
       <c r="J35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K35" s="3">
         <v>23400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>50300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-36600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-66500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>35600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>25600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>262000</v>
+        <v>212700</v>
       </c>
       <c r="E41" s="3">
-        <v>284900</v>
+        <v>253400</v>
       </c>
       <c r="F41" s="3">
-        <v>329800</v>
+        <v>275600</v>
       </c>
       <c r="G41" s="3">
-        <v>357000</v>
+        <v>319000</v>
       </c>
       <c r="H41" s="3">
-        <v>298100</v>
+        <v>345400</v>
       </c>
       <c r="I41" s="3">
-        <v>476500</v>
+        <v>288300</v>
       </c>
       <c r="J41" s="3">
+        <v>460900</v>
+      </c>
+      <c r="K41" s="3">
         <v>467400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>463500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>385300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>252900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>261800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>241000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>293400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>312700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>325400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>326300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>346700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>305400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>321400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>325700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>325600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>325700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>384500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15100</v>
+        <v>13400</v>
       </c>
       <c r="E42" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>14600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>12700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>1900</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5800</v>
-      </c>
-      <c r="N42" s="3">
-        <v>5000</v>
       </c>
       <c r="O42" s="3">
         <v>5000</v>
       </c>
       <c r="P42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>17300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>161100</v>
+        <v>150200</v>
       </c>
       <c r="E43" s="3">
-        <v>292000</v>
+        <v>155800</v>
       </c>
       <c r="F43" s="3">
-        <v>134100</v>
+        <v>282500</v>
       </c>
       <c r="G43" s="3">
-        <v>132900</v>
+        <v>129700</v>
       </c>
       <c r="H43" s="3">
-        <v>139800</v>
+        <v>128600</v>
       </c>
       <c r="I43" s="3">
-        <v>126300</v>
+        <v>135300</v>
       </c>
       <c r="J43" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K43" s="3">
         <v>138300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>158000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>126200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>172400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>184400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>249600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>216500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>226800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>249000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>225100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>211700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>181400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>218700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>191400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>204800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>180700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>354100</v>
+        <v>373500</v>
       </c>
       <c r="E44" s="3">
-        <v>668500</v>
+        <v>342500</v>
       </c>
       <c r="F44" s="3">
-        <v>326700</v>
+        <v>646600</v>
       </c>
       <c r="G44" s="3">
-        <v>323800</v>
+        <v>316000</v>
       </c>
       <c r="H44" s="3">
-        <v>326900</v>
+        <v>313200</v>
       </c>
       <c r="I44" s="3">
-        <v>317000</v>
+        <v>316200</v>
       </c>
       <c r="J44" s="3">
+        <v>306600</v>
+      </c>
+      <c r="K44" s="3">
         <v>309200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>339300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>351900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>382600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>402700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>388400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>404000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>389400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>409600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>394200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>395000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>385800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>402300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>398300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>415100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>388700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>385100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26100</v>
+        <v>35100</v>
       </c>
       <c r="E45" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>25400</v>
       </c>
       <c r="G45" s="3">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="H45" s="3">
-        <v>68300</v>
+        <v>30300</v>
       </c>
       <c r="I45" s="3">
+        <v>66100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>59900</v>
+      </c>
+      <c r="L45" s="3">
+        <v>51500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>62400</v>
+      </c>
+      <c r="N45" s="3">
+        <v>51400</v>
+      </c>
+      <c r="O45" s="3">
+        <v>56300</v>
+      </c>
+      <c r="P45" s="3">
+        <v>57400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>75400</v>
+      </c>
+      <c r="R45" s="3">
+        <v>56500</v>
+      </c>
+      <c r="S45" s="3">
+        <v>67700</v>
+      </c>
+      <c r="T45" s="3">
         <v>61500</v>
       </c>
-      <c r="J45" s="3">
-        <v>59900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>51500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>62400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>51400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>56300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>57400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>75400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>56500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>67700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>61500</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>39500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>45600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>38700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>70600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>77500</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>69500</v>
       </c>
       <c r="AA45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>818400</v>
+        <v>784900</v>
       </c>
       <c r="E46" s="3">
-        <v>797800</v>
+        <v>791600</v>
       </c>
       <c r="F46" s="3">
-        <v>823100</v>
+        <v>771600</v>
       </c>
       <c r="G46" s="3">
-        <v>845100</v>
+        <v>796100</v>
       </c>
       <c r="H46" s="3">
-        <v>835000</v>
+        <v>817400</v>
       </c>
       <c r="I46" s="3">
-        <v>983100</v>
+        <v>807700</v>
       </c>
       <c r="J46" s="3">
+        <v>950900</v>
+      </c>
+      <c r="K46" s="3">
         <v>978500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1016400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>930000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>865100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>910200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>941300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>992300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>989400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1008500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1042400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1055200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>956500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>963500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>994400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1014800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1009500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1037200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>524200</v>
+        <v>503600</v>
       </c>
       <c r="E47" s="3">
-        <v>1035400</v>
+        <v>507100</v>
       </c>
       <c r="F47" s="3">
-        <v>510400</v>
+        <v>1001500</v>
       </c>
       <c r="G47" s="3">
-        <v>524900</v>
+        <v>493700</v>
       </c>
       <c r="H47" s="3">
-        <v>524300</v>
+        <v>507700</v>
       </c>
       <c r="I47" s="3">
-        <v>533700</v>
+        <v>507100</v>
       </c>
       <c r="J47" s="3">
+        <v>516200</v>
+      </c>
+      <c r="K47" s="3">
         <v>506500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>513900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>508000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>577000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>715800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>736500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>748300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>780700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>793600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>900700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>854800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>830100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>845000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>781800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>770600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>715900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>707400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>481700</v>
+        <v>453800</v>
       </c>
       <c r="E48" s="3">
-        <v>957500</v>
+        <v>465900</v>
       </c>
       <c r="F48" s="3">
-        <v>460700</v>
+        <v>926200</v>
       </c>
       <c r="G48" s="3">
-        <v>465600</v>
+        <v>445600</v>
       </c>
       <c r="H48" s="3">
-        <v>455500</v>
+        <v>450300</v>
       </c>
       <c r="I48" s="3">
-        <v>458000</v>
+        <v>440600</v>
       </c>
       <c r="J48" s="3">
+        <v>443000</v>
+      </c>
+      <c r="K48" s="3">
         <v>458700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>492400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>504800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>578100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>602900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>609400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>610900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>488000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>504800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>499100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>490900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>491200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>494000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>496700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>498500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>490400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>486800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>295400</v>
+        <v>286000</v>
       </c>
       <c r="E49" s="3">
-        <v>564100</v>
+        <v>285800</v>
       </c>
       <c r="F49" s="3">
-        <v>270400</v>
+        <v>545700</v>
       </c>
       <c r="G49" s="3">
-        <v>264600</v>
+        <v>261600</v>
       </c>
       <c r="H49" s="3">
-        <v>266800</v>
+        <v>255900</v>
       </c>
       <c r="I49" s="3">
-        <v>266700</v>
+        <v>258100</v>
       </c>
       <c r="J49" s="3">
+        <v>258000</v>
+      </c>
+      <c r="K49" s="3">
         <v>270600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>286900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>285700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>325200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>349300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>338400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>214500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>222100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>276100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>275800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>264000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>266300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>267300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>265000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>258900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>247700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>248500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,46 +3885,49 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>118300</v>
+        <v>115900</v>
       </c>
       <c r="E52" s="3">
-        <v>254800</v>
+        <v>114400</v>
       </c>
       <c r="F52" s="3">
-        <v>126800</v>
+        <v>246500</v>
       </c>
       <c r="G52" s="3">
-        <v>127700</v>
+        <v>122600</v>
       </c>
       <c r="H52" s="3">
-        <v>126600</v>
+        <v>123500</v>
       </c>
       <c r="I52" s="3">
-        <v>124300</v>
+        <v>122400</v>
       </c>
       <c r="J52" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K52" s="3">
         <v>90700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>96800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100800</v>
       </c>
       <c r="P52" s="3">
         <v>100800</v>
@@ -3816,37 +3936,40 @@
         <v>100800</v>
       </c>
       <c r="R52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="S52" s="3">
         <v>166300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>161900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>157100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>154600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>160000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>162800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>160700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>152800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>136700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2238100</v>
+        <v>2144200</v>
       </c>
       <c r="E54" s="3">
-        <v>2193000</v>
+        <v>2164800</v>
       </c>
       <c r="F54" s="3">
-        <v>2191400</v>
+        <v>2121200</v>
       </c>
       <c r="G54" s="3">
-        <v>2227800</v>
+        <v>2119600</v>
       </c>
       <c r="H54" s="3">
-        <v>2208200</v>
+        <v>2154900</v>
       </c>
       <c r="I54" s="3">
-        <v>2365800</v>
+        <v>2135900</v>
       </c>
       <c r="J54" s="3">
+        <v>2288400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2305100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2405200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2323600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2446400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2675000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2726400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2666900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2581000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2749200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2879800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2822100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2698700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2729900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2700600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2703500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2616300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2616600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,352 +4187,365 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>117100</v>
+        <v>113500</v>
       </c>
       <c r="E57" s="3">
-        <v>200600</v>
+        <v>113300</v>
       </c>
       <c r="F57" s="3">
-        <v>64900</v>
+        <v>194000</v>
       </c>
       <c r="G57" s="3">
-        <v>66200</v>
+        <v>62800</v>
       </c>
       <c r="H57" s="3">
-        <v>72700</v>
+        <v>64000</v>
       </c>
       <c r="I57" s="3">
-        <v>69200</v>
+        <v>70300</v>
       </c>
       <c r="J57" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K57" s="3">
         <v>63700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>94300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>97200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>106500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>107000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>108000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>111300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>112700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>111300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>113600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>112100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>112800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>124600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>115700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>116600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>116500</v>
+        <v>71500</v>
       </c>
       <c r="E58" s="3">
-        <v>188000</v>
+        <v>112600</v>
       </c>
       <c r="F58" s="3">
-        <v>115000</v>
+        <v>181900</v>
       </c>
       <c r="G58" s="3">
-        <v>151500</v>
+        <v>111200</v>
       </c>
       <c r="H58" s="3">
-        <v>151600</v>
+        <v>146500</v>
       </c>
       <c r="I58" s="3">
-        <v>298400</v>
+        <v>146600</v>
       </c>
       <c r="J58" s="3">
+        <v>288600</v>
+      </c>
+      <c r="K58" s="3">
         <v>304700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>324500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>296400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>36900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>71200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>91400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>74800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>77400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>67500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>112800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>64700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>67700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>69300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>113300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>68900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>88600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>135200</v>
+        <v>138200</v>
       </c>
       <c r="E59" s="3">
-        <v>281300</v>
+        <v>130800</v>
       </c>
       <c r="F59" s="3">
-        <v>189300</v>
+        <v>272100</v>
       </c>
       <c r="G59" s="3">
-        <v>182600</v>
+        <v>183100</v>
       </c>
       <c r="H59" s="3">
-        <v>180600</v>
+        <v>176700</v>
       </c>
       <c r="I59" s="3">
-        <v>190000</v>
+        <v>174600</v>
       </c>
       <c r="J59" s="3">
+        <v>183800</v>
+      </c>
+      <c r="K59" s="3">
         <v>217000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>206900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>264200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>270900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>274000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>249100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>219000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>211000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>214000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>180000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>169600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>181900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>172000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>179600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>180200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>368800</v>
+        <v>323200</v>
       </c>
       <c r="E60" s="3">
-        <v>361100</v>
+        <v>356800</v>
       </c>
       <c r="F60" s="3">
-        <v>369200</v>
+        <v>349300</v>
       </c>
       <c r="G60" s="3">
-        <v>400300</v>
+        <v>357100</v>
       </c>
       <c r="H60" s="3">
-        <v>404800</v>
+        <v>387200</v>
       </c>
       <c r="I60" s="3">
-        <v>557600</v>
+        <v>391500</v>
       </c>
       <c r="J60" s="3">
+        <v>539300</v>
+      </c>
+      <c r="K60" s="3">
         <v>585500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>566500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>388600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>405000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>451700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>447400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>401800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>399700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>401300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>438100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>358300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>349300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>364100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>409900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>364200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>385500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72900</v>
+        <v>79500</v>
       </c>
       <c r="E61" s="3">
-        <v>72400</v>
+        <v>70500</v>
       </c>
       <c r="F61" s="3">
-        <v>11300</v>
+        <v>70000</v>
       </c>
       <c r="G61" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="H61" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="I61" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="J61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4410,11 +4553,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4422,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4434,93 +4577,99 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>138500</v>
+        <v>131800</v>
       </c>
       <c r="E62" s="3">
-        <v>219800</v>
+        <v>134000</v>
       </c>
       <c r="F62" s="3">
-        <v>185100</v>
+        <v>212600</v>
       </c>
       <c r="G62" s="3">
-        <v>193200</v>
+        <v>179000</v>
       </c>
       <c r="H62" s="3">
-        <v>185400</v>
+        <v>186800</v>
       </c>
       <c r="I62" s="3">
-        <v>194800</v>
+        <v>179300</v>
       </c>
       <c r="J62" s="3">
+        <v>188400</v>
+      </c>
+      <c r="K62" s="3">
         <v>172200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>172000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>212300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>257400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>260900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>237900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>152700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>181100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>214700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>205900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>192300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>203000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>183900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>175200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>188300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>173700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>601700</v>
+        <v>555500</v>
       </c>
       <c r="E66" s="3">
-        <v>595100</v>
+        <v>582000</v>
       </c>
       <c r="F66" s="3">
-        <v>588000</v>
+        <v>575600</v>
       </c>
       <c r="G66" s="3">
-        <v>626900</v>
+        <v>568700</v>
       </c>
       <c r="H66" s="3">
-        <v>623600</v>
+        <v>606300</v>
       </c>
       <c r="I66" s="3">
-        <v>785400</v>
+        <v>603200</v>
       </c>
       <c r="J66" s="3">
+        <v>759700</v>
+      </c>
+      <c r="K66" s="3">
         <v>791600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>811900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>774200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>637100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>705500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>755600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>727900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>597900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>625900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>658600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>685500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>595000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>596700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>591600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>628600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>597700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1147800</v>
+        <v>1125000</v>
       </c>
       <c r="E72" s="3">
-        <v>1165000</v>
+        <v>1110200</v>
       </c>
       <c r="F72" s="3">
-        <v>1336600</v>
+        <v>1126900</v>
       </c>
       <c r="G72" s="3">
-        <v>1342000</v>
+        <v>1292800</v>
       </c>
       <c r="H72" s="3">
-        <v>1323600</v>
+        <v>1298000</v>
       </c>
       <c r="I72" s="3">
-        <v>1329300</v>
+        <v>1280200</v>
       </c>
       <c r="J72" s="3">
+        <v>1285700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1314300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1381700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1342900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1631900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1756300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1755300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1699500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1769200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1861100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1919200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1831500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1558700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1559800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1559900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1528300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1508400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1504600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1636300</v>
+        <v>1588700</v>
       </c>
       <c r="E76" s="3">
-        <v>1597900</v>
+        <v>1582800</v>
       </c>
       <c r="F76" s="3">
-        <v>1603400</v>
+        <v>1545500</v>
       </c>
       <c r="G76" s="3">
-        <v>1601000</v>
+        <v>1550900</v>
       </c>
       <c r="H76" s="3">
-        <v>1584600</v>
+        <v>1548600</v>
       </c>
       <c r="I76" s="3">
-        <v>1580400</v>
+        <v>1532700</v>
       </c>
       <c r="J76" s="3">
+        <v>1528700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1513500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1593300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1549400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1809300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1969500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1970800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1939000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1983100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2123200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2221200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2136600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2103700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2133200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2109100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2074900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2018500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2016300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>17600</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>8200</v>
+        <v>17000</v>
       </c>
       <c r="F81" s="3">
-        <v>3700</v>
+        <v>7900</v>
       </c>
       <c r="G81" s="3">
-        <v>18400</v>
+        <v>3600</v>
       </c>
       <c r="H81" s="3">
-        <v>12300</v>
+        <v>17800</v>
       </c>
       <c r="I81" s="3">
-        <v>15000</v>
+        <v>11900</v>
       </c>
       <c r="J81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K81" s="3">
         <v>23400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>50300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-36600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-66500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>35600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>25600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20200</v>
+        <v>16000</v>
       </c>
       <c r="E83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="O83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="R83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="S83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="U83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="V83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="X83" s="3">
         <v>12000</v>
       </c>
-      <c r="F83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="Y83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>14300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>14400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>13300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>12300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>12000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>11900</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20800</v>
+        <v>14300</v>
       </c>
       <c r="E89" s="3">
-        <v>6600</v>
+        <v>20100</v>
       </c>
       <c r="F89" s="3">
-        <v>25000</v>
+        <v>6300</v>
       </c>
       <c r="G89" s="3">
-        <v>57900</v>
+        <v>24100</v>
       </c>
       <c r="H89" s="3">
-        <v>5900</v>
+        <v>56000</v>
       </c>
       <c r="I89" s="3">
-        <v>11200</v>
+        <v>5700</v>
       </c>
       <c r="J89" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K89" s="3">
         <v>42000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-76100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>54900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>47200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>49000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>66000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>63400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4000</v>
+        <v>-6400</v>
       </c>
       <c r="E91" s="3">
-        <v>-15000</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9800</v>
+        <v>-14500</v>
       </c>
       <c r="G91" s="3">
-        <v>-15600</v>
+        <v>-9400</v>
       </c>
       <c r="H91" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-9100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7500</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
-        <v>9400</v>
+        <v>-7300</v>
       </c>
       <c r="F94" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="N94" s="3">
+        <v>29900</v>
+      </c>
+      <c r="O94" s="3">
+        <v>47100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="X94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="M94" s="3">
-        <v>29900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>47100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>9200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-13100</v>
       </c>
       <c r="F96" s="3">
-        <v>-9200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-8900</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-9700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-23300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-22500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-22000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-22100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32900</v>
+        <v>-56900</v>
       </c>
       <c r="E100" s="3">
-        <v>-51100</v>
+        <v>-31800</v>
       </c>
       <c r="F100" s="3">
-        <v>-49900</v>
+        <v>-49400</v>
       </c>
       <c r="G100" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-165300</v>
-      </c>
       <c r="I100" s="3">
-        <v>-8400</v>
+        <v>-159900</v>
       </c>
       <c r="J100" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>251800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-75500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-35800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-68300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-42200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-59100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-24400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6900</v>
+        <v>2500</v>
       </c>
       <c r="E101" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
-        <v>5400</v>
-      </c>
       <c r="G101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
-        <v>1200</v>
-      </c>
       <c r="I101" s="3">
-        <v>4400</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>18500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12800</v>
+        <v>-40700</v>
       </c>
       <c r="E102" s="3">
-        <v>-33600</v>
+        <v>-12400</v>
       </c>
       <c r="F102" s="3">
-        <v>-31000</v>
+        <v>-32500</v>
       </c>
       <c r="G102" s="3">
-        <v>52500</v>
+        <v>-30000</v>
       </c>
       <c r="H102" s="3">
-        <v>-175400</v>
+        <v>50800</v>
       </c>
       <c r="I102" s="3">
-        <v>8300</v>
+        <v>-169700</v>
       </c>
       <c r="J102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K102" s="3">
         <v>27400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>162200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-40300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-61300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>53400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>343700</v>
+        <v>341000</v>
       </c>
       <c r="E8" s="3">
-        <v>347600</v>
+        <v>356300</v>
       </c>
       <c r="F8" s="3">
-        <v>302600</v>
+        <v>360300</v>
       </c>
       <c r="G8" s="3">
-        <v>303200</v>
+        <v>313600</v>
       </c>
       <c r="H8" s="3">
-        <v>319900</v>
+        <v>321200</v>
       </c>
       <c r="I8" s="3">
-        <v>301000</v>
+        <v>322200</v>
       </c>
       <c r="J8" s="3">
+        <v>312000</v>
+      </c>
+      <c r="K8" s="3">
         <v>264500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>306000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>347500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>222400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>376400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>387900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>497500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>433400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>430100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>428900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>487200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>448800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>427700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>419800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>481900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>440000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>415700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>413400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>148900</v>
+        <v>153700</v>
       </c>
       <c r="E9" s="3">
-        <v>144300</v>
+        <v>154300</v>
       </c>
       <c r="F9" s="3">
-        <v>142000</v>
+        <v>149500</v>
       </c>
       <c r="G9" s="3">
-        <v>133200</v>
+        <v>147200</v>
       </c>
       <c r="H9" s="3">
-        <v>143300</v>
+        <v>140200</v>
       </c>
       <c r="I9" s="3">
-        <v>124700</v>
+        <v>144600</v>
       </c>
       <c r="J9" s="3">
+        <v>129300</v>
+      </c>
+      <c r="K9" s="3">
         <v>124200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>132800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>147100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>185400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>172400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>225900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>186900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>208300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>195700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>227200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>198900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>213900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>192300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>226900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>198600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>210000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>189200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>194900</v>
+        <v>187400</v>
       </c>
       <c r="E10" s="3">
-        <v>203300</v>
+        <v>202000</v>
       </c>
       <c r="F10" s="3">
-        <v>160600</v>
+        <v>210800</v>
       </c>
       <c r="G10" s="3">
-        <v>170100</v>
+        <v>166500</v>
       </c>
       <c r="H10" s="3">
-        <v>176600</v>
+        <v>181000</v>
       </c>
       <c r="I10" s="3">
-        <v>176300</v>
+        <v>177600</v>
       </c>
       <c r="J10" s="3">
+        <v>182700</v>
+      </c>
+      <c r="K10" s="3">
         <v>140300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>173200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>191000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>215500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>271600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>246500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>221800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>233100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>260000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>249900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>213800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>227500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>254900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>241400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>205700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>224200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,23 +1070,23 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
-        <v>600</v>
-      </c>
       <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>900</v>
       </c>
       <c r="L12" s="3">
         <v>900</v>
@@ -1081,53 +1094,56 @@
       <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>900</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1800</v>
       </c>
       <c r="W12" s="3">
         <v>1800</v>
       </c>
       <c r="X12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,11 +1236,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1229,11 +1248,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>27100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1253,11 +1272,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>53400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1284,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>383700</v>
       </c>
       <c r="E17" s="3">
-        <v>330100</v>
+        <v>345100</v>
       </c>
       <c r="F17" s="3">
-        <v>302900</v>
+        <v>342200</v>
       </c>
       <c r="G17" s="3">
-        <v>295600</v>
+        <v>314000</v>
       </c>
       <c r="H17" s="3">
-        <v>305400</v>
+        <v>310200</v>
       </c>
       <c r="I17" s="3">
-        <v>283600</v>
+        <v>306300</v>
       </c>
       <c r="J17" s="3">
+        <v>294000</v>
+      </c>
+      <c r="K17" s="3">
         <v>300400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>286400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>302700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>404400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>385100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>443700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>487800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>408300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>444500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>408800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>432400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>395100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>435900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>416600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>384200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-42700</v>
       </c>
       <c r="E18" s="3">
-        <v>17500</v>
+        <v>11300</v>
       </c>
       <c r="F18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>7700</v>
-      </c>
       <c r="H18" s="3">
-        <v>14400</v>
+        <v>11000</v>
       </c>
       <c r="I18" s="3">
-        <v>17400</v>
+        <v>15900</v>
       </c>
       <c r="J18" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-57700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>40000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>45900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>40000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>29200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
-        <v>12500</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3">
-        <v>-7300</v>
+        <v>13000</v>
       </c>
       <c r="H20" s="3">
-        <v>16800</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="J20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K20" s="3">
         <v>35500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-71700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>55000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-120900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>26000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>41200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>12200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-19000</v>
       </c>
       <c r="E21" s="3">
-        <v>45000</v>
+        <v>33500</v>
       </c>
       <c r="F21" s="3">
-        <v>23800</v>
+        <v>46600</v>
       </c>
       <c r="G21" s="3">
-        <v>11400</v>
+        <v>1700</v>
       </c>
       <c r="H21" s="3">
-        <v>35400</v>
+        <v>36100</v>
       </c>
       <c r="I21" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="J21" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K21" s="3">
         <v>10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>64800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>62900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-85400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>72200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-87200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>81400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>60500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>63300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>12200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>53000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1754,8 +1793,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1764,7 +1803,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1776,22 +1815,22 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1800,20 +1839,20 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
@@ -1821,170 +1860,179 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16300</v>
+        <v>-41400</v>
       </c>
       <c r="E23" s="3">
-        <v>25400</v>
+        <v>16900</v>
       </c>
       <c r="F23" s="3">
-        <v>12100</v>
+        <v>26300</v>
       </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>12600</v>
       </c>
       <c r="H23" s="3">
-        <v>31100</v>
+        <v>15700</v>
       </c>
       <c r="I23" s="3">
-        <v>20600</v>
+        <v>18700</v>
       </c>
       <c r="J23" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-99600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>71700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-31900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>68700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>81100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>48500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>51000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>41300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3400</v>
+        <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>7900</v>
+        <v>3600</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>8200</v>
       </c>
       <c r="G24" s="3">
-        <v>-700</v>
+        <v>7200</v>
       </c>
       <c r="H24" s="3">
-        <v>13700</v>
+        <v>4700</v>
       </c>
       <c r="I24" s="3">
-        <v>9000</v>
+        <v>5600</v>
       </c>
       <c r="J24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-17200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-30300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-30300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>18400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>18800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-48900</v>
       </c>
       <c r="E26" s="3">
-        <v>17500</v>
+        <v>13300</v>
       </c>
       <c r="F26" s="3">
-        <v>5200</v>
+        <v>18100</v>
       </c>
       <c r="G26" s="3">
-        <v>1000</v>
+        <v>5400</v>
       </c>
       <c r="H26" s="3">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="I26" s="3">
-        <v>11600</v>
+        <v>13100</v>
       </c>
       <c r="J26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K26" s="3">
         <v>16600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-69400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>49200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-36900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-70100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>55300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>31000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>32600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>22500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-48700</v>
       </c>
       <c r="E27" s="3">
-        <v>17000</v>
+        <v>13200</v>
       </c>
       <c r="F27" s="3">
-        <v>7900</v>
+        <v>17700</v>
       </c>
       <c r="G27" s="3">
-        <v>3600</v>
+        <v>8200</v>
       </c>
       <c r="H27" s="3">
-        <v>17800</v>
+        <v>14300</v>
       </c>
       <c r="I27" s="3">
-        <v>11900</v>
+        <v>13600</v>
       </c>
       <c r="J27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-66400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-66500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>31600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>35600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>25600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,8 +2404,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2362,14 +2422,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
-        <v>-12500</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3">
-        <v>7300</v>
+        <v>-13000</v>
       </c>
       <c r="H32" s="3">
-        <v>-16800</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3300</v>
+        <v>-2900</v>
       </c>
       <c r="J32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-35500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>71700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-55000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>120900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-26000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-41200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-48700</v>
       </c>
       <c r="E33" s="3">
-        <v>17000</v>
+        <v>13200</v>
       </c>
       <c r="F33" s="3">
-        <v>7900</v>
+        <v>17700</v>
       </c>
       <c r="G33" s="3">
-        <v>3600</v>
+        <v>8200</v>
       </c>
       <c r="H33" s="3">
-        <v>17800</v>
+        <v>14300</v>
       </c>
       <c r="I33" s="3">
-        <v>11900</v>
+        <v>13600</v>
       </c>
       <c r="J33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-66400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-36600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-66500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>35600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>25600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-48700</v>
       </c>
       <c r="E35" s="3">
-        <v>17000</v>
+        <v>13200</v>
       </c>
       <c r="F35" s="3">
-        <v>7900</v>
+        <v>17700</v>
       </c>
       <c r="G35" s="3">
-        <v>3600</v>
+        <v>8200</v>
       </c>
       <c r="H35" s="3">
-        <v>17800</v>
+        <v>14300</v>
       </c>
       <c r="I35" s="3">
-        <v>11900</v>
+        <v>13600</v>
       </c>
       <c r="J35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-66400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-36600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-66500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>35600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>25600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3093,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>212700</v>
+        <v>225400</v>
       </c>
       <c r="E41" s="3">
-        <v>253400</v>
+        <v>220500</v>
       </c>
       <c r="F41" s="3">
-        <v>275600</v>
+        <v>262700</v>
       </c>
       <c r="G41" s="3">
-        <v>319000</v>
+        <v>285700</v>
       </c>
       <c r="H41" s="3">
-        <v>345400</v>
+        <v>330700</v>
       </c>
       <c r="I41" s="3">
-        <v>288300</v>
+        <v>358000</v>
       </c>
       <c r="J41" s="3">
+        <v>298900</v>
+      </c>
+      <c r="K41" s="3">
         <v>460900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>467400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>463500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>385300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>252900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>261800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>241000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>293400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>312700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>325400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>326300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>346700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>305400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>321400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>325700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>325600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>325700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>384500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="F42" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>15100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>13200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1800</v>
       </c>
-      <c r="J42" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5800</v>
-      </c>
-      <c r="O42" s="3">
-        <v>5000</v>
       </c>
       <c r="P42" s="3">
         <v>5000</v>
       </c>
       <c r="Q42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R42" s="3">
         <v>3000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>13000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>17300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>150200</v>
+        <v>148100</v>
       </c>
       <c r="E43" s="3">
-        <v>155800</v>
+        <v>155700</v>
       </c>
       <c r="F43" s="3">
-        <v>282500</v>
+        <v>161500</v>
       </c>
       <c r="G43" s="3">
-        <v>129700</v>
+        <v>292800</v>
       </c>
       <c r="H43" s="3">
-        <v>128600</v>
+        <v>134400</v>
       </c>
       <c r="I43" s="3">
-        <v>135300</v>
+        <v>133300</v>
       </c>
       <c r="J43" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K43" s="3">
         <v>122100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>138300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>158000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>126200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>172400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>184400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>249600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>216500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>226800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>249000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>225100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>211700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>181400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>218700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>191400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>204800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>180700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>373500</v>
+        <v>381200</v>
       </c>
       <c r="E44" s="3">
-        <v>342500</v>
+        <v>387200</v>
       </c>
       <c r="F44" s="3">
-        <v>646600</v>
+        <v>355100</v>
       </c>
       <c r="G44" s="3">
-        <v>316000</v>
+        <v>670300</v>
       </c>
       <c r="H44" s="3">
-        <v>313200</v>
+        <v>327600</v>
       </c>
       <c r="I44" s="3">
-        <v>316200</v>
+        <v>324700</v>
       </c>
       <c r="J44" s="3">
+        <v>327800</v>
+      </c>
+      <c r="K44" s="3">
         <v>306600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>309200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>339300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>351900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>382600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>402700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>388400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>404000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>389400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>409600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>394200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>395000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>385800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>402300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>398300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>415100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>388700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>385100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35100</v>
+        <v>26200</v>
       </c>
       <c r="E45" s="3">
-        <v>25300</v>
+        <v>36400</v>
       </c>
       <c r="F45" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="G45" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I45" s="3">
         <v>31400</v>
       </c>
-      <c r="H45" s="3">
-        <v>30300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>66100</v>
-      </c>
       <c r="J45" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K45" s="3">
         <v>59500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>56300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>75400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>56500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>67700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>39500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>45600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>38700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>70600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>77500</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>69500</v>
       </c>
       <c r="AB45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>784900</v>
+        <v>793900</v>
       </c>
       <c r="E46" s="3">
-        <v>791600</v>
+        <v>813700</v>
       </c>
       <c r="F46" s="3">
-        <v>771600</v>
+        <v>820600</v>
       </c>
       <c r="G46" s="3">
-        <v>796100</v>
+        <v>799900</v>
       </c>
       <c r="H46" s="3">
-        <v>817400</v>
+        <v>825300</v>
       </c>
       <c r="I46" s="3">
-        <v>807700</v>
+        <v>847400</v>
       </c>
       <c r="J46" s="3">
+        <v>837300</v>
+      </c>
+      <c r="K46" s="3">
         <v>950900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>978500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1016400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>930000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>865100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>910200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>941300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>992300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>989400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1008500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1042400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1055200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>956500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>963500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>994400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1014800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1009500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1037200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>503600</v>
+        <v>500400</v>
       </c>
       <c r="E47" s="3">
-        <v>507100</v>
+        <v>522000</v>
       </c>
       <c r="F47" s="3">
-        <v>1001500</v>
+        <v>525600</v>
       </c>
       <c r="G47" s="3">
-        <v>493700</v>
+        <v>1038200</v>
       </c>
       <c r="H47" s="3">
-        <v>507700</v>
+        <v>511800</v>
       </c>
       <c r="I47" s="3">
-        <v>507100</v>
+        <v>526300</v>
       </c>
       <c r="J47" s="3">
+        <v>525700</v>
+      </c>
+      <c r="K47" s="3">
         <v>516200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>506500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>513900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>508000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>577000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>715800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>736500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>748300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>780700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>793600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>900700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>854800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>830100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>845000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>781800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>770600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>715900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>707400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>453800</v>
+        <v>450500</v>
       </c>
       <c r="E48" s="3">
-        <v>465900</v>
+        <v>470500</v>
       </c>
       <c r="F48" s="3">
-        <v>926200</v>
+        <v>483000</v>
       </c>
       <c r="G48" s="3">
-        <v>445600</v>
+        <v>960100</v>
       </c>
       <c r="H48" s="3">
-        <v>450300</v>
+        <v>462000</v>
       </c>
       <c r="I48" s="3">
-        <v>440600</v>
+        <v>466900</v>
       </c>
       <c r="J48" s="3">
+        <v>456700</v>
+      </c>
+      <c r="K48" s="3">
         <v>443000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>458700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>492400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>504800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>578100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>602900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>609400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>610900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>488000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>504800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>499100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>490900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>491200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>494000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>496700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>498500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>490400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>486800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>286000</v>
+        <v>214800</v>
       </c>
       <c r="E49" s="3">
-        <v>285800</v>
+        <v>296500</v>
       </c>
       <c r="F49" s="3">
-        <v>545700</v>
+        <v>296200</v>
       </c>
       <c r="G49" s="3">
-        <v>261600</v>
+        <v>565700</v>
       </c>
       <c r="H49" s="3">
-        <v>255900</v>
+        <v>271200</v>
       </c>
       <c r="I49" s="3">
-        <v>258100</v>
+        <v>265300</v>
       </c>
       <c r="J49" s="3">
+        <v>267600</v>
+      </c>
+      <c r="K49" s="3">
         <v>258000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>270600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>286900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>285700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>325200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>349300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>338400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>214500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>222100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>276100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>275800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>264000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>266300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>267300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>265000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>258900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>247700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>248500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,49 +4004,52 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115900</v>
+        <v>122400</v>
       </c>
       <c r="E52" s="3">
-        <v>114400</v>
+        <v>120100</v>
       </c>
       <c r="F52" s="3">
-        <v>246500</v>
+        <v>118600</v>
       </c>
       <c r="G52" s="3">
-        <v>122600</v>
+        <v>255500</v>
       </c>
       <c r="H52" s="3">
-        <v>123500</v>
+        <v>127100</v>
       </c>
       <c r="I52" s="3">
-        <v>122400</v>
+        <v>128000</v>
       </c>
       <c r="J52" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K52" s="3">
         <v>120200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>96800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100800</v>
       </c>
       <c r="Q52" s="3">
         <v>100800</v>
@@ -3939,37 +4058,40 @@
         <v>100800</v>
       </c>
       <c r="S52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="T52" s="3">
         <v>166300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>161900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>157100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>154600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>160000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>162800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>160700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>152800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>136700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2144200</v>
+        <v>2082000</v>
       </c>
       <c r="E54" s="3">
-        <v>2164800</v>
+        <v>2222800</v>
       </c>
       <c r="F54" s="3">
-        <v>2121200</v>
+        <v>2244200</v>
       </c>
       <c r="G54" s="3">
-        <v>2119600</v>
+        <v>2199000</v>
       </c>
       <c r="H54" s="3">
-        <v>2154900</v>
+        <v>2197300</v>
       </c>
       <c r="I54" s="3">
-        <v>2135900</v>
+        <v>2233900</v>
       </c>
       <c r="J54" s="3">
+        <v>2214200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2288400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2305100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2405200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2323600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2446400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2675000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2726400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2666900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2581000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2749200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2879800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2822100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2698700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2729900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2700600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2703500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2616300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2616600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,367 +4317,380 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>113500</v>
+        <v>108900</v>
       </c>
       <c r="E57" s="3">
-        <v>113300</v>
+        <v>117700</v>
       </c>
       <c r="F57" s="3">
-        <v>194000</v>
+        <v>117500</v>
       </c>
       <c r="G57" s="3">
-        <v>62800</v>
+        <v>201100</v>
       </c>
       <c r="H57" s="3">
-        <v>64000</v>
+        <v>65100</v>
       </c>
       <c r="I57" s="3">
-        <v>70300</v>
+        <v>66400</v>
       </c>
       <c r="J57" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K57" s="3">
         <v>67000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>94300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>106500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>107000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>111300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>112700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>111300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>113600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>112100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>112800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>124600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>115700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>116600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71500</v>
+        <v>75400</v>
       </c>
       <c r="E58" s="3">
-        <v>112600</v>
+        <v>74100</v>
       </c>
       <c r="F58" s="3">
-        <v>181900</v>
+        <v>116800</v>
       </c>
       <c r="G58" s="3">
-        <v>111200</v>
+        <v>188500</v>
       </c>
       <c r="H58" s="3">
-        <v>146500</v>
+        <v>115300</v>
       </c>
       <c r="I58" s="3">
-        <v>146600</v>
+        <v>151900</v>
       </c>
       <c r="J58" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K58" s="3">
         <v>288600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>304700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>324500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>296400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>36900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>71200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>91400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>74800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>67500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>112800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>64700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>67700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>69300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>113300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>68900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>88600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>138200</v>
+        <v>133300</v>
       </c>
       <c r="E59" s="3">
-        <v>130800</v>
+        <v>143200</v>
       </c>
       <c r="F59" s="3">
-        <v>272100</v>
+        <v>135600</v>
       </c>
       <c r="G59" s="3">
+        <v>282100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>189800</v>
+      </c>
+      <c r="I59" s="3">
         <v>183100</v>
       </c>
-      <c r="H59" s="3">
-        <v>176700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>174600</v>
-      </c>
       <c r="J59" s="3">
+        <v>181000</v>
+      </c>
+      <c r="K59" s="3">
         <v>183800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>217000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>206900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>264200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>270900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>274000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>249100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>219000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>211000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>221100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>214000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>180000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>169600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>181900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>172000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>179600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>180200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>323200</v>
+        <v>317500</v>
       </c>
       <c r="E60" s="3">
-        <v>356800</v>
+        <v>335000</v>
       </c>
       <c r="F60" s="3">
+        <v>369900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>362100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>370200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>401400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>405900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>539300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>585500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>600500</v>
+      </c>
+      <c r="N60" s="3">
+        <v>566500</v>
+      </c>
+      <c r="O60" s="3">
+        <v>388600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>405000</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>451700</v>
+      </c>
+      <c r="R60" s="3">
+        <v>447400</v>
+      </c>
+      <c r="S60" s="3">
+        <v>401800</v>
+      </c>
+      <c r="T60" s="3">
+        <v>399700</v>
+      </c>
+      <c r="U60" s="3">
+        <v>401300</v>
+      </c>
+      <c r="V60" s="3">
+        <v>438100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>358300</v>
+      </c>
+      <c r="X60" s="3">
         <v>349300</v>
       </c>
-      <c r="G60" s="3">
-        <v>357100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>387200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>391500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>539300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>585500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>566500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>388600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>405000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>451700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>447400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>401800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>399700</v>
-      </c>
-      <c r="T60" s="3">
-        <v>401300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>438100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>358300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>349300</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>364100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>409900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>364200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>385500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>79500</v>
+        <v>76600</v>
       </c>
       <c r="E61" s="3">
-        <v>70500</v>
+        <v>82400</v>
       </c>
       <c r="F61" s="3">
-        <v>70000</v>
+        <v>73100</v>
       </c>
       <c r="G61" s="3">
+        <v>72600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J61" s="3">
         <v>11000</v>
       </c>
-      <c r="H61" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10600</v>
       </c>
-      <c r="J61" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4556,11 +4698,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4568,11 +4710,11 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1200</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4580,96 +4722,102 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>1600</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131800</v>
+        <v>134000</v>
       </c>
       <c r="E62" s="3">
-        <v>134000</v>
+        <v>136600</v>
       </c>
       <c r="F62" s="3">
-        <v>212600</v>
+        <v>138900</v>
       </c>
       <c r="G62" s="3">
-        <v>179000</v>
+        <v>220400</v>
       </c>
       <c r="H62" s="3">
-        <v>186800</v>
+        <v>185600</v>
       </c>
       <c r="I62" s="3">
-        <v>179300</v>
+        <v>193700</v>
       </c>
       <c r="J62" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K62" s="3">
         <v>188400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>172000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>212300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>257400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>260900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>237900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>152700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>181100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>214700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>205900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>192300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>203000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>183900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>175200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>188300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>173700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>555500</v>
+        <v>550200</v>
       </c>
       <c r="E66" s="3">
-        <v>582000</v>
+        <v>575900</v>
       </c>
       <c r="F66" s="3">
-        <v>575600</v>
+        <v>603400</v>
       </c>
       <c r="G66" s="3">
-        <v>568700</v>
+        <v>596700</v>
       </c>
       <c r="H66" s="3">
-        <v>606300</v>
+        <v>589600</v>
       </c>
       <c r="I66" s="3">
-        <v>603200</v>
+        <v>628600</v>
       </c>
       <c r="J66" s="3">
+        <v>625300</v>
+      </c>
+      <c r="K66" s="3">
         <v>759700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>791600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>811900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>774200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>637100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>705500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>755600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>727900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>597900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>625900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>658600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>685500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>595000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>596700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>591600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>628600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>597700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>600300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1125000</v>
+        <v>1111600</v>
       </c>
       <c r="E72" s="3">
-        <v>1110200</v>
+        <v>1166300</v>
       </c>
       <c r="F72" s="3">
-        <v>1126900</v>
+        <v>1151000</v>
       </c>
       <c r="G72" s="3">
-        <v>1292800</v>
+        <v>1168200</v>
       </c>
       <c r="H72" s="3">
-        <v>1298000</v>
+        <v>1340200</v>
       </c>
       <c r="I72" s="3">
-        <v>1280200</v>
+        <v>1345600</v>
       </c>
       <c r="J72" s="3">
+        <v>1327200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1285700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1314300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1381700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1342900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1631900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1756300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1755300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1699500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1769200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1861100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1919200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1831500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1558700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1559800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1559900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1528300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1508400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1504600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1588700</v>
+        <v>1531800</v>
       </c>
       <c r="E76" s="3">
-        <v>1582800</v>
+        <v>1647000</v>
       </c>
       <c r="F76" s="3">
-        <v>1545500</v>
+        <v>1640800</v>
       </c>
       <c r="G76" s="3">
-        <v>1550900</v>
+        <v>1602200</v>
       </c>
       <c r="H76" s="3">
-        <v>1548600</v>
+        <v>1607700</v>
       </c>
       <c r="I76" s="3">
-        <v>1532700</v>
+        <v>1605400</v>
       </c>
       <c r="J76" s="3">
+        <v>1588900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1528700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1513500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1593300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1549400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1809300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1969500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1970800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1939000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1983100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2123200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2221200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2136600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2103700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2133200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2109100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2074900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2018500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2016300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-48700</v>
       </c>
       <c r="E81" s="3">
-        <v>17000</v>
+        <v>13200</v>
       </c>
       <c r="F81" s="3">
-        <v>7900</v>
+        <v>17700</v>
       </c>
       <c r="G81" s="3">
-        <v>3600</v>
+        <v>8200</v>
       </c>
       <c r="H81" s="3">
-        <v>17800</v>
+        <v>14300</v>
       </c>
       <c r="I81" s="3">
-        <v>11900</v>
+        <v>13600</v>
       </c>
       <c r="J81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-66400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-36600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-66500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>35600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>25600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16000</v>
+        <v>22400</v>
       </c>
       <c r="E83" s="3">
-        <v>19600</v>
+        <v>16600</v>
       </c>
       <c r="F83" s="3">
-        <v>11600</v>
+        <v>20300</v>
       </c>
       <c r="G83" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K83" s="3">
         <v>11100</v>
       </c>
-      <c r="H83" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>17000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>14300</v>
+        <v>10200</v>
       </c>
       <c r="E89" s="3">
-        <v>20100</v>
+        <v>14800</v>
       </c>
       <c r="F89" s="3">
-        <v>6300</v>
+        <v>20900</v>
       </c>
       <c r="G89" s="3">
-        <v>24100</v>
+        <v>-13700</v>
       </c>
       <c r="H89" s="3">
-        <v>56000</v>
+        <v>32300</v>
       </c>
       <c r="I89" s="3">
-        <v>5700</v>
+        <v>71100</v>
       </c>
       <c r="J89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K89" s="3">
         <v>10800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-76100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>66000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>63400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6400</v>
+        <v>-5100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3800</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-14500</v>
+        <v>-4000</v>
       </c>
       <c r="G91" s="3">
-        <v>-9400</v>
+        <v>-15100</v>
       </c>
       <c r="H91" s="3">
-        <v>-15100</v>
+        <v>-9800</v>
       </c>
       <c r="I91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>46200</v>
       </c>
       <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="O94" s="3">
+        <v>29900</v>
+      </c>
+      <c r="P94" s="3">
+        <v>47100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>29900</v>
-      </c>
-      <c r="O94" s="3">
-        <v>47100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>9200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-17600</v>
       </c>
       <c r="E96" s="3">
-        <v>-13100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-13600</v>
       </c>
       <c r="G96" s="3">
-        <v>-8900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-9200</v>
       </c>
       <c r="I96" s="3">
-        <v>-8800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-9200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-9100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-9700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-23300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-21500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-22500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-22000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-22100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-44700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56900</v>
+        <v>-43500</v>
       </c>
       <c r="E100" s="3">
-        <v>-31800</v>
+        <v>-59000</v>
       </c>
       <c r="F100" s="3">
-        <v>-49400</v>
+        <v>-33000</v>
       </c>
       <c r="G100" s="3">
-        <v>-48300</v>
+        <v>-51300</v>
       </c>
       <c r="H100" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-159900</v>
-      </c>
       <c r="J100" s="3">
+        <v>-165700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>251800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-75500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-68300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>12500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-42200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-59100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-24400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2500</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3">
-        <v>6600</v>
+        <v>2600</v>
       </c>
       <c r="F101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
-        <v>5200</v>
-      </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>1100</v>
+        <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>18500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-40700</v>
+        <v>4900</v>
       </c>
       <c r="E102" s="3">
-        <v>-12400</v>
+        <v>-42200</v>
       </c>
       <c r="F102" s="3">
-        <v>-32500</v>
+        <v>-12800</v>
       </c>
       <c r="G102" s="3">
-        <v>-30000</v>
+        <v>-33700</v>
       </c>
       <c r="H102" s="3">
-        <v>50800</v>
+        <v>-31100</v>
       </c>
       <c r="I102" s="3">
-        <v>-169700</v>
+        <v>52700</v>
       </c>
       <c r="J102" s="3">
+        <v>-175900</v>
+      </c>
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>162200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-61300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>53400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>341000</v>
+        <v>322200</v>
       </c>
       <c r="E8" s="3">
-        <v>356300</v>
+        <v>334500</v>
       </c>
       <c r="F8" s="3">
-        <v>360300</v>
+        <v>349500</v>
       </c>
       <c r="G8" s="3">
-        <v>313600</v>
+        <v>353500</v>
       </c>
       <c r="H8" s="3">
-        <v>321200</v>
+        <v>303400</v>
       </c>
       <c r="I8" s="3">
-        <v>322200</v>
+        <v>315100</v>
       </c>
       <c r="J8" s="3">
+        <v>316000</v>
+      </c>
+      <c r="K8" s="3">
         <v>312000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>264500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>306000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>347500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>222400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>376400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>387900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>497500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>433400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>430100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>428900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>487200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>448800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>427700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>419800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>481900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>440000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>415700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>413400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>153700</v>
+        <v>143800</v>
       </c>
       <c r="E9" s="3">
-        <v>154300</v>
+        <v>150700</v>
       </c>
       <c r="F9" s="3">
-        <v>149500</v>
+        <v>151400</v>
       </c>
       <c r="G9" s="3">
-        <v>147200</v>
+        <v>146700</v>
       </c>
       <c r="H9" s="3">
-        <v>140200</v>
+        <v>143500</v>
       </c>
       <c r="I9" s="3">
-        <v>144600</v>
+        <v>137600</v>
       </c>
       <c r="J9" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K9" s="3">
         <v>129300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>147100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>103400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>185400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>172400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>225900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>186900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>208300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>195700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>227200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>198900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>213900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>192300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>226900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>198600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>210000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>189200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>187400</v>
+        <v>178400</v>
       </c>
       <c r="E10" s="3">
-        <v>202000</v>
+        <v>183800</v>
       </c>
       <c r="F10" s="3">
-        <v>210800</v>
+        <v>198200</v>
       </c>
       <c r="G10" s="3">
-        <v>166500</v>
+        <v>206800</v>
       </c>
       <c r="H10" s="3">
-        <v>181000</v>
+        <v>160000</v>
       </c>
       <c r="I10" s="3">
-        <v>177600</v>
+        <v>177500</v>
       </c>
       <c r="J10" s="3">
+        <v>174200</v>
+      </c>
+      <c r="K10" s="3">
         <v>182700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>140300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>173200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>191000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>215500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>271600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>246500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>221800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>233100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>260000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>249900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>213800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>227500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>254900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>241400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>205700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>224200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,23 +1087,23 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
-        <v>700</v>
-      </c>
       <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>900</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
@@ -1097,53 +1111,56 @@
       <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="3">
+        <v>900</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1800</v>
       </c>
       <c r="X12" s="3">
         <v>1800</v>
       </c>
       <c r="Y12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
-      <c r="Z12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,13 +1242,16 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1239,11 +1259,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1251,11 +1271,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>27100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1275,11 +1295,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>53400</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1287,8 +1307,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>383700</v>
+        <v>335400</v>
       </c>
       <c r="E17" s="3">
-        <v>345100</v>
+        <v>376400</v>
       </c>
       <c r="F17" s="3">
-        <v>342200</v>
+        <v>338500</v>
       </c>
       <c r="G17" s="3">
-        <v>314000</v>
+        <v>335700</v>
       </c>
       <c r="H17" s="3">
-        <v>310200</v>
+        <v>334500</v>
       </c>
       <c r="I17" s="3">
-        <v>306300</v>
+        <v>304300</v>
       </c>
       <c r="J17" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K17" s="3">
         <v>294000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>286400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>302700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>257200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>404400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>385100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>443700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>487800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>408300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>444500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>408800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>432400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>395100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>435900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>416600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>384200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-42700</v>
+        <v>-13200</v>
       </c>
       <c r="E18" s="3">
-        <v>11300</v>
+        <v>-41900</v>
       </c>
       <c r="F18" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K18" s="3">
         <v>18100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>15900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>18100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-57700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>40000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>45900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>40000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>29200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
-        <v>5700</v>
-      </c>
       <c r="F20" s="3">
-        <v>8200</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-71700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>55000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-120900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>41200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>9900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>11000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>12200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-19000</v>
+        <v>24200</v>
       </c>
       <c r="E21" s="3">
-        <v>33500</v>
+        <v>-18700</v>
       </c>
       <c r="F21" s="3">
-        <v>46600</v>
+        <v>32900</v>
       </c>
       <c r="G21" s="3">
-        <v>1700</v>
+        <v>45700</v>
       </c>
       <c r="H21" s="3">
-        <v>36100</v>
+        <v>-3400</v>
       </c>
       <c r="I21" s="3">
-        <v>37300</v>
+        <v>35500</v>
       </c>
       <c r="J21" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K21" s="3">
         <v>39100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>64800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>62900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-85400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>72200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-18100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-87200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>60500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>63300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>12200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>53000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1796,8 +1836,8 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1806,7 +1846,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1818,22 +1858,22 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1842,20 +1882,20 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
@@ -1863,176 +1903,185 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41400</v>
+        <v>-6900</v>
       </c>
       <c r="E23" s="3">
-        <v>16900</v>
+        <v>-40600</v>
       </c>
       <c r="F23" s="3">
-        <v>26300</v>
+        <v>16600</v>
       </c>
       <c r="G23" s="3">
-        <v>12600</v>
+        <v>25800</v>
       </c>
       <c r="H23" s="3">
-        <v>15700</v>
+        <v>-25200</v>
       </c>
       <c r="I23" s="3">
-        <v>18700</v>
+        <v>15400</v>
       </c>
       <c r="J23" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K23" s="3">
         <v>21300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-99600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>71700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-31900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>81100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>34600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>48500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>51000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>41300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>-11400</v>
       </c>
       <c r="E24" s="3">
-        <v>3600</v>
+        <v>7400</v>
       </c>
       <c r="F24" s="3">
-        <v>8200</v>
+        <v>3500</v>
       </c>
       <c r="G24" s="3">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>4700</v>
+        <v>-1200</v>
       </c>
       <c r="I24" s="3">
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="J24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K24" s="3">
         <v>9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-30300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-30300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>18400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>18800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-48900</v>
+        <v>4600</v>
       </c>
       <c r="E26" s="3">
-        <v>13300</v>
+        <v>-48000</v>
       </c>
       <c r="F26" s="3">
-        <v>18100</v>
+        <v>13100</v>
       </c>
       <c r="G26" s="3">
-        <v>5400</v>
+        <v>17800</v>
       </c>
       <c r="H26" s="3">
-        <v>11000</v>
+        <v>-24000</v>
       </c>
       <c r="I26" s="3">
-        <v>13100</v>
+        <v>10800</v>
       </c>
       <c r="J26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-69400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-36900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-70100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>55300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>31000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>32600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>22500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-48700</v>
+        <v>4700</v>
       </c>
       <c r="E27" s="3">
-        <v>13200</v>
+        <v>-47800</v>
       </c>
       <c r="F27" s="3">
-        <v>17700</v>
+        <v>13000</v>
       </c>
       <c r="G27" s="3">
-        <v>8200</v>
+        <v>17300</v>
       </c>
       <c r="H27" s="3">
-        <v>14300</v>
+        <v>-20800</v>
       </c>
       <c r="I27" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="J27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-66400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-36600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-66500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>31600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>35600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>25600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2407,8 +2468,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2425,14 +2486,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5700</v>
-      </c>
       <c r="F32" s="3">
-        <v>-8200</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>-13000</v>
+        <v>-8000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4800</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>71700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-55000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>120900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-41200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-12200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48700</v>
+        <v>4700</v>
       </c>
       <c r="E33" s="3">
-        <v>13200</v>
+        <v>-47800</v>
       </c>
       <c r="F33" s="3">
-        <v>17700</v>
+        <v>13000</v>
       </c>
       <c r="G33" s="3">
-        <v>8200</v>
+        <v>17300</v>
       </c>
       <c r="H33" s="3">
-        <v>14300</v>
+        <v>-20800</v>
       </c>
       <c r="I33" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="J33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-66400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-36600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-66500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>57200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>35600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>25600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48700</v>
+        <v>4700</v>
       </c>
       <c r="E35" s="3">
-        <v>13200</v>
+        <v>-47800</v>
       </c>
       <c r="F35" s="3">
-        <v>17700</v>
+        <v>13000</v>
       </c>
       <c r="G35" s="3">
-        <v>8200</v>
+        <v>17300</v>
       </c>
       <c r="H35" s="3">
-        <v>14300</v>
+        <v>-20800</v>
       </c>
       <c r="I35" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="J35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-66400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-36600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-66500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>57200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>35600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>25600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3180,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225400</v>
+        <v>193100</v>
       </c>
       <c r="E41" s="3">
-        <v>220500</v>
+        <v>221100</v>
       </c>
       <c r="F41" s="3">
-        <v>262700</v>
+        <v>216300</v>
       </c>
       <c r="G41" s="3">
-        <v>285700</v>
+        <v>257700</v>
       </c>
       <c r="H41" s="3">
+        <v>280300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>324400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>351200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>298900</v>
+      </c>
+      <c r="L41" s="3">
+        <v>460900</v>
+      </c>
+      <c r="M41" s="3">
+        <v>467400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>463500</v>
+      </c>
+      <c r="O41" s="3">
+        <v>385300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>252900</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>261800</v>
+      </c>
+      <c r="R41" s="3">
+        <v>241000</v>
+      </c>
+      <c r="S41" s="3">
+        <v>293400</v>
+      </c>
+      <c r="T41" s="3">
+        <v>312700</v>
+      </c>
+      <c r="U41" s="3">
+        <v>325400</v>
+      </c>
+      <c r="V41" s="3">
+        <v>326300</v>
+      </c>
+      <c r="W41" s="3">
+        <v>346700</v>
+      </c>
+      <c r="X41" s="3">
+        <v>305400</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>321400</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>325700</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>325600</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>325700</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>384500</v>
+      </c>
+      <c r="AD41" s="3">
         <v>330700</v>
       </c>
-      <c r="I41" s="3">
-        <v>358000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>298900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>460900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>467400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>463500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>385300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>252900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>261800</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>241000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>293400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>312700</v>
-      </c>
-      <c r="T41" s="3">
-        <v>325400</v>
-      </c>
-      <c r="U41" s="3">
-        <v>326300</v>
-      </c>
-      <c r="V41" s="3">
-        <v>346700</v>
-      </c>
-      <c r="W41" s="3">
-        <v>305400</v>
-      </c>
-      <c r="X41" s="3">
-        <v>321400</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>325700</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>325600</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>325700</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>384500</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>330700</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="E42" s="3">
-        <v>13900</v>
+        <v>12800</v>
       </c>
       <c r="F42" s="3">
-        <v>15100</v>
+        <v>13700</v>
       </c>
       <c r="G42" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>14900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>12900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5800</v>
-      </c>
-      <c r="P42" s="3">
-        <v>5000</v>
       </c>
       <c r="Q42" s="3">
         <v>5000</v>
       </c>
       <c r="R42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="S42" s="3">
         <v>3000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>13000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>17300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>148100</v>
+        <v>145800</v>
       </c>
       <c r="E43" s="3">
-        <v>155700</v>
+        <v>145200</v>
       </c>
       <c r="F43" s="3">
-        <v>161500</v>
+        <v>152700</v>
       </c>
       <c r="G43" s="3">
-        <v>292800</v>
+        <v>158500</v>
       </c>
       <c r="H43" s="3">
-        <v>134400</v>
+        <v>287200</v>
       </c>
       <c r="I43" s="3">
-        <v>133300</v>
+        <v>131900</v>
       </c>
       <c r="J43" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K43" s="3">
         <v>140200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>138300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>158000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>126200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>172400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>184400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>249600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>216500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>226800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>249000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>225100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>211700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>181400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>218700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>191400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>204800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>180700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>381200</v>
+        <v>387300</v>
       </c>
       <c r="E44" s="3">
-        <v>387200</v>
+        <v>374000</v>
       </c>
       <c r="F44" s="3">
-        <v>355100</v>
+        <v>379900</v>
       </c>
       <c r="G44" s="3">
-        <v>670300</v>
+        <v>348300</v>
       </c>
       <c r="H44" s="3">
-        <v>327600</v>
+        <v>657500</v>
       </c>
       <c r="I44" s="3">
-        <v>324700</v>
+        <v>321400</v>
       </c>
       <c r="J44" s="3">
+        <v>318500</v>
+      </c>
+      <c r="K44" s="3">
         <v>327800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>306600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>309200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>339300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>351900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>382600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>402700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>388400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>404000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>389400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>409600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>394200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>395000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>385800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>402300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>398300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>415100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>388700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>385100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26200</v>
+        <v>22400</v>
       </c>
       <c r="E45" s="3">
-        <v>36400</v>
+        <v>25700</v>
       </c>
       <c r="F45" s="3">
-        <v>26200</v>
+        <v>35700</v>
       </c>
       <c r="G45" s="3">
-        <v>26300</v>
+        <v>25700</v>
       </c>
       <c r="H45" s="3">
-        <v>32600</v>
+        <v>25800</v>
       </c>
       <c r="I45" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="J45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K45" s="3">
         <v>68500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>56300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>75400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>56500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>67700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>39500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>45600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>38700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>70600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>77500</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>69500</v>
       </c>
       <c r="AC45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>793900</v>
+        <v>761500</v>
       </c>
       <c r="E46" s="3">
-        <v>813700</v>
+        <v>778800</v>
       </c>
       <c r="F46" s="3">
-        <v>820600</v>
+        <v>798200</v>
       </c>
       <c r="G46" s="3">
-        <v>799900</v>
+        <v>805000</v>
       </c>
       <c r="H46" s="3">
-        <v>825300</v>
+        <v>784700</v>
       </c>
       <c r="I46" s="3">
-        <v>847400</v>
+        <v>809600</v>
       </c>
       <c r="J46" s="3">
+        <v>831300</v>
+      </c>
+      <c r="K46" s="3">
         <v>837300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>950900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>978500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1016400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>930000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>865100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>910200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>941300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>992300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>989400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1008500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1042400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1055200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>956500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>963500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>994400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1014800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1009500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1037200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500400</v>
+        <v>509700</v>
       </c>
       <c r="E47" s="3">
-        <v>522000</v>
+        <v>490900</v>
       </c>
       <c r="F47" s="3">
-        <v>525600</v>
+        <v>512100</v>
       </c>
       <c r="G47" s="3">
-        <v>1038200</v>
+        <v>515600</v>
       </c>
       <c r="H47" s="3">
-        <v>511800</v>
+        <v>1018400</v>
       </c>
       <c r="I47" s="3">
-        <v>526300</v>
+        <v>502000</v>
       </c>
       <c r="J47" s="3">
+        <v>516300</v>
+      </c>
+      <c r="K47" s="3">
         <v>525700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>516200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>506500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>513900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>508000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>577000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>715800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>736500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>748300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>780700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>793600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>900700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>854800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>830100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>845000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>781800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>770600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>715900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>707400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>450500</v>
+        <v>446400</v>
       </c>
       <c r="E48" s="3">
-        <v>470500</v>
+        <v>441900</v>
       </c>
       <c r="F48" s="3">
-        <v>483000</v>
+        <v>461500</v>
       </c>
       <c r="G48" s="3">
-        <v>960100</v>
+        <v>473800</v>
       </c>
       <c r="H48" s="3">
-        <v>462000</v>
+        <v>941800</v>
       </c>
       <c r="I48" s="3">
-        <v>466900</v>
+        <v>453200</v>
       </c>
       <c r="J48" s="3">
+        <v>458000</v>
+      </c>
+      <c r="K48" s="3">
         <v>456700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>443000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>458700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>492400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>504800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>578100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>602900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>609400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>610900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>488000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>504800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>499100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>490900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>491200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>494000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>496700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>498500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>490400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>486800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>214800</v>
+        <v>211200</v>
       </c>
       <c r="E49" s="3">
-        <v>296500</v>
+        <v>210700</v>
       </c>
       <c r="F49" s="3">
-        <v>296200</v>
+        <v>290900</v>
       </c>
       <c r="G49" s="3">
-        <v>565700</v>
+        <v>290600</v>
       </c>
       <c r="H49" s="3">
-        <v>271200</v>
+        <v>554900</v>
       </c>
       <c r="I49" s="3">
-        <v>265300</v>
+        <v>266000</v>
       </c>
       <c r="J49" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K49" s="3">
         <v>267600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>258000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>270600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>286900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>285700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>325200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>349300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>338400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>214500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>222100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>276100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>275800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>264000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>266300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>267300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>265000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>258900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>247700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>248500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,52 +4124,55 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>122400</v>
+        <v>128100</v>
       </c>
       <c r="E52" s="3">
-        <v>120100</v>
+        <v>120000</v>
       </c>
       <c r="F52" s="3">
-        <v>118600</v>
+        <v>117900</v>
       </c>
       <c r="G52" s="3">
-        <v>255500</v>
+        <v>116400</v>
       </c>
       <c r="H52" s="3">
-        <v>127100</v>
+        <v>250600</v>
       </c>
       <c r="I52" s="3">
-        <v>128000</v>
+        <v>124700</v>
       </c>
       <c r="J52" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K52" s="3">
         <v>126900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100800</v>
       </c>
       <c r="R52" s="3">
         <v>100800</v>
@@ -4061,37 +4181,40 @@
         <v>100800</v>
       </c>
       <c r="T52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="U52" s="3">
         <v>166300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>161900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>157100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>154600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>160000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>162800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>160700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>152800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>136700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2082000</v>
+        <v>2057000</v>
       </c>
       <c r="E54" s="3">
-        <v>2222800</v>
+        <v>2042300</v>
       </c>
       <c r="F54" s="3">
-        <v>2244200</v>
+        <v>2180500</v>
       </c>
       <c r="G54" s="3">
-        <v>2199000</v>
+        <v>2201400</v>
       </c>
       <c r="H54" s="3">
-        <v>2197300</v>
+        <v>2157100</v>
       </c>
       <c r="I54" s="3">
-        <v>2233900</v>
+        <v>2155500</v>
       </c>
       <c r="J54" s="3">
+        <v>2191400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2214200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2288400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2305100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2405200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2323600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2446400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2675000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2726400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2666900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2581000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2749200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2879800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2822100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2698700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2729900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2700600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2703500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2616300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2616600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,382 +4448,395 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108900</v>
+        <v>126400</v>
       </c>
       <c r="E57" s="3">
-        <v>117700</v>
+        <v>106800</v>
       </c>
       <c r="F57" s="3">
-        <v>117500</v>
+        <v>115400</v>
       </c>
       <c r="G57" s="3">
-        <v>201100</v>
+        <v>115200</v>
       </c>
       <c r="H57" s="3">
+        <v>197300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>63800</v>
+      </c>
+      <c r="J57" s="3">
         <v>65100</v>
       </c>
-      <c r="I57" s="3">
-        <v>66400</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>67000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>94300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>106500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>107000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>108000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>111300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>112700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>111300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>113600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>112100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>112800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>124600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>115700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>116600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>75400</v>
+        <v>69700</v>
       </c>
       <c r="E58" s="3">
-        <v>74100</v>
+        <v>73900</v>
       </c>
       <c r="F58" s="3">
-        <v>116800</v>
+        <v>72700</v>
       </c>
       <c r="G58" s="3">
-        <v>188500</v>
+        <v>114600</v>
       </c>
       <c r="H58" s="3">
-        <v>115300</v>
+        <v>184900</v>
       </c>
       <c r="I58" s="3">
-        <v>151900</v>
+        <v>113100</v>
       </c>
       <c r="J58" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K58" s="3">
         <v>152000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>288600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>304700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>324500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>296400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>36900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>71200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>91400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>74800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>67500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>112800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>64700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>67700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>69300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>113300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>68900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>88600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>133300</v>
+        <v>120000</v>
       </c>
       <c r="E59" s="3">
-        <v>143200</v>
+        <v>130700</v>
       </c>
       <c r="F59" s="3">
-        <v>135600</v>
+        <v>140500</v>
       </c>
       <c r="G59" s="3">
-        <v>282100</v>
+        <v>133000</v>
       </c>
       <c r="H59" s="3">
-        <v>189800</v>
+        <v>276700</v>
       </c>
       <c r="I59" s="3">
-        <v>183100</v>
+        <v>186200</v>
       </c>
       <c r="J59" s="3">
+        <v>179700</v>
+      </c>
+      <c r="K59" s="3">
         <v>181000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>217000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>206900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>264200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>270900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>274000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>249100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>219000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>211000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>221100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>214000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>180000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>169600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>181900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>172000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>179600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>180200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>317500</v>
+        <v>316100</v>
       </c>
       <c r="E60" s="3">
-        <v>335000</v>
+        <v>311500</v>
       </c>
       <c r="F60" s="3">
-        <v>369900</v>
+        <v>328700</v>
       </c>
       <c r="G60" s="3">
-        <v>362100</v>
+        <v>362800</v>
       </c>
       <c r="H60" s="3">
-        <v>370200</v>
+        <v>355200</v>
       </c>
       <c r="I60" s="3">
-        <v>401400</v>
+        <v>363100</v>
       </c>
       <c r="J60" s="3">
+        <v>393700</v>
+      </c>
+      <c r="K60" s="3">
         <v>405900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>539300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>585500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>566500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>388600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>405000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>451700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>447400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>401800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>399700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>401300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>438100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>358300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>349300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>364100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>409900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>364200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>385500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76600</v>
+        <v>77500</v>
       </c>
       <c r="E61" s="3">
-        <v>82400</v>
+        <v>75100</v>
       </c>
       <c r="F61" s="3">
-        <v>73100</v>
+        <v>80900</v>
       </c>
       <c r="G61" s="3">
-        <v>72600</v>
+        <v>71700</v>
       </c>
       <c r="H61" s="3">
-        <v>11400</v>
+        <v>71200</v>
       </c>
       <c r="I61" s="3">
         <v>11100</v>
       </c>
       <c r="J61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4701,11 +4844,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4713,11 +4856,11 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1200</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4725,99 +4868,105 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>1600</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>131500</v>
+      </c>
+      <c r="F62" s="3">
         <v>134000</v>
       </c>
-      <c r="E62" s="3">
-        <v>136600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>138900</v>
-      </c>
       <c r="G62" s="3">
-        <v>220400</v>
+        <v>136200</v>
       </c>
       <c r="H62" s="3">
-        <v>185600</v>
+        <v>216200</v>
       </c>
       <c r="I62" s="3">
-        <v>193700</v>
+        <v>182000</v>
       </c>
       <c r="J62" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K62" s="3">
         <v>185900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>188400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>172200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>176600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>212300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>257400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>260900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>237900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>152700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>181100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>214700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>205900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>192300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>203000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>183900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>175200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>188300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>173700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>550200</v>
+        <v>544100</v>
       </c>
       <c r="E66" s="3">
-        <v>575900</v>
+        <v>539700</v>
       </c>
       <c r="F66" s="3">
-        <v>603400</v>
+        <v>564900</v>
       </c>
       <c r="G66" s="3">
+        <v>591900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>585400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>578400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>616600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>625300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>759700</v>
+      </c>
+      <c r="M66" s="3">
+        <v>791600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>811900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>774200</v>
+      </c>
+      <c r="P66" s="3">
+        <v>637100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>705500</v>
+      </c>
+      <c r="R66" s="3">
+        <v>755600</v>
+      </c>
+      <c r="S66" s="3">
+        <v>727900</v>
+      </c>
+      <c r="T66" s="3">
+        <v>597900</v>
+      </c>
+      <c r="U66" s="3">
+        <v>625900</v>
+      </c>
+      <c r="V66" s="3">
+        <v>658600</v>
+      </c>
+      <c r="W66" s="3">
+        <v>685500</v>
+      </c>
+      <c r="X66" s="3">
+        <v>595000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>596700</v>
       </c>
-      <c r="H66" s="3">
-        <v>589600</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="Z66" s="3">
+        <v>591600</v>
+      </c>
+      <c r="AA66" s="3">
         <v>628600</v>
       </c>
-      <c r="J66" s="3">
-        <v>625300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>759700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>791600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>811900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>774200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>637100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>705500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>755600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>727900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>597900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>625900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>658600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>685500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>595000</v>
-      </c>
-      <c r="X66" s="3">
-        <v>596700</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>591600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>628600</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>597700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>600300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1111600</v>
+        <v>1091700</v>
       </c>
       <c r="E72" s="3">
-        <v>1166300</v>
+        <v>1090400</v>
       </c>
       <c r="F72" s="3">
-        <v>1151000</v>
+        <v>1144100</v>
       </c>
       <c r="G72" s="3">
-        <v>1168200</v>
+        <v>1129000</v>
       </c>
       <c r="H72" s="3">
-        <v>1340200</v>
+        <v>1146000</v>
       </c>
       <c r="I72" s="3">
-        <v>1345600</v>
+        <v>1314700</v>
       </c>
       <c r="J72" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1327200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1285700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1314300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1381700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1342900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1631900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1756300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1755300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1699500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1769200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1861100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1919200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1831500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1558700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1559800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1559900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1528300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1508400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1504600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1531800</v>
+        <v>1512900</v>
       </c>
       <c r="E76" s="3">
-        <v>1647000</v>
+        <v>1502700</v>
       </c>
       <c r="F76" s="3">
-        <v>1640800</v>
+        <v>1615600</v>
       </c>
       <c r="G76" s="3">
-        <v>1602200</v>
+        <v>1609600</v>
       </c>
       <c r="H76" s="3">
-        <v>1607700</v>
+        <v>1571700</v>
       </c>
       <c r="I76" s="3">
-        <v>1605400</v>
+        <v>1577100</v>
       </c>
       <c r="J76" s="3">
+        <v>1574800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1588900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1528700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1513500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1593300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1549400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1809300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1969500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1970800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1939000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1983100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2123200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2221200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2136600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2103700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2133200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2109100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2074900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2018500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2016300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48700</v>
+        <v>4700</v>
       </c>
       <c r="E81" s="3">
-        <v>13200</v>
+        <v>-47800</v>
       </c>
       <c r="F81" s="3">
-        <v>17700</v>
+        <v>13000</v>
       </c>
       <c r="G81" s="3">
-        <v>8200</v>
+        <v>17300</v>
       </c>
       <c r="H81" s="3">
-        <v>14300</v>
+        <v>-20800</v>
       </c>
       <c r="I81" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="J81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-66400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-36600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-66500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>57200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>35600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>25600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22400</v>
+        <v>31000</v>
       </c>
       <c r="E83" s="3">
-        <v>16600</v>
+        <v>21900</v>
       </c>
       <c r="F83" s="3">
-        <v>20300</v>
+        <v>16300</v>
       </c>
       <c r="G83" s="3">
-        <v>-11000</v>
+        <v>19900</v>
       </c>
       <c r="H83" s="3">
-        <v>20400</v>
+        <v>21700</v>
       </c>
       <c r="I83" s="3">
-        <v>18500</v>
+        <v>20000</v>
       </c>
       <c r="J83" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K83" s="3">
         <v>17600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>11900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>11700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10200</v>
+        <v>7900</v>
       </c>
       <c r="E89" s="3">
-        <v>14800</v>
+        <v>10000</v>
       </c>
       <c r="F89" s="3">
-        <v>20900</v>
+        <v>14500</v>
       </c>
       <c r="G89" s="3">
-        <v>-13700</v>
+        <v>20500</v>
       </c>
       <c r="H89" s="3">
-        <v>32300</v>
+        <v>12600</v>
       </c>
       <c r="I89" s="3">
-        <v>71100</v>
+        <v>31700</v>
       </c>
       <c r="J89" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>52800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-76100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>47200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>49000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>66000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>63400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1061000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1489000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1233000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1265000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2943000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2060000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2832000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="O91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>46200</v>
+        <v>-9200</v>
       </c>
       <c r="E94" s="3">
-        <v>-700</v>
+        <v>45400</v>
       </c>
       <c r="F94" s="3">
-        <v>-7500</v>
+        <v>-600</v>
       </c>
       <c r="G94" s="3">
-        <v>9500</v>
+        <v>-7400</v>
       </c>
       <c r="H94" s="3">
-        <v>-11500</v>
+        <v>9700</v>
       </c>
       <c r="I94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="P94" s="3">
+        <v>29900</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>47100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="O94" s="3">
-        <v>29900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>47100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S94" s="3">
-        <v>9200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-17600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-17300</v>
       </c>
       <c r="F96" s="3">
-        <v>-13600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-13300</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-9100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-9700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-21500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-22500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-22000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-44700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-43500</v>
+        <v>-29600</v>
       </c>
       <c r="E100" s="3">
-        <v>-59000</v>
+        <v>-42700</v>
       </c>
       <c r="F100" s="3">
-        <v>-33000</v>
+        <v>-57800</v>
       </c>
       <c r="G100" s="3">
-        <v>-51300</v>
+        <v>-32400</v>
       </c>
       <c r="H100" s="3">
-        <v>-50000</v>
+        <v>-50300</v>
       </c>
       <c r="I100" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-165700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>251800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-75500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-35800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-45100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-68300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>12500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-42200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-59100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-24400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
-        <v>6900</v>
-      </c>
       <c r="G101" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="V101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1700</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="U101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>3400</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="X101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>18500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4900</v>
+        <v>-28000</v>
       </c>
       <c r="E102" s="3">
-        <v>-42200</v>
+        <v>4800</v>
       </c>
       <c r="F102" s="3">
-        <v>-12800</v>
+        <v>-41400</v>
       </c>
       <c r="G102" s="3">
-        <v>-33700</v>
+        <v>-12600</v>
       </c>
       <c r="H102" s="3">
-        <v>-31100</v>
+        <v>-33100</v>
       </c>
       <c r="I102" s="3">
-        <v>52700</v>
+        <v>-30500</v>
       </c>
       <c r="J102" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-175900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>162200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>21400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-61300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>53400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>322200</v>
+        <v>335200</v>
       </c>
       <c r="E8" s="3">
-        <v>334500</v>
+        <v>307000</v>
       </c>
       <c r="F8" s="3">
-        <v>349500</v>
+        <v>318700</v>
       </c>
       <c r="G8" s="3">
-        <v>353500</v>
+        <v>333100</v>
       </c>
       <c r="H8" s="3">
-        <v>303400</v>
+        <v>336800</v>
       </c>
       <c r="I8" s="3">
-        <v>315100</v>
+        <v>289100</v>
       </c>
       <c r="J8" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K8" s="3">
         <v>316000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>312000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>264500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>306000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>347500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>222400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>376400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>387900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>497500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>433400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>430100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>428900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>487200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>448800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>427700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>419800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>481900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>440000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>415700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>413400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>143800</v>
+        <v>143900</v>
       </c>
       <c r="E9" s="3">
-        <v>150700</v>
+        <v>137000</v>
       </c>
       <c r="F9" s="3">
-        <v>151400</v>
+        <v>143600</v>
       </c>
       <c r="G9" s="3">
-        <v>146700</v>
+        <v>144200</v>
       </c>
       <c r="H9" s="3">
-        <v>143500</v>
+        <v>139800</v>
       </c>
       <c r="I9" s="3">
-        <v>137600</v>
+        <v>136700</v>
       </c>
       <c r="J9" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K9" s="3">
         <v>141900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>147100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>103400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>185400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>172400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>225900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>186900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>208300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>195700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>227200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>198900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>213900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>192300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>226900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>198600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>210000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>189200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>178400</v>
+        <v>191300</v>
       </c>
       <c r="E10" s="3">
-        <v>183800</v>
+        <v>170000</v>
       </c>
       <c r="F10" s="3">
-        <v>198200</v>
+        <v>175100</v>
       </c>
       <c r="G10" s="3">
-        <v>206800</v>
+        <v>188800</v>
       </c>
       <c r="H10" s="3">
-        <v>160000</v>
+        <v>197000</v>
       </c>
       <c r="I10" s="3">
-        <v>177500</v>
+        <v>152400</v>
       </c>
       <c r="J10" s="3">
+        <v>169200</v>
+      </c>
+      <c r="K10" s="3">
         <v>174200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>140300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>173200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>191000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>215500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>271600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>246500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>221800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>233100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>260000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>249900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>213800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>227500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>254900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>241400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>205700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>224200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,23 +1104,23 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
-        <v>1100</v>
-      </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>900</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
@@ -1114,53 +1128,56 @@
       <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1800</v>
       </c>
       <c r="Y12" s="3">
         <v>1800</v>
       </c>
       <c r="Z12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1700</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1262,11 +1282,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1274,11 +1294,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>27100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1298,11 +1318,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>53400</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1310,8 +1330,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>335400</v>
+        <v>316400</v>
       </c>
       <c r="E17" s="3">
-        <v>376400</v>
+        <v>319600</v>
       </c>
       <c r="F17" s="3">
-        <v>338500</v>
+        <v>358700</v>
       </c>
       <c r="G17" s="3">
-        <v>335700</v>
+        <v>322500</v>
       </c>
       <c r="H17" s="3">
-        <v>334500</v>
+        <v>319900</v>
       </c>
       <c r="I17" s="3">
-        <v>304300</v>
+        <v>318700</v>
       </c>
       <c r="J17" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K17" s="3">
         <v>300500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>294000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>286400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>302700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>257200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>404400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>385100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>443700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>487800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>408300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>444500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>408800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>432400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>395100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>435900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>416600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>384200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13200</v>
+        <v>18700</v>
       </c>
       <c r="E18" s="3">
-        <v>-41900</v>
+        <v>-12600</v>
       </c>
       <c r="F18" s="3">
-        <v>11000</v>
+        <v>-39900</v>
       </c>
       <c r="G18" s="3">
-        <v>17800</v>
+        <v>10500</v>
       </c>
       <c r="H18" s="3">
-        <v>-31100</v>
+        <v>17000</v>
       </c>
       <c r="I18" s="3">
-        <v>10800</v>
+        <v>-29600</v>
       </c>
       <c r="J18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K18" s="3">
         <v>15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-57700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>40000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>24700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>45900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>40000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>29200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>8800</v>
       </c>
       <c r="E20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>5500</v>
-      </c>
       <c r="G20" s="3">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>7600</v>
       </c>
       <c r="I20" s="3">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="J20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>55000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-19400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-120900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>41200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>9900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>11000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>12200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>24200</v>
+        <v>48200</v>
       </c>
       <c r="E21" s="3">
-        <v>-18700</v>
+        <v>23000</v>
       </c>
       <c r="F21" s="3">
-        <v>32900</v>
+        <v>-17800</v>
       </c>
       <c r="G21" s="3">
-        <v>45700</v>
+        <v>31300</v>
       </c>
       <c r="H21" s="3">
-        <v>-3400</v>
+        <v>43600</v>
       </c>
       <c r="I21" s="3">
-        <v>35500</v>
+        <v>-3200</v>
       </c>
       <c r="J21" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K21" s="3">
         <v>36600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>64800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>62900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>72200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-18100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-87200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>81400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>93700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>46900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>60500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>63300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>12200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>53000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1839,8 +1879,8 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1849,7 +1889,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1861,22 +1901,22 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1885,20 +1925,20 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
@@ -1906,182 +1946,191 @@
         <v>0</v>
       </c>
       <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6900</v>
+        <v>27500</v>
       </c>
       <c r="E23" s="3">
-        <v>-40600</v>
+        <v>-6500</v>
       </c>
       <c r="F23" s="3">
-        <v>16600</v>
+        <v>-38700</v>
       </c>
       <c r="G23" s="3">
-        <v>25800</v>
+        <v>15800</v>
       </c>
       <c r="H23" s="3">
-        <v>-25200</v>
+        <v>24600</v>
       </c>
       <c r="I23" s="3">
-        <v>15400</v>
+        <v>-24000</v>
       </c>
       <c r="J23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K23" s="3">
         <v>18300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-99600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>81100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>34600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>48500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>51000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>41300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11400</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
-        <v>7400</v>
+        <v>-10900</v>
       </c>
       <c r="F24" s="3">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>3300</v>
       </c>
       <c r="H24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
-        <v>4600</v>
-      </c>
       <c r="J24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-17200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-30300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>17500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>18400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>18800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4600</v>
+        <v>19800</v>
       </c>
       <c r="E26" s="3">
-        <v>-48000</v>
+        <v>4400</v>
       </c>
       <c r="F26" s="3">
-        <v>13100</v>
+        <v>-45700</v>
       </c>
       <c r="G26" s="3">
-        <v>17800</v>
+        <v>12500</v>
       </c>
       <c r="H26" s="3">
-        <v>-24000</v>
+        <v>17000</v>
       </c>
       <c r="I26" s="3">
-        <v>10800</v>
+        <v>-22800</v>
       </c>
       <c r="J26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>49200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-36900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-70100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>55300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>18600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>31000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>32600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>22500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4700</v>
+        <v>19500</v>
       </c>
       <c r="E27" s="3">
-        <v>-47800</v>
+        <v>4500</v>
       </c>
       <c r="F27" s="3">
-        <v>13000</v>
+        <v>-45600</v>
       </c>
       <c r="G27" s="3">
-        <v>17300</v>
+        <v>12300</v>
       </c>
       <c r="H27" s="3">
-        <v>-20800</v>
+        <v>16600</v>
       </c>
       <c r="I27" s="3">
-        <v>14000</v>
+        <v>-19800</v>
       </c>
       <c r="J27" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K27" s="3">
         <v>13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>50300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-36600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-66500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>57200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>31600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>35600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>25600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2532,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2489,14 +2550,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>-8800</v>
       </c>
       <c r="E32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-8000</v>
+        <v>-5300</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>-7600</v>
       </c>
       <c r="I32" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="J32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>71700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-55000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>19400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>120900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-41200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-12200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4700</v>
+        <v>19500</v>
       </c>
       <c r="E33" s="3">
-        <v>-47800</v>
+        <v>4500</v>
       </c>
       <c r="F33" s="3">
-        <v>13000</v>
+        <v>-45600</v>
       </c>
       <c r="G33" s="3">
-        <v>17300</v>
+        <v>12300</v>
       </c>
       <c r="H33" s="3">
-        <v>-20800</v>
+        <v>16600</v>
       </c>
       <c r="I33" s="3">
-        <v>14000</v>
+        <v>-19800</v>
       </c>
       <c r="J33" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K33" s="3">
         <v>13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>50300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-36600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-66500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>57200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>31600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>35600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>25600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4700</v>
+        <v>19500</v>
       </c>
       <c r="E35" s="3">
-        <v>-47800</v>
+        <v>4500</v>
       </c>
       <c r="F35" s="3">
-        <v>13000</v>
+        <v>-45600</v>
       </c>
       <c r="G35" s="3">
-        <v>17300</v>
+        <v>12300</v>
       </c>
       <c r="H35" s="3">
-        <v>-20800</v>
+        <v>16600</v>
       </c>
       <c r="I35" s="3">
-        <v>14000</v>
+        <v>-19800</v>
       </c>
       <c r="J35" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K35" s="3">
         <v>13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>50300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-36600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-66500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>57200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>31600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>35600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>25600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>193100</v>
+        <v>163200</v>
       </c>
       <c r="E41" s="3">
-        <v>221100</v>
+        <v>184000</v>
       </c>
       <c r="F41" s="3">
-        <v>216300</v>
+        <v>210700</v>
       </c>
       <c r="G41" s="3">
-        <v>257700</v>
+        <v>206100</v>
       </c>
       <c r="H41" s="3">
-        <v>280300</v>
+        <v>245500</v>
       </c>
       <c r="I41" s="3">
-        <v>324400</v>
+        <v>267100</v>
       </c>
       <c r="J41" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K41" s="3">
         <v>351200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>298900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>460900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>467400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>463500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>385300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>252900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>261800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>241000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>293400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>312700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>325400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>326300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>346700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>305400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>321400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>325700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>325600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>325700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>384500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G42" s="3">
         <v>13000</v>
       </c>
-      <c r="E42" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F42" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>14900</v>
-      </c>
       <c r="H42" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>14200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>1900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>5000</v>
       </c>
       <c r="R42" s="3">
         <v>5000</v>
       </c>
       <c r="S42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T42" s="3">
         <v>3000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>12800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>13000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>17300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>145800</v>
+        <v>139200</v>
       </c>
       <c r="E43" s="3">
-        <v>145200</v>
+        <v>138900</v>
       </c>
       <c r="F43" s="3">
-        <v>152700</v>
+        <v>138400</v>
       </c>
       <c r="G43" s="3">
-        <v>158500</v>
+        <v>145500</v>
       </c>
       <c r="H43" s="3">
-        <v>287200</v>
+        <v>151000</v>
       </c>
       <c r="I43" s="3">
-        <v>131900</v>
+        <v>273700</v>
       </c>
       <c r="J43" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K43" s="3">
         <v>130700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>140200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>122100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>138300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>158000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>126200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>172400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>184400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>249600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>216500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>226800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>249000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>225100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>211700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>181400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>218700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>191400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>204800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>180700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>387300</v>
+        <v>384200</v>
       </c>
       <c r="E44" s="3">
-        <v>374000</v>
+        <v>369100</v>
       </c>
       <c r="F44" s="3">
-        <v>379900</v>
+        <v>356300</v>
       </c>
       <c r="G44" s="3">
-        <v>348300</v>
+        <v>362000</v>
       </c>
       <c r="H44" s="3">
-        <v>657500</v>
+        <v>331900</v>
       </c>
       <c r="I44" s="3">
-        <v>321400</v>
+        <v>626500</v>
       </c>
       <c r="J44" s="3">
+        <v>306200</v>
+      </c>
+      <c r="K44" s="3">
         <v>318500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>327800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>306600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>309200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>339300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>351900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>382600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>402700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>388400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>404000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>389400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>409600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>394200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>395000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>385800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>402300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>398300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>415100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>388700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>385100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22400</v>
+        <v>27600</v>
       </c>
       <c r="E45" s="3">
-        <v>25700</v>
+        <v>21300</v>
       </c>
       <c r="F45" s="3">
-        <v>35700</v>
+        <v>24500</v>
       </c>
       <c r="G45" s="3">
-        <v>25700</v>
+        <v>34000</v>
       </c>
       <c r="H45" s="3">
-        <v>25800</v>
+        <v>24500</v>
       </c>
       <c r="I45" s="3">
-        <v>32000</v>
+        <v>24600</v>
       </c>
       <c r="J45" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>51500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>56300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>75400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>56500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>67700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>61500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>39500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>45600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>38700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>70600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>77500</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>69500</v>
       </c>
       <c r="AD45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>761500</v>
+        <v>734000</v>
       </c>
       <c r="E46" s="3">
-        <v>778800</v>
+        <v>725600</v>
       </c>
       <c r="F46" s="3">
-        <v>798200</v>
+        <v>742100</v>
       </c>
       <c r="G46" s="3">
-        <v>805000</v>
+        <v>760500</v>
       </c>
       <c r="H46" s="3">
-        <v>784700</v>
+        <v>767000</v>
       </c>
       <c r="I46" s="3">
-        <v>809600</v>
+        <v>747700</v>
       </c>
       <c r="J46" s="3">
+        <v>771400</v>
+      </c>
+      <c r="K46" s="3">
         <v>831300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>837300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>950900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>978500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1016400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>930000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>865100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>910200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>941300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>992300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>989400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1008500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1042400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1055200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>956500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>963500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>994400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1014800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1009500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1037200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>509700</v>
+        <v>532200</v>
       </c>
       <c r="E47" s="3">
-        <v>490900</v>
+        <v>485700</v>
       </c>
       <c r="F47" s="3">
-        <v>512100</v>
+        <v>467800</v>
       </c>
       <c r="G47" s="3">
-        <v>515600</v>
+        <v>487900</v>
       </c>
       <c r="H47" s="3">
-        <v>1018400</v>
+        <v>491300</v>
       </c>
       <c r="I47" s="3">
-        <v>502000</v>
+        <v>970400</v>
       </c>
       <c r="J47" s="3">
+        <v>478300</v>
+      </c>
+      <c r="K47" s="3">
         <v>516300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>525700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>516200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>506500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>513900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>508000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>577000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>715800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>736500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>748300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>780700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>793600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>900700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>854800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>830100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>845000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>781800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>770600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>715900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>707400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>446400</v>
+        <v>426700</v>
       </c>
       <c r="E48" s="3">
-        <v>441900</v>
+        <v>425400</v>
       </c>
       <c r="F48" s="3">
-        <v>461500</v>
+        <v>421000</v>
       </c>
       <c r="G48" s="3">
-        <v>473800</v>
+        <v>439700</v>
       </c>
       <c r="H48" s="3">
-        <v>941800</v>
+        <v>451500</v>
       </c>
       <c r="I48" s="3">
-        <v>453200</v>
+        <v>897400</v>
       </c>
       <c r="J48" s="3">
+        <v>431800</v>
+      </c>
+      <c r="K48" s="3">
         <v>458000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>456700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>443000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>458700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>492400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>504800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>578100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>602900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>609400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>610900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>488000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>504800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>499100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>490900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>491200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>494000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>496700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>498500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>490400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>486800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>211200</v>
+        <v>212100</v>
       </c>
       <c r="E49" s="3">
-        <v>210700</v>
+        <v>201300</v>
       </c>
       <c r="F49" s="3">
-        <v>290900</v>
+        <v>200800</v>
       </c>
       <c r="G49" s="3">
-        <v>290600</v>
+        <v>277200</v>
       </c>
       <c r="H49" s="3">
-        <v>554900</v>
+        <v>276900</v>
       </c>
       <c r="I49" s="3">
-        <v>266000</v>
+        <v>528700</v>
       </c>
       <c r="J49" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K49" s="3">
         <v>260300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>267600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>258000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>270600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>286900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>285700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>325200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>349300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>338400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>214500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>222100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>276100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>275800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>264000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>266300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>267300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>265000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>258900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>247700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>248500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,55 +4244,58 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>128100</v>
+        <v>133600</v>
       </c>
       <c r="E52" s="3">
-        <v>120000</v>
+        <v>124500</v>
       </c>
       <c r="F52" s="3">
-        <v>117900</v>
+        <v>114400</v>
       </c>
       <c r="G52" s="3">
-        <v>116400</v>
+        <v>112300</v>
       </c>
       <c r="H52" s="3">
-        <v>250600</v>
+        <v>110900</v>
       </c>
       <c r="I52" s="3">
-        <v>124700</v>
+        <v>238800</v>
       </c>
       <c r="J52" s="3">
+        <v>118800</v>
+      </c>
+      <c r="K52" s="3">
         <v>125600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>126900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>96800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100800</v>
       </c>
       <c r="S52" s="3">
         <v>100800</v>
@@ -4184,37 +4304,40 @@
         <v>100800</v>
       </c>
       <c r="U52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="V52" s="3">
         <v>166300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>161900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>157100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>154600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>160000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>162800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>160700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>152800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>136700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2057000</v>
+        <v>2038500</v>
       </c>
       <c r="E54" s="3">
-        <v>2042300</v>
+        <v>1962500</v>
       </c>
       <c r="F54" s="3">
-        <v>2180500</v>
+        <v>1946000</v>
       </c>
       <c r="G54" s="3">
-        <v>2201400</v>
+        <v>2077700</v>
       </c>
       <c r="H54" s="3">
-        <v>2157100</v>
+        <v>2097600</v>
       </c>
       <c r="I54" s="3">
-        <v>2155500</v>
+        <v>2055300</v>
       </c>
       <c r="J54" s="3">
+        <v>2053800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2191400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2214200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2288400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2305100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2405200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2323600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2446400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2675000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2726400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2666900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2581000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2749200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2879800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2822100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2698700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2729900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2700600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2703500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2616300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2616600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,397 +4579,410 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>126400</v>
+        <v>106500</v>
       </c>
       <c r="E57" s="3">
-        <v>106800</v>
+        <v>120500</v>
       </c>
       <c r="F57" s="3">
-        <v>115400</v>
+        <v>101800</v>
       </c>
       <c r="G57" s="3">
-        <v>115200</v>
+        <v>110000</v>
       </c>
       <c r="H57" s="3">
-        <v>197300</v>
+        <v>109800</v>
       </c>
       <c r="I57" s="3">
-        <v>63800</v>
+        <v>188000</v>
       </c>
       <c r="J57" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K57" s="3">
         <v>65100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>94300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>97200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>106500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>107000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>108000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>111300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>112700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>111300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>113600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>112100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>112800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>124600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>115700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>116600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69700</v>
+        <v>70400</v>
       </c>
       <c r="E58" s="3">
-        <v>73900</v>
+        <v>66400</v>
       </c>
       <c r="F58" s="3">
-        <v>72700</v>
+        <v>70500</v>
       </c>
       <c r="G58" s="3">
-        <v>114600</v>
+        <v>69300</v>
       </c>
       <c r="H58" s="3">
-        <v>184900</v>
+        <v>109200</v>
       </c>
       <c r="I58" s="3">
-        <v>113100</v>
+        <v>176200</v>
       </c>
       <c r="J58" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K58" s="3">
         <v>149000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>152000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>288600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>304700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>324500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>296400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>71200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>91400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>74800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>77400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>67500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>112800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>64700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>67700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>69300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>113300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>68900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>88600</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>120000</v>
+        <v>110200</v>
       </c>
       <c r="E59" s="3">
-        <v>130700</v>
+        <v>114400</v>
       </c>
       <c r="F59" s="3">
-        <v>140500</v>
+        <v>124600</v>
       </c>
       <c r="G59" s="3">
-        <v>133000</v>
+        <v>133900</v>
       </c>
       <c r="H59" s="3">
-        <v>276700</v>
+        <v>126800</v>
       </c>
       <c r="I59" s="3">
-        <v>186200</v>
+        <v>263600</v>
       </c>
       <c r="J59" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K59" s="3">
         <v>179700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>181000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>217000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>206900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>264200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>270900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>274000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>249100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>219000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>211000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>221100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>214000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>180000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>169600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>181900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>172000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>179600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>180200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316100</v>
+        <v>287000</v>
       </c>
       <c r="E60" s="3">
-        <v>311500</v>
+        <v>301200</v>
       </c>
       <c r="F60" s="3">
-        <v>328700</v>
+        <v>296800</v>
       </c>
       <c r="G60" s="3">
-        <v>362800</v>
+        <v>313200</v>
       </c>
       <c r="H60" s="3">
-        <v>355200</v>
+        <v>345700</v>
       </c>
       <c r="I60" s="3">
-        <v>363100</v>
+        <v>338500</v>
       </c>
       <c r="J60" s="3">
+        <v>346000</v>
+      </c>
+      <c r="K60" s="3">
         <v>393700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>405900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>539300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>585500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>566500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>388600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>405000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>451700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>447400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>401800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>399700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>401300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>438100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>358300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>349300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>364100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>409900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>364200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>385500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77500</v>
+        <v>74300</v>
       </c>
       <c r="E61" s="3">
-        <v>75100</v>
+        <v>73900</v>
       </c>
       <c r="F61" s="3">
-        <v>80900</v>
+        <v>71600</v>
       </c>
       <c r="G61" s="3">
-        <v>71700</v>
+        <v>77000</v>
       </c>
       <c r="H61" s="3">
-        <v>71200</v>
+        <v>68300</v>
       </c>
       <c r="I61" s="3">
-        <v>11100</v>
+        <v>67900</v>
       </c>
       <c r="J61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4847,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4859,11 +5002,11 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1200</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4871,102 +5014,108 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>1600</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126800</v>
+        <v>135800</v>
       </c>
       <c r="E62" s="3">
-        <v>131500</v>
+        <v>120800</v>
       </c>
       <c r="F62" s="3">
-        <v>134000</v>
+        <v>125300</v>
       </c>
       <c r="G62" s="3">
-        <v>136200</v>
+        <v>127700</v>
       </c>
       <c r="H62" s="3">
-        <v>216200</v>
+        <v>129800</v>
       </c>
       <c r="I62" s="3">
-        <v>182000</v>
+        <v>206000</v>
       </c>
       <c r="J62" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K62" s="3">
         <v>190000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>185900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>188400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>172200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>176600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>172000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>212300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>257400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>260900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>237900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>152700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>181100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>214700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>205900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>192300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>203000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>183900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>175200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>188300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>173700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>544100</v>
+        <v>520900</v>
       </c>
       <c r="E66" s="3">
-        <v>539700</v>
+        <v>518400</v>
       </c>
       <c r="F66" s="3">
-        <v>564900</v>
+        <v>514200</v>
       </c>
       <c r="G66" s="3">
-        <v>591900</v>
+        <v>538300</v>
       </c>
       <c r="H66" s="3">
-        <v>585400</v>
+        <v>564000</v>
       </c>
       <c r="I66" s="3">
-        <v>578400</v>
+        <v>557800</v>
       </c>
       <c r="J66" s="3">
+        <v>551100</v>
+      </c>
+      <c r="K66" s="3">
         <v>616600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>625300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>759700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>791600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>811900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>774200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>637100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>705500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>755600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>727900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>597900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>625900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>658600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>685500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>595000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>596700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>591600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>628600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>597700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>600300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1091700</v>
+        <v>987400</v>
       </c>
       <c r="E72" s="3">
-        <v>1090400</v>
+        <v>1042700</v>
       </c>
       <c r="F72" s="3">
-        <v>1144100</v>
+        <v>1039000</v>
       </c>
       <c r="G72" s="3">
-        <v>1129000</v>
+        <v>1090100</v>
       </c>
       <c r="H72" s="3">
-        <v>1146000</v>
+        <v>1075800</v>
       </c>
       <c r="I72" s="3">
-        <v>1314700</v>
+        <v>1091900</v>
       </c>
       <c r="J72" s="3">
+        <v>1252700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1320000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1327200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1285700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1314300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1381700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1342900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1631900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1756300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1755300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1699500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1769200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1861100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1919200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1831500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1558700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1559800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1559900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1528300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1508400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1504600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1512900</v>
+        <v>1517600</v>
       </c>
       <c r="E76" s="3">
-        <v>1502700</v>
+        <v>1444100</v>
       </c>
       <c r="F76" s="3">
-        <v>1615600</v>
+        <v>1431800</v>
       </c>
       <c r="G76" s="3">
-        <v>1609600</v>
+        <v>1539400</v>
       </c>
       <c r="H76" s="3">
-        <v>1571700</v>
+        <v>1533700</v>
       </c>
       <c r="I76" s="3">
-        <v>1577100</v>
+        <v>1497600</v>
       </c>
       <c r="J76" s="3">
+        <v>1502800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1574800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1588900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1528700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1513500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1593300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1549400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1809300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1969500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1970800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1939000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1983100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2123200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2221200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2136600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2103700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2133200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2109100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2074900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2018500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2016300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4700</v>
+        <v>19500</v>
       </c>
       <c r="E81" s="3">
-        <v>-47800</v>
+        <v>4500</v>
       </c>
       <c r="F81" s="3">
-        <v>13000</v>
+        <v>-45600</v>
       </c>
       <c r="G81" s="3">
-        <v>17300</v>
+        <v>12300</v>
       </c>
       <c r="H81" s="3">
-        <v>-20800</v>
+        <v>16600</v>
       </c>
       <c r="I81" s="3">
-        <v>14000</v>
+        <v>-19800</v>
       </c>
       <c r="J81" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K81" s="3">
         <v>13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>50300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-36600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-66500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>57200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>31600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>35600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>25600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31000</v>
+        <v>20700</v>
       </c>
       <c r="E83" s="3">
-        <v>21900</v>
+        <v>29600</v>
       </c>
       <c r="F83" s="3">
-        <v>16300</v>
+        <v>20900</v>
       </c>
       <c r="G83" s="3">
-        <v>19900</v>
+        <v>15500</v>
       </c>
       <c r="H83" s="3">
-        <v>21700</v>
+        <v>19000</v>
       </c>
       <c r="I83" s="3">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="J83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K83" s="3">
         <v>18100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>13800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>11900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>11700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7900</v>
+        <v>6700</v>
       </c>
       <c r="E89" s="3">
-        <v>10000</v>
+        <v>7600</v>
       </c>
       <c r="F89" s="3">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="G89" s="3">
-        <v>20500</v>
+        <v>13900</v>
       </c>
       <c r="H89" s="3">
-        <v>12600</v>
+        <v>19500</v>
       </c>
       <c r="I89" s="3">
-        <v>31700</v>
+        <v>12000</v>
       </c>
       <c r="J89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K89" s="3">
         <v>69800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>52800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-76100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>54900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>50500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>47200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>49000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>66000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>63400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-996000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1061000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1489000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1233000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1265000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2943000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2060000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2832000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9200</v>
+        <v>-12100</v>
       </c>
       <c r="E94" s="3">
-        <v>45400</v>
+        <v>-8700</v>
       </c>
       <c r="F94" s="3">
+        <v>43200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H94" s="3">
-        <v>9700</v>
+        <v>-7100</v>
       </c>
       <c r="I94" s="3">
-        <v>-11300</v>
+        <v>9200</v>
       </c>
       <c r="J94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>29900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>47100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>9200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-15900</v>
       </c>
       <c r="E96" s="3">
-        <v>-17300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-16500</v>
       </c>
       <c r="G96" s="3">
-        <v>-13300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="I96" s="3">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-9200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-9100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-9700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-23300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-21500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-22500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-22000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-22100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-44700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29600</v>
+        <v>-21500</v>
       </c>
       <c r="E100" s="3">
-        <v>-42700</v>
+        <v>-28200</v>
       </c>
       <c r="F100" s="3">
-        <v>-57800</v>
+        <v>-40700</v>
       </c>
       <c r="G100" s="3">
-        <v>-32400</v>
+        <v>-55100</v>
       </c>
       <c r="H100" s="3">
-        <v>-50300</v>
+        <v>-30900</v>
       </c>
       <c r="I100" s="3">
-        <v>-49100</v>
+        <v>-47900</v>
       </c>
       <c r="J100" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-165700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>251800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-75500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-35800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-17200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-68300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-42200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-59100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-24400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>6100</v>
       </c>
       <c r="E101" s="3">
-        <v>-7800</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="W101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="X101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="Z101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="V101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>3400</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>18500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28000</v>
+        <v>-20800</v>
       </c>
       <c r="E102" s="3">
-        <v>4800</v>
+        <v>-26700</v>
       </c>
       <c r="F102" s="3">
-        <v>-41400</v>
+        <v>4600</v>
       </c>
       <c r="G102" s="3">
-        <v>-12600</v>
+        <v>-39400</v>
       </c>
       <c r="H102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>51700</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-175900</v>
+      </c>
+      <c r="M102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N102" s="3">
+        <v>27400</v>
+      </c>
+      <c r="O102" s="3">
+        <v>77600</v>
+      </c>
+      <c r="P102" s="3">
+        <v>162200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>200</v>
+      </c>
+      <c r="R102" s="3">
+        <v>21400</v>
+      </c>
+      <c r="S102" s="3">
         <v>-33100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-30500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>51700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-175900</v>
-      </c>
-      <c r="L102" s="3">
-        <v>8000</v>
-      </c>
-      <c r="M102" s="3">
-        <v>27400</v>
-      </c>
-      <c r="N102" s="3">
-        <v>77600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>162200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>21400</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-61300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>53400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WACLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>WACLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>335200</v>
+        <v>307700</v>
       </c>
       <c r="E8" s="3">
-        <v>307000</v>
+        <v>324000</v>
       </c>
       <c r="F8" s="3">
-        <v>318700</v>
+        <v>296700</v>
       </c>
       <c r="G8" s="3">
-        <v>333100</v>
+        <v>308100</v>
       </c>
       <c r="H8" s="3">
-        <v>336800</v>
+        <v>321900</v>
       </c>
       <c r="I8" s="3">
-        <v>289100</v>
+        <v>325500</v>
       </c>
       <c r="J8" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K8" s="3">
         <v>300200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>316000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>312000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>306000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>347500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>222400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>376400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>387900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>497500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>433400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>430100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>428900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>487200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>448800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>427700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>419800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>481900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>440000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>415700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>413400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>478700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>143900</v>
+        <v>136200</v>
       </c>
       <c r="E9" s="3">
-        <v>137000</v>
+        <v>139000</v>
       </c>
       <c r="F9" s="3">
-        <v>143600</v>
+        <v>132400</v>
       </c>
       <c r="G9" s="3">
-        <v>144200</v>
+        <v>138800</v>
       </c>
       <c r="H9" s="3">
-        <v>139800</v>
+        <v>139400</v>
       </c>
       <c r="I9" s="3">
-        <v>136700</v>
+        <v>135100</v>
       </c>
       <c r="J9" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K9" s="3">
         <v>131100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>141900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>129300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>147100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>103400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>185400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>172400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>225900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>186900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>208300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>195700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>227200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>198900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>213900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>192300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>226900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>198600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>210000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>189200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>225700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>191300</v>
+        <v>171500</v>
       </c>
       <c r="E10" s="3">
-        <v>170000</v>
+        <v>184900</v>
       </c>
       <c r="F10" s="3">
-        <v>175100</v>
+        <v>164300</v>
       </c>
       <c r="G10" s="3">
-        <v>188800</v>
+        <v>169300</v>
       </c>
       <c r="H10" s="3">
-        <v>197000</v>
+        <v>182500</v>
       </c>
       <c r="I10" s="3">
-        <v>152400</v>
+        <v>190400</v>
       </c>
       <c r="J10" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K10" s="3">
         <v>169200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>174200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>140300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>173200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>191000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>215500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>271600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>246500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>221800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>233100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>260000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>249900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>213800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>227500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>254900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>241400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>205700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>224200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>253000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1107,23 +1121,23 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>900</v>
       </c>
       <c r="O12" s="3">
         <v>900</v>
@@ -1131,53 +1145,56 @@
       <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3">
+        <v>900</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1800</v>
       </c>
       <c r="Z12" s="3">
         <v>1800</v>
       </c>
       <c r="AA12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB12" s="3">
         <v>1700</v>
       </c>
-      <c r="AB12" s="3" t="s">
+      <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1900</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,19 +1282,22 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>1000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1285,11 +1305,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1297,11 +1317,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>27100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1321,11 +1341,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>53400</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1333,8 +1353,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>316400</v>
+        <v>356800</v>
       </c>
       <c r="E17" s="3">
-        <v>319600</v>
+        <v>305900</v>
       </c>
       <c r="F17" s="3">
-        <v>358700</v>
+        <v>308900</v>
       </c>
       <c r="G17" s="3">
-        <v>322500</v>
+        <v>346700</v>
       </c>
       <c r="H17" s="3">
-        <v>319900</v>
+        <v>311700</v>
       </c>
       <c r="I17" s="3">
-        <v>318700</v>
+        <v>309100</v>
       </c>
       <c r="J17" s="3">
+        <v>308000</v>
+      </c>
+      <c r="K17" s="3">
         <v>290000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>294000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>286400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>302700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>257200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>404400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>385100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>443700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>487800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>408300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>444500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>408800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>432400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>395100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>435900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>416600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>384200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>433400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18700</v>
+        <v>-49100</v>
       </c>
       <c r="E18" s="3">
-        <v>-12600</v>
+        <v>18100</v>
       </c>
       <c r="F18" s="3">
-        <v>-39900</v>
+        <v>-12200</v>
       </c>
       <c r="G18" s="3">
-        <v>10500</v>
+        <v>-38600</v>
       </c>
       <c r="H18" s="3">
-        <v>17000</v>
+        <v>10200</v>
       </c>
       <c r="I18" s="3">
-        <v>-29600</v>
+        <v>16400</v>
       </c>
       <c r="J18" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>44800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-57700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>40000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>24700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>45900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>40000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>29200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8800</v>
+        <v>4400</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
-        <v>5300</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="J20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>33800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-71700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>55000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-19400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-120900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>26000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>41200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>11000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>12200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>48200</v>
+        <v>-25500</v>
       </c>
       <c r="E21" s="3">
-        <v>23000</v>
+        <v>46600</v>
       </c>
       <c r="F21" s="3">
-        <v>-17800</v>
+        <v>22300</v>
       </c>
       <c r="G21" s="3">
-        <v>31300</v>
+        <v>-17200</v>
       </c>
       <c r="H21" s="3">
-        <v>43600</v>
+        <v>30300</v>
       </c>
       <c r="I21" s="3">
-        <v>-3200</v>
+        <v>42100</v>
       </c>
       <c r="J21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K21" s="3">
         <v>33800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>64800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>62900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-85400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>72200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>26700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-87200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>81400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>46900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>60500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>63300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>12200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>53000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1882,8 +1922,8 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1892,7 +1932,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1904,22 +1944,22 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1928,20 +1968,20 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
@@ -1949,188 +1989,197 @@
         <v>0</v>
       </c>
       <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27500</v>
+        <v>-44800</v>
       </c>
       <c r="E23" s="3">
-        <v>-6500</v>
+        <v>26600</v>
       </c>
       <c r="F23" s="3">
-        <v>-38700</v>
+        <v>-6300</v>
       </c>
       <c r="G23" s="3">
-        <v>15800</v>
+        <v>-37400</v>
       </c>
       <c r="H23" s="3">
-        <v>24600</v>
+        <v>15300</v>
       </c>
       <c r="I23" s="3">
-        <v>-24000</v>
+        <v>23800</v>
       </c>
       <c r="J23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="K23" s="3">
         <v>14700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-99600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>71700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-31900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>68700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>81100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>34600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>48500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>51000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>41300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
-        <v>-10900</v>
+        <v>7400</v>
       </c>
       <c r="F24" s="3">
-        <v>7000</v>
+        <v>-10500</v>
       </c>
       <c r="G24" s="3">
-        <v>3300</v>
+        <v>6800</v>
       </c>
       <c r="H24" s="3">
-        <v>7600</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>-1200</v>
+        <v>7300</v>
       </c>
       <c r="J24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-17200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-30300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-30300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>18400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>18800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>19800</v>
+        <v>-48300</v>
       </c>
       <c r="E26" s="3">
-        <v>4400</v>
+        <v>19200</v>
       </c>
       <c r="F26" s="3">
-        <v>-45700</v>
+        <v>4200</v>
       </c>
       <c r="G26" s="3">
-        <v>12500</v>
+        <v>-44200</v>
       </c>
       <c r="H26" s="3">
-        <v>17000</v>
+        <v>12100</v>
       </c>
       <c r="I26" s="3">
-        <v>-22800</v>
+        <v>16400</v>
       </c>
       <c r="J26" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="K26" s="3">
         <v>10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-69400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>49200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-36900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-70100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>55300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>18600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>31000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>32600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>22500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>32900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19500</v>
+        <v>-48100</v>
       </c>
       <c r="E27" s="3">
-        <v>4500</v>
+        <v>18900</v>
       </c>
       <c r="F27" s="3">
-        <v>-45600</v>
+        <v>4300</v>
       </c>
       <c r="G27" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="H27" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>13300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>12300</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-66400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>50300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-36600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-66500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>47400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>57200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>31600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>35600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>25600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2553,14 +2614,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-2900</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8800</v>
+        <v>-4400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>-8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-5900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5300</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-7600</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5700</v>
+        <v>-7400</v>
       </c>
       <c r="J32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-33800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>71700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-55000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>19400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>120900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-26000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-41200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-11000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-12200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19500</v>
+        <v>-48100</v>
       </c>
       <c r="E33" s="3">
-        <v>4500</v>
+        <v>18900</v>
       </c>
       <c r="F33" s="3">
-        <v>-45600</v>
+        <v>4300</v>
       </c>
       <c r="G33" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="H33" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>13300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>12300</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-66400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>50300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-36600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-66500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>47400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>57200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>31600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>35600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>25600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19500</v>
+        <v>-48100</v>
       </c>
       <c r="E35" s="3">
-        <v>4500</v>
+        <v>18900</v>
       </c>
       <c r="F35" s="3">
-        <v>-45600</v>
+        <v>4300</v>
       </c>
       <c r="G35" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="H35" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>13300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>12300</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-66400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>50300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-36600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-66500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>47400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>57200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>31600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>35600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>25600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>163200</v>
+        <v>201400</v>
       </c>
       <c r="E41" s="3">
-        <v>184000</v>
+        <v>157700</v>
       </c>
       <c r="F41" s="3">
-        <v>210700</v>
+        <v>177800</v>
       </c>
       <c r="G41" s="3">
-        <v>206100</v>
+        <v>203600</v>
       </c>
       <c r="H41" s="3">
-        <v>245500</v>
+        <v>199200</v>
       </c>
       <c r="I41" s="3">
-        <v>267100</v>
+        <v>237300</v>
       </c>
       <c r="J41" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K41" s="3">
         <v>309100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>351200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>298900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>460900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>467400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>463500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>385300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>252900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>261800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>241000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>293400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>312700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>325400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>326300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>346700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>305400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>321400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>325700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>325600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>325700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>384500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>330700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19800</v>
+        <v>14600</v>
       </c>
       <c r="E42" s="3">
-        <v>12400</v>
+        <v>19100</v>
       </c>
       <c r="F42" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="G42" s="3">
-        <v>13000</v>
+        <v>11800</v>
       </c>
       <c r="H42" s="3">
-        <v>14200</v>
+        <v>12600</v>
       </c>
       <c r="I42" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>13700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>1900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5800</v>
-      </c>
-      <c r="R42" s="3">
-        <v>5000</v>
       </c>
       <c r="S42" s="3">
         <v>5000</v>
       </c>
       <c r="T42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U42" s="3">
         <v>3000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>12800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>13000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>12900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>17300</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>139200</v>
+        <v>129600</v>
       </c>
       <c r="E43" s="3">
-        <v>138900</v>
+        <v>134600</v>
       </c>
       <c r="F43" s="3">
-        <v>138400</v>
+        <v>134200</v>
       </c>
       <c r="G43" s="3">
-        <v>145500</v>
+        <v>133700</v>
       </c>
       <c r="H43" s="3">
-        <v>151000</v>
+        <v>140600</v>
       </c>
       <c r="I43" s="3">
-        <v>273700</v>
+        <v>145900</v>
       </c>
       <c r="J43" s="3">
+        <v>264500</v>
+      </c>
+      <c r="K43" s="3">
         <v>125600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>140200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>122100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>138300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>158000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>126200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>172400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>184400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>249600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>216500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>226800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>249000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>225100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>211700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>181400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>218700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>191400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>204800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>180700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>213100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>384200</v>
+        <v>374100</v>
       </c>
       <c r="E44" s="3">
-        <v>369100</v>
+        <v>371300</v>
       </c>
       <c r="F44" s="3">
-        <v>356300</v>
+        <v>356700</v>
       </c>
       <c r="G44" s="3">
-        <v>362000</v>
+        <v>344400</v>
       </c>
       <c r="H44" s="3">
-        <v>331900</v>
+        <v>349800</v>
       </c>
       <c r="I44" s="3">
-        <v>626500</v>
+        <v>320800</v>
       </c>
       <c r="J44" s="3">
+        <v>605500</v>
+      </c>
+      <c r="K44" s="3">
         <v>306200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>318500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>327800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>306600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>309200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>339300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>351900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>382600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>402700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>388400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>404000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>389400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>409600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>394200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>395000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>385800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>402300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>398300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>415100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>388700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>385100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>373400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="E45" s="3">
-        <v>21300</v>
+        <v>26700</v>
       </c>
       <c r="F45" s="3">
-        <v>24500</v>
+        <v>20600</v>
       </c>
       <c r="G45" s="3">
-        <v>34000</v>
+        <v>23700</v>
       </c>
       <c r="H45" s="3">
-        <v>24500</v>
+        <v>32800</v>
       </c>
       <c r="I45" s="3">
-        <v>24600</v>
+        <v>23700</v>
       </c>
       <c r="J45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K45" s="3">
         <v>30400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>59900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>51500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>56300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>75400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>56500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>67700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>61500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>39500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>45600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>38700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>70600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>77500</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>69500</v>
       </c>
       <c r="AE45" s="3">
         <v>69500</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>734000</v>
+        <v>747000</v>
       </c>
       <c r="E46" s="3">
-        <v>725600</v>
+        <v>709500</v>
       </c>
       <c r="F46" s="3">
-        <v>742100</v>
+        <v>701300</v>
       </c>
       <c r="G46" s="3">
-        <v>760500</v>
+        <v>717300</v>
       </c>
       <c r="H46" s="3">
-        <v>767000</v>
+        <v>735100</v>
       </c>
       <c r="I46" s="3">
-        <v>747700</v>
+        <v>741400</v>
       </c>
       <c r="J46" s="3">
+        <v>722700</v>
+      </c>
+      <c r="K46" s="3">
         <v>771400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>831300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>837300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>950900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>978500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1016400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>930000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>865100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>910200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>941300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>992300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>989400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1008500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1042400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1055200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>956500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>963500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>994400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1014800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1009500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1037200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1008100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>532200</v>
+        <v>472500</v>
       </c>
       <c r="E47" s="3">
-        <v>485700</v>
+        <v>514400</v>
       </c>
       <c r="F47" s="3">
-        <v>467800</v>
+        <v>469400</v>
       </c>
       <c r="G47" s="3">
-        <v>487900</v>
+        <v>452100</v>
       </c>
       <c r="H47" s="3">
-        <v>491300</v>
+        <v>471600</v>
       </c>
       <c r="I47" s="3">
-        <v>970400</v>
+        <v>474900</v>
       </c>
       <c r="J47" s="3">
+        <v>937900</v>
+      </c>
+      <c r="K47" s="3">
         <v>478300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>516300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>525700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>516200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>506500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>513900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>508000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>577000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>715800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>736500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>748300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>780700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>793600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>900700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>854800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>830100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>845000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>781800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>770600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>715900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>707400</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>426700</v>
+        <v>408000</v>
       </c>
       <c r="E48" s="3">
-        <v>425400</v>
+        <v>412400</v>
       </c>
       <c r="F48" s="3">
-        <v>421000</v>
+        <v>411100</v>
       </c>
       <c r="G48" s="3">
-        <v>439700</v>
+        <v>407000</v>
       </c>
       <c r="H48" s="3">
-        <v>451500</v>
+        <v>425000</v>
       </c>
       <c r="I48" s="3">
-        <v>897400</v>
+        <v>436400</v>
       </c>
       <c r="J48" s="3">
+        <v>867400</v>
+      </c>
+      <c r="K48" s="3">
         <v>431800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>458000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>456700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>443000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>458700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>492400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>504800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>578100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>602900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>609400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>610900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>488000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>504800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>499100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>490900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>491200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>494000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>496700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>498500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>490400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>486800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>485700</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>212100</v>
+        <v>158700</v>
       </c>
       <c r="E49" s="3">
-        <v>201300</v>
+        <v>205000</v>
       </c>
       <c r="F49" s="3">
-        <v>200800</v>
+        <v>194500</v>
       </c>
       <c r="G49" s="3">
-        <v>277200</v>
+        <v>194000</v>
       </c>
       <c r="H49" s="3">
-        <v>276900</v>
+        <v>267900</v>
       </c>
       <c r="I49" s="3">
-        <v>528700</v>
+        <v>267600</v>
       </c>
       <c r="J49" s="3">
+        <v>511000</v>
+      </c>
+      <c r="K49" s="3">
         <v>253500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>260300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>267600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>258000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>270600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>286900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>285700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>325200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>349300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>338400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>214500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>222100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>276100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>275800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>264000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>266300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>267300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>265000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>258900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>247700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>248500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>234500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,58 +4364,61 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133600</v>
+        <v>125700</v>
       </c>
       <c r="E52" s="3">
-        <v>124500</v>
+        <v>129100</v>
       </c>
       <c r="F52" s="3">
-        <v>114400</v>
+        <v>120400</v>
       </c>
       <c r="G52" s="3">
-        <v>112300</v>
+        <v>110500</v>
       </c>
       <c r="H52" s="3">
-        <v>110900</v>
+        <v>108500</v>
       </c>
       <c r="I52" s="3">
-        <v>238800</v>
+        <v>107200</v>
       </c>
       <c r="J52" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K52" s="3">
         <v>118800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>125600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>126900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>120200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>96800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100800</v>
       </c>
       <c r="T52" s="3">
         <v>100800</v>
@@ -4307,37 +4427,40 @@
         <v>100800</v>
       </c>
       <c r="V52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="W52" s="3">
         <v>166300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>161900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>157100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>154600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>160000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>162800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>160700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>152800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>136700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2038500</v>
+        <v>1912000</v>
       </c>
       <c r="E54" s="3">
-        <v>1962500</v>
+        <v>1970300</v>
       </c>
       <c r="F54" s="3">
-        <v>1946000</v>
+        <v>1896800</v>
       </c>
       <c r="G54" s="3">
-        <v>2077700</v>
+        <v>1880900</v>
       </c>
       <c r="H54" s="3">
-        <v>2097600</v>
+        <v>2008100</v>
       </c>
       <c r="I54" s="3">
-        <v>2055300</v>
+        <v>2027400</v>
       </c>
       <c r="J54" s="3">
+        <v>1986500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2053800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2191400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2214200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2288400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2305100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2405200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2323600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2446400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2675000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2726400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2666900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2581000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2749200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2879800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2822100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2698700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2729900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2700600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2703500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2616300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2616600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2518400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,412 +4710,425 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>102900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>116400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>98300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>106300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>106100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>181700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>60800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>65100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>72900</v>
+      </c>
+      <c r="N57" s="3">
+        <v>67000</v>
+      </c>
+      <c r="O57" s="3">
+        <v>63700</v>
+      </c>
+      <c r="P57" s="3">
+        <v>69000</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>68000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>94300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>97200</v>
+      </c>
+      <c r="T57" s="3">
         <v>106500</v>
       </c>
-      <c r="E57" s="3">
-        <v>120500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>101800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>110000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>109800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>188000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>60800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>65100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>72900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>67000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>63700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>69000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>68000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>94300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>97200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>106500</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>107000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>108000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>111300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>112700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>111300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>113600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>112100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>112800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>124600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>115700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>116600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>70400</v>
+        <v>77400</v>
       </c>
       <c r="E58" s="3">
-        <v>66400</v>
+        <v>68000</v>
       </c>
       <c r="F58" s="3">
-        <v>70500</v>
+        <v>64100</v>
       </c>
       <c r="G58" s="3">
+        <v>68100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>67000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>105500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>170300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>107800</v>
+      </c>
+      <c r="L58" s="3">
+        <v>149000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>152000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>288600</v>
+      </c>
+      <c r="O58" s="3">
+        <v>304700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>324500</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>296400</v>
+      </c>
+      <c r="R58" s="3">
+        <v>30100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>36900</v>
+      </c>
+      <c r="T58" s="3">
+        <v>71200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>91400</v>
+      </c>
+      <c r="V58" s="3">
+        <v>74800</v>
+      </c>
+      <c r="W58" s="3">
+        <v>77400</v>
+      </c>
+      <c r="X58" s="3">
+        <v>67500</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>112800</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>64700</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>67700</v>
+      </c>
+      <c r="AB58" s="3">
         <v>69300</v>
       </c>
-      <c r="H58" s="3">
-        <v>109200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>176200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>107800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>149000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>152000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>288600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>304700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>324500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>296400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>30100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>36900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>71200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>91400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>74800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>77400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>67500</v>
-      </c>
-      <c r="X58" s="3">
-        <v>112800</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>64700</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>67700</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>69300</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>113300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>68900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>88600</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>111600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>110200</v>
+        <v>115400</v>
       </c>
       <c r="E59" s="3">
-        <v>114400</v>
+        <v>106500</v>
       </c>
       <c r="F59" s="3">
-        <v>124600</v>
+        <v>110500</v>
       </c>
       <c r="G59" s="3">
-        <v>133900</v>
+        <v>120400</v>
       </c>
       <c r="H59" s="3">
-        <v>126800</v>
+        <v>129400</v>
       </c>
       <c r="I59" s="3">
-        <v>263600</v>
+        <v>122500</v>
       </c>
       <c r="J59" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K59" s="3">
         <v>177400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>179700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>181000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>217000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>206900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>264200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>270900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>274000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>249100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>219000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>211000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>221100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>214000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>180000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>169600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>181900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>172000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>179600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>180200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>287000</v>
+        <v>291900</v>
       </c>
       <c r="E60" s="3">
-        <v>301200</v>
+        <v>277400</v>
       </c>
       <c r="F60" s="3">
-        <v>296800</v>
+        <v>291100</v>
       </c>
       <c r="G60" s="3">
-        <v>313200</v>
+        <v>286800</v>
       </c>
       <c r="H60" s="3">
-        <v>345700</v>
+        <v>302700</v>
       </c>
       <c r="I60" s="3">
-        <v>338500</v>
+        <v>334100</v>
       </c>
       <c r="J60" s="3">
+        <v>327100</v>
+      </c>
+      <c r="K60" s="3">
         <v>346000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>393700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>405900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>539300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>585500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>566500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>388600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>405000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>451700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>447400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>401800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>399700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>401300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>438100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>358300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>349300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>364100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>409900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>364200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>385500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>410500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74300</v>
+        <v>60500</v>
       </c>
       <c r="E61" s="3">
-        <v>73900</v>
+        <v>71800</v>
       </c>
       <c r="F61" s="3">
-        <v>71600</v>
+        <v>71400</v>
       </c>
       <c r="G61" s="3">
-        <v>77000</v>
+        <v>69200</v>
       </c>
       <c r="H61" s="3">
-        <v>68300</v>
+        <v>74500</v>
       </c>
       <c r="I61" s="3">
-        <v>67900</v>
+        <v>66000</v>
       </c>
       <c r="J61" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K61" s="3">
         <v>10600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4993,11 +5136,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -5005,11 +5148,11 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5017,105 +5160,111 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>1600</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>135800</v>
+        <v>125900</v>
       </c>
       <c r="E62" s="3">
-        <v>120800</v>
+        <v>131200</v>
       </c>
       <c r="F62" s="3">
-        <v>125300</v>
+        <v>116700</v>
       </c>
       <c r="G62" s="3">
-        <v>127700</v>
+        <v>121100</v>
       </c>
       <c r="H62" s="3">
-        <v>129800</v>
+        <v>123400</v>
       </c>
       <c r="I62" s="3">
-        <v>206000</v>
+        <v>125500</v>
       </c>
       <c r="J62" s="3">
+        <v>199100</v>
+      </c>
+      <c r="K62" s="3">
         <v>173500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>190000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>185900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>188400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>176600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>172000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>212300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>257400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>260900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>237900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>152700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>181100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>214700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>205900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>192300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>203000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>183900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>175200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>188300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>173700</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>156700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>520900</v>
+        <v>500800</v>
       </c>
       <c r="E66" s="3">
-        <v>518400</v>
+        <v>503500</v>
       </c>
       <c r="F66" s="3">
-        <v>514200</v>
+        <v>501100</v>
       </c>
       <c r="G66" s="3">
-        <v>538300</v>
+        <v>497000</v>
       </c>
       <c r="H66" s="3">
-        <v>564000</v>
+        <v>520200</v>
       </c>
       <c r="I66" s="3">
-        <v>557800</v>
+        <v>545100</v>
       </c>
       <c r="J66" s="3">
+        <v>539100</v>
+      </c>
+      <c r="K66" s="3">
         <v>551100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>616600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>625300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>759700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>791600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>811900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>774200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>637100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>705500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>755600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>727900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>597900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>625900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>658600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>685500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>595000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>596700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>591600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>628600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>597700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>600300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>607900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>987400</v>
+        <v>990100</v>
       </c>
       <c r="E72" s="3">
-        <v>1042700</v>
+        <v>954400</v>
       </c>
       <c r="F72" s="3">
-        <v>1039000</v>
+        <v>1007800</v>
       </c>
       <c r="G72" s="3">
-        <v>1090100</v>
+        <v>1004200</v>
       </c>
       <c r="H72" s="3">
-        <v>1075800</v>
+        <v>1053600</v>
       </c>
       <c r="I72" s="3">
-        <v>1091900</v>
+        <v>1039800</v>
       </c>
       <c r="J72" s="3">
+        <v>1055400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1252700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1320000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1327200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1285700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1314300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1381700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1342900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1631900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1756300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1755300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1699500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1769200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1861100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1919200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1831500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1558700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1559800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1559900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1528300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1508400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1504600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1479000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1517600</v>
+        <v>1411200</v>
       </c>
       <c r="E76" s="3">
-        <v>1444100</v>
+        <v>1466800</v>
       </c>
       <c r="F76" s="3">
-        <v>1431800</v>
+        <v>1395700</v>
       </c>
       <c r="G76" s="3">
-        <v>1539400</v>
+        <v>1383900</v>
       </c>
       <c r="H76" s="3">
-        <v>1533700</v>
+        <v>1487900</v>
       </c>
       <c r="I76" s="3">
-        <v>1497600</v>
+        <v>1482300</v>
       </c>
       <c r="J76" s="3">
+        <v>1447500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1502800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1574800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1588900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1528700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1513500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1593300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1549400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1809300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1969500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1970800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1939000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1983100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2123200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2221200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2136600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2103700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2133200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2109100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2074900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2018500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2016300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1910500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19500</v>
+        <v>-48100</v>
       </c>
       <c r="E81" s="3">
-        <v>4500</v>
+        <v>18900</v>
       </c>
       <c r="F81" s="3">
-        <v>-45600</v>
+        <v>4300</v>
       </c>
       <c r="G81" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="H81" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>13300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>12300</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-66400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>50300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-36600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-66500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>47400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>57200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>31600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>35600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>25600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>37800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20700</v>
+        <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>29600</v>
+        <v>20000</v>
       </c>
       <c r="F83" s="3">
-        <v>20900</v>
+        <v>28600</v>
       </c>
       <c r="G83" s="3">
-        <v>15500</v>
+        <v>20200</v>
       </c>
       <c r="H83" s="3">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="I83" s="3">
-        <v>20700</v>
+        <v>18300</v>
       </c>
       <c r="J83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K83" s="3">
         <v>19100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>12200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>11900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>11700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6700</v>
+        <v>20700</v>
       </c>
       <c r="E89" s="3">
-        <v>7600</v>
+        <v>6400</v>
       </c>
       <c r="F89" s="3">
-        <v>9500</v>
+        <v>7300</v>
       </c>
       <c r="G89" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="H89" s="3">
-        <v>19500</v>
+        <v>13400</v>
       </c>
       <c r="I89" s="3">
-        <v>12000</v>
+        <v>18800</v>
       </c>
       <c r="J89" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K89" s="3">
         <v>30200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>69800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>52800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-76100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>50500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>47200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>26300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>49000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>66000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>63400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>60500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-953000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-996000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1061000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1489000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1233000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1265000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2943000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2060000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2832000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-28900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12100</v>
+        <v>49300</v>
       </c>
       <c r="E94" s="3">
-        <v>-8700</v>
+        <v>-11700</v>
       </c>
       <c r="F94" s="3">
-        <v>43200</v>
+        <v>-8400</v>
       </c>
       <c r="G94" s="3">
+        <v>41800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>-7100</v>
-      </c>
       <c r="I94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="R94" s="3">
+        <v>29900</v>
+      </c>
+      <c r="S94" s="3">
+        <v>47100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V94" s="3">
         <v>9200</v>
       </c>
-      <c r="J94" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>29900</v>
-      </c>
-      <c r="R94" s="3">
-        <v>47100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-52300</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="U94" s="3">
-        <v>9200</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-24900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-15900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-12700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-12200</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-9200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-9100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-23300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-21500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-22500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-22100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-44700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21500</v>
+        <v>-32700</v>
       </c>
       <c r="E100" s="3">
-        <v>-28200</v>
+        <v>-20700</v>
       </c>
       <c r="F100" s="3">
-        <v>-40700</v>
+        <v>-27300</v>
       </c>
       <c r="G100" s="3">
-        <v>-55100</v>
+        <v>-39300</v>
       </c>
       <c r="H100" s="3">
-        <v>-30900</v>
+        <v>-53300</v>
       </c>
       <c r="I100" s="3">
-        <v>-47900</v>
+        <v>-29800</v>
       </c>
       <c r="J100" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-46800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-165700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>251800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-75500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-35800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-68300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-42200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-59100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-24400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-30000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>5900</v>
       </c>
       <c r="F101" s="3">
-        <v>-7400</v>
+        <v>2600</v>
       </c>
       <c r="G101" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="H101" s="3">
-        <v>6400</v>
-      </c>
       <c r="I101" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>18500</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20800</v>
+        <v>43700</v>
       </c>
       <c r="E102" s="3">
-        <v>-26700</v>
+        <v>-20100</v>
       </c>
       <c r="F102" s="3">
-        <v>4600</v>
+        <v>-25800</v>
       </c>
       <c r="G102" s="3">
-        <v>-39400</v>
+        <v>4400</v>
       </c>
       <c r="H102" s="3">
-        <v>-12000</v>
+        <v>-38100</v>
       </c>
       <c r="I102" s="3">
-        <v>-31500</v>
+        <v>-11600</v>
       </c>
       <c r="J102" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-29000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-175900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>77600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>162200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-40300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-61300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>53400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-8800</v>
       </c>
     </row>
